--- a/tmp_output/docked_raw/docked_raw_July.xlsx
+++ b/tmp_output/docked_raw/docked_raw_July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
   <si>
     <t>員編</t>
   </si>
@@ -34,910 +34,709 @@
     <t>HOUR</t>
   </si>
   <si>
-    <t>INTWK0002207010059</t>
-  </si>
-  <si>
-    <t>INTWK0002207060093</t>
-  </si>
-  <si>
-    <t>INTWK0002207040384</t>
-  </si>
-  <si>
-    <t>INTWK0002207050192</t>
-  </si>
-  <si>
-    <t>INTWK0002207050191</t>
-  </si>
-  <si>
-    <t>INTWK0002207040184</t>
-  </si>
-  <si>
-    <t>INTWK0002207040190</t>
-  </si>
-  <si>
-    <t>INTWK0002207040201</t>
-  </si>
-  <si>
-    <t>INTWK0002207040185</t>
-  </si>
-  <si>
-    <t>INTWK0002207040189</t>
-  </si>
-  <si>
-    <t>INTWK0002207040187</t>
-  </si>
-  <si>
-    <t>INTWK0002207040186</t>
-  </si>
-  <si>
-    <t>INTWK0002207060066</t>
-  </si>
-  <si>
-    <t>INTWK0002207060053</t>
-  </si>
-  <si>
-    <t>INTWK0002207060065</t>
-  </si>
-  <si>
-    <t>INTWK0002207060055</t>
-  </si>
-  <si>
-    <t>INTWK0002207060051</t>
-  </si>
-  <si>
-    <t>INTWK0002207060062</t>
-  </si>
-  <si>
-    <t>INTWK0002207060058</t>
-  </si>
-  <si>
-    <t>INTWK0002207060046</t>
-  </si>
-  <si>
-    <t>INTWK0002207060056</t>
-  </si>
-  <si>
-    <t>INTWK0002207060047</t>
-  </si>
-  <si>
-    <t>INTWK0002207060059</t>
-  </si>
-  <si>
-    <t>INTWK0002207060057</t>
-  </si>
-  <si>
-    <t>INTWK0002207060044</t>
-  </si>
-  <si>
-    <t>INTWK0002207060060</t>
-  </si>
-  <si>
-    <t>INTWK0002207060052</t>
-  </si>
-  <si>
-    <t>INTWK0002207060048</t>
-  </si>
-  <si>
-    <t>INTWK0002207060049</t>
-  </si>
-  <si>
-    <t>INTWK0002207060054</t>
-  </si>
-  <si>
-    <t>INTWK0002207060045</t>
-  </si>
-  <si>
-    <t>INTWK0002207060064</t>
-  </si>
-  <si>
-    <t>INTWK0002207060063</t>
-  </si>
-  <si>
-    <t>INTWK0002207060061</t>
-  </si>
-  <si>
-    <t>INTWK0002207060043</t>
-  </si>
-  <si>
-    <t>INTWK0002207070373</t>
-  </si>
-  <si>
-    <t>INTWK0002207060042</t>
-  </si>
-  <si>
-    <t>INTWK0002207050362</t>
-  </si>
-  <si>
-    <t>INTWK0002207010259</t>
-  </si>
-  <si>
-    <t>INTWK0002207010266</t>
-  </si>
-  <si>
-    <t>INTWK0002207010257</t>
-  </si>
-  <si>
-    <t>INTWK0002207010260</t>
-  </si>
-  <si>
-    <t>INTWK0002207010256</t>
-  </si>
-  <si>
-    <t>INTWK0002207010262</t>
-  </si>
-  <si>
-    <t>INTWK0002207010258</t>
-  </si>
-  <si>
-    <t>INTWK0002207010261</t>
-  </si>
-  <si>
-    <t>INTWK0002207010263</t>
-  </si>
-  <si>
-    <t>INTWK0002207010265</t>
-  </si>
-  <si>
-    <t>INTWK0002207010264</t>
-  </si>
-  <si>
-    <t>INTWK0002207060186</t>
-  </si>
-  <si>
-    <t>INTWK0002207060189</t>
-  </si>
-  <si>
-    <t>INTWK0002207060187</t>
-  </si>
-  <si>
-    <t>INTWK0002207060188</t>
-  </si>
-  <si>
-    <t>INTWK0002207050193</t>
-  </si>
-  <si>
-    <t>INTWK0002207050194</t>
-  </si>
-  <si>
-    <t>INTWK0002207050195</t>
-  </si>
-  <si>
-    <t>INTWK0002207040413</t>
-  </si>
-  <si>
-    <t>INTWK0002207040415</t>
-  </si>
-  <si>
-    <t>INTWK0002207040414</t>
-  </si>
-  <si>
-    <t>INTWK0002207050357</t>
-  </si>
-  <si>
-    <t>INTWK0002207050359</t>
-  </si>
-  <si>
-    <t>INTWK0002207050360</t>
-  </si>
-  <si>
-    <t>INTWK0002207050358</t>
-  </si>
-  <si>
-    <t>INTWK0002207060117</t>
-  </si>
-  <si>
-    <t>INTWK0002207060115</t>
-  </si>
-  <si>
-    <t>INTWK0002207060114</t>
-  </si>
-  <si>
-    <t>INTWK0002207060096</t>
-  </si>
-  <si>
-    <t>INTWK0002207060113</t>
-  </si>
-  <si>
-    <t>INTWK0002207060116</t>
-  </si>
-  <si>
-    <t>INTWK0002207060100</t>
-  </si>
-  <si>
-    <t>INTWK0002207060111</t>
-  </si>
-  <si>
-    <t>INTWK0002207060099</t>
-  </si>
-  <si>
-    <t>INTWK0002207060095</t>
-  </si>
-  <si>
-    <t>INTWK0002207060119</t>
-  </si>
-  <si>
-    <t>INTWK0002207060098</t>
-  </si>
-  <si>
-    <t>INTWK0002207060097</t>
-  </si>
-  <si>
-    <t>INTWK0002207060112</t>
-  </si>
-  <si>
-    <t>INTWK0002207060118</t>
-  </si>
-  <si>
-    <t>INTWK0002207010371</t>
-  </si>
-  <si>
-    <t>INTWK0002207010378</t>
-  </si>
-  <si>
-    <t>INTWK0002207010379</t>
-  </si>
-  <si>
-    <t>INTWK0002207010370</t>
-  </si>
-  <si>
-    <t>INTWK0002207010355</t>
-  </si>
-  <si>
-    <t>INTWK0002207010369</t>
-  </si>
-  <si>
-    <t>INTWK0002207010353</t>
-  </si>
-  <si>
-    <t>INTWK0002207010364</t>
-  </si>
-  <si>
-    <t>INTWK0002207010381</t>
-  </si>
-  <si>
-    <t>INTWK0002207010382</t>
-  </si>
-  <si>
-    <t>INTWK0002207010356</t>
-  </si>
-  <si>
-    <t>INTWK0002207010358</t>
-  </si>
-  <si>
-    <t>INTWK0002207010352</t>
-  </si>
-  <si>
-    <t>INTWK0002207010388</t>
-  </si>
-  <si>
-    <t>INTWK0002207010385</t>
-  </si>
-  <si>
-    <t>INTWK0002207010359</t>
-  </si>
-  <si>
-    <t>INTWK0002207010351</t>
-  </si>
-  <si>
-    <t>INTWK0002207010357</t>
-  </si>
-  <si>
-    <t>INTWK0002207010380</t>
-  </si>
-  <si>
-    <t>INTWK0002207010375</t>
-  </si>
-  <si>
-    <t>INTWK0002207010362</t>
-  </si>
-  <si>
-    <t>INTWK0002207010354</t>
-  </si>
-  <si>
-    <t>INTWK0002207010377</t>
-  </si>
-  <si>
-    <t>INTWK0002207010368</t>
-  </si>
-  <si>
-    <t>INTWK0002207010373</t>
-  </si>
-  <si>
-    <t>INTWK0002207010365</t>
-  </si>
-  <si>
-    <t>INTWK0002207010372</t>
-  </si>
-  <si>
-    <t>INTWK0002207010366</t>
-  </si>
-  <si>
-    <t>INTWK0002207010374</t>
-  </si>
-  <si>
-    <t>INTWK0002207010384</t>
-  </si>
-  <si>
-    <t>INTWK0002206270364</t>
-  </si>
-  <si>
-    <t>INTWK0002207050323</t>
-  </si>
-  <si>
-    <t>INTWK0002206270366</t>
-  </si>
-  <si>
-    <t>INTWK0002207050326</t>
-  </si>
-  <si>
-    <t>INTWK0002206270360</t>
-  </si>
-  <si>
-    <t>INTWK0002206270365</t>
-  </si>
-  <si>
-    <t>INTWK0002206270356</t>
-  </si>
-  <si>
-    <t>INTWK0002206270369</t>
-  </si>
-  <si>
-    <t>INTWK0002206270374</t>
-  </si>
-  <si>
-    <t>INTWK0002206270357</t>
-  </si>
-  <si>
-    <t>INTWK0002206270373</t>
-  </si>
-  <si>
-    <t>INTWK0002207050324</t>
-  </si>
-  <si>
-    <t>INTWK0002206270371</t>
-  </si>
-  <si>
-    <t>INTWK0002206270358</t>
-  </si>
-  <si>
-    <t>INTWK0002206270363</t>
-  </si>
-  <si>
-    <t>INTWK0002206270372</t>
-  </si>
-  <si>
-    <t>INTWK0002207050322</t>
-  </si>
-  <si>
-    <t>INTWK0002206270375</t>
-  </si>
-  <si>
-    <t>INTWK0002206270368</t>
-  </si>
-  <si>
-    <t>INTWK0002206270359</t>
-  </si>
-  <si>
-    <t>INTWK0002207050327</t>
-  </si>
-  <si>
-    <t>INTWK0002206270362</t>
-  </si>
-  <si>
-    <t>INTWK0002206270367</t>
-  </si>
-  <si>
-    <t>INTWK0002206270370</t>
-  </si>
-  <si>
-    <t>INTWK0002206270361</t>
-  </si>
-  <si>
-    <t>INTWK0002207040036</t>
-  </si>
-  <si>
-    <t>INTWK0002207040034</t>
-  </si>
-  <si>
-    <t>INTWK0002207040035</t>
-  </si>
-  <si>
-    <t>INTWK0002207040033</t>
-  </si>
-  <si>
-    <t>INTWK0002207020007</t>
-  </si>
-  <si>
-    <t>INTWK0002207020004</t>
-  </si>
-  <si>
-    <t>INTWK0002207040031</t>
-  </si>
-  <si>
-    <t>INTWK0002207040038</t>
-  </si>
-  <si>
-    <t>INTWK0002207020001</t>
-  </si>
-  <si>
-    <t>INTWK0002207040040</t>
-  </si>
-  <si>
-    <t>INTWK0002207010389</t>
-  </si>
-  <si>
-    <t>INTWK0002207010361</t>
-  </si>
-  <si>
-    <t>INTWK0002207010363</t>
-  </si>
-  <si>
-    <t>INTWK0002207010386</t>
-  </si>
-  <si>
-    <t>INTWK0002207010376</t>
-  </si>
-  <si>
-    <t>INTWK0002207010367</t>
-  </si>
-  <si>
-    <t>INTWK0002207010360</t>
-  </si>
-  <si>
-    <t>INTWK0002207040235</t>
-  </si>
-  <si>
-    <t>INTWK0002207040234</t>
-  </si>
-  <si>
-    <t>INTWK0002207040233</t>
-  </si>
-  <si>
-    <t>INTWK0002207040231</t>
-  </si>
-  <si>
-    <t>INTWK0002207040236</t>
-  </si>
-  <si>
-    <t>INTWK0002207040232</t>
-  </si>
-  <si>
-    <t>INTWK0002207040238</t>
-  </si>
-  <si>
-    <t>INTWK0002207040237</t>
-  </si>
-  <si>
-    <t>INTWK0002207040210</t>
-  </si>
-  <si>
-    <t>INTWK0002207040419</t>
-  </si>
-  <si>
-    <t>INTWK0002207040416</t>
-  </si>
-  <si>
-    <t>INTWK0002207040417</t>
-  </si>
-  <si>
-    <t>INTWK0002207040418</t>
-  </si>
-  <si>
-    <t>INTWK0002207040420</t>
-  </si>
-  <si>
-    <t>INTWK0002207010515</t>
-  </si>
-  <si>
-    <t>INTWK0002207010522</t>
-  </si>
-  <si>
-    <t>INTWK0002207010511</t>
-  </si>
-  <si>
-    <t>INTWK0002207010514</t>
-  </si>
-  <si>
-    <t>INTWK0002207010524</t>
-  </si>
-  <si>
-    <t>INTWK0002207010527</t>
-  </si>
-  <si>
-    <t>INTWK0002207010526</t>
-  </si>
-  <si>
-    <t>INTWK0002207010516</t>
-  </si>
-  <si>
-    <t>INTWK0002207010521</t>
-  </si>
-  <si>
-    <t>INTWK0002207010520</t>
-  </si>
-  <si>
-    <t>INTWK0002207010517</t>
-  </si>
-  <si>
-    <t>INTWK0002207060335</t>
-  </si>
-  <si>
-    <t>INTWK0002207010528</t>
-  </si>
-  <si>
-    <t>INTWK0002207010529</t>
-  </si>
-  <si>
-    <t>INTWK0002207010523</t>
-  </si>
-  <si>
-    <t>INTWK0002207010500</t>
-  </si>
-  <si>
-    <t>INTWK0002207010512</t>
-  </si>
-  <si>
-    <t>INTWK0002207060334</t>
-  </si>
-  <si>
-    <t>INTWK0002207010519</t>
-  </si>
-  <si>
-    <t>INTWK0002207010496</t>
-  </si>
-  <si>
-    <t>INTWK0002207010525</t>
-  </si>
-  <si>
-    <t>INTWK0002207010513</t>
-  </si>
-  <si>
-    <t>INTWK0002207010518</t>
-  </si>
-  <si>
-    <t>INTWK0002207010244</t>
-  </si>
-  <si>
-    <t>INTWK0002207010236</t>
-  </si>
-  <si>
-    <t>INTWK0002207010242</t>
-  </si>
-  <si>
-    <t>INTWK0002207010241</t>
-  </si>
-  <si>
-    <t>INTWK0002207010243</t>
-  </si>
-  <si>
-    <t>INTWK0002207010240</t>
-  </si>
-  <si>
-    <t>INTWK0002207010231</t>
-  </si>
-  <si>
-    <t>INTWK0002207010180</t>
-  </si>
-  <si>
-    <t>INTWK0002207010227</t>
-  </si>
-  <si>
-    <t>INTWK0002207010239</t>
-  </si>
-  <si>
-    <t>INTWK0002207010233</t>
-  </si>
-  <si>
-    <t>INTWK0002207010237</t>
-  </si>
-  <si>
-    <t>INTWK0002207010245</t>
-  </si>
-  <si>
-    <t>INTWK0002207010223</t>
-  </si>
-  <si>
-    <t>INTWK0002207010221</t>
-  </si>
-  <si>
-    <t>INTWK0002207010234</t>
-  </si>
-  <si>
-    <t>INTWK0002207010225</t>
-  </si>
-  <si>
-    <t>INTWK0002207050227</t>
-  </si>
-  <si>
-    <t>INTWK0002207050197</t>
-  </si>
-  <si>
-    <t>INTWK0002207050235</t>
-  </si>
-  <si>
-    <t>INTWK0002207050198</t>
-  </si>
-  <si>
-    <t>INTWK0002207050196</t>
-  </si>
-  <si>
-    <t>INTWK0002207050231</t>
-  </si>
-  <si>
-    <t>INTWK0002207050232</t>
-  </si>
-  <si>
-    <t>INTWK0002207050200</t>
-  </si>
-  <si>
-    <t>INTWK0002207050199</t>
-  </si>
-  <si>
-    <t>INTWK0002207050234</t>
-  </si>
-  <si>
-    <t>INTWK0002207060067</t>
-  </si>
-  <si>
-    <t>INTWK0002207050170</t>
-  </si>
-  <si>
-    <t>INTWK0002207050169</t>
-  </si>
-  <si>
-    <t>INTWK0002207050189</t>
-  </si>
-  <si>
-    <t>INTWK0002207050187</t>
-  </si>
-  <si>
-    <t>INTWK0002207050184</t>
-  </si>
-  <si>
-    <t>INTWK0002207050186</t>
-  </si>
-  <si>
-    <t>INTWK0002207050182</t>
-  </si>
-  <si>
-    <t>INTWK0002207050183</t>
-  </si>
-  <si>
-    <t>INTWK0002207050185</t>
-  </si>
-  <si>
-    <t>INTWK0002207050188</t>
-  </si>
-  <si>
-    <t>INTWK0002207010350</t>
-  </si>
-  <si>
-    <t>INTWK0002207010349</t>
-  </si>
-  <si>
-    <t>INTWK0002207010346</t>
-  </si>
-  <si>
-    <t>INTWK0002207010224</t>
-  </si>
-  <si>
-    <t>INTWK0002207010228</t>
-  </si>
-  <si>
-    <t>INTWK0002207010222</t>
-  </si>
-  <si>
-    <t>INTWK0002207010232</t>
-  </si>
-  <si>
-    <t>INTWK0002207010226</t>
-  </si>
-  <si>
-    <t>INTWK0002207010230</t>
-  </si>
-  <si>
-    <t>INTWK0002207010238</t>
-  </si>
-  <si>
-    <t>INTWK0002207040409</t>
-  </si>
-  <si>
-    <t>INTWK0002207040408</t>
-  </si>
-  <si>
-    <t>INTWK0002207060419</t>
-  </si>
-  <si>
-    <t>INTWK0002207010139</t>
-  </si>
-  <si>
-    <t>INTWK0002207010131</t>
-  </si>
-  <si>
-    <t>INTWK0002207040584</t>
-  </si>
-  <si>
-    <t>INTWK0002207040585</t>
-  </si>
-  <si>
-    <t>INTWK0002207040582</t>
-  </si>
-  <si>
-    <t>INTWK0002207040586</t>
-  </si>
-  <si>
-    <t>INTWK0002207050129</t>
-  </si>
-  <si>
-    <t>INTWK0002207040587</t>
-  </si>
-  <si>
-    <t>INTWK0002207040588</t>
-  </si>
-  <si>
-    <t>INTWK0002207050114</t>
-  </si>
-  <si>
-    <t>INTWK0002207050115</t>
-  </si>
-  <si>
-    <t>INTWK0002207050118</t>
-  </si>
-  <si>
-    <t>INTWK0002207050120</t>
-  </si>
-  <si>
-    <t>INTWK0002207050117</t>
-  </si>
-  <si>
-    <t>INTWK0002207050119</t>
-  </si>
-  <si>
-    <t>INTWK0002207040589</t>
-  </si>
-  <si>
-    <t>INTWK0002207050102</t>
-  </si>
-  <si>
-    <t>INTWK0002207050104</t>
-  </si>
-  <si>
-    <t>INTWK0002207050105</t>
-  </si>
-  <si>
-    <t>INTWK0002207050107</t>
-  </si>
-  <si>
-    <t>INTWK0002207050106</t>
-  </si>
-  <si>
-    <t>INTWK0002207050111</t>
-  </si>
-  <si>
-    <t>INTWK0002207050109</t>
-  </si>
-  <si>
-    <t>INTWK0002207050113</t>
-  </si>
-  <si>
-    <t>INTWK0002207050103</t>
-  </si>
-  <si>
-    <t>INTWK0002207050112</t>
-  </si>
-  <si>
-    <t>INTWK0002207040581</t>
-  </si>
-  <si>
-    <t>INTWK0002207050121</t>
-  </si>
-  <si>
-    <t>INTWK0002207040583</t>
-  </si>
-  <si>
-    <t>INTWK0002207040219</t>
-  </si>
-  <si>
-    <t>INTWK0002207050116</t>
-  </si>
-  <si>
-    <t>INTWK0002207040223</t>
-  </si>
-  <si>
-    <t>INTWK0002207040215</t>
-  </si>
-  <si>
-    <t>INTWK0002207040225</t>
-  </si>
-  <si>
-    <t>INTWK0002207040218</t>
-  </si>
-  <si>
-    <t>INTWK0002207040220</t>
-  </si>
-  <si>
-    <t>INTWK0002207040222</t>
-  </si>
-  <si>
-    <t>INTWK0002207040217</t>
-  </si>
-  <si>
-    <t>INTWK0002207040216</t>
-  </si>
-  <si>
-    <t>INTWK0002207040224</t>
-  </si>
-  <si>
-    <t>INTWK0002207040221</t>
-  </si>
-  <si>
-    <t>INTWK0002207060208</t>
-  </si>
-  <si>
-    <t>INTWK0002207060196</t>
-  </si>
-  <si>
-    <t>INTWK0002207060192</t>
-  </si>
-  <si>
-    <t>INTWK0002207060199</t>
-  </si>
-  <si>
-    <t>INTWK0002207060204</t>
-  </si>
-  <si>
-    <t>INTWK0002207060209</t>
-  </si>
-  <si>
-    <t>INTWK0002207060207</t>
-  </si>
-  <si>
-    <t>INTWK0002207060193</t>
-  </si>
-  <si>
-    <t>INTWK0002207060159</t>
-  </si>
-  <si>
-    <t>INTWK0002207060201</t>
-  </si>
-  <si>
-    <t>INTWK0002207060195</t>
-  </si>
-  <si>
-    <t>INTWK0002207060202</t>
-  </si>
-  <si>
-    <t>INTWK0002207060200</t>
-  </si>
-  <si>
-    <t>INTWK0002207060191</t>
-  </si>
-  <si>
-    <t>INTWK0002207060206</t>
-  </si>
-  <si>
-    <t>INTWK0002207060197</t>
-  </si>
-  <si>
-    <t>INTWK0002207060194</t>
-  </si>
-  <si>
-    <t>INTWK0002207060158</t>
-  </si>
-  <si>
-    <t>INTWK0002207060157</t>
-  </si>
-  <si>
-    <t>INTWK0002207060203</t>
-  </si>
-  <si>
-    <t>INTWK0002207060198</t>
-  </si>
-  <si>
-    <t>INTWK0002207060160</t>
-  </si>
-  <si>
-    <t>INTWK0002207060205</t>
+    <t>INTWK0002207060034</t>
+  </si>
+  <si>
+    <t>INTWK0002207060001</t>
+  </si>
+  <si>
+    <t>INTWK0002207060033</t>
+  </si>
+  <si>
+    <t>INTWK0002207060023</t>
+  </si>
+  <si>
+    <t>INTWK0002207060011</t>
+  </si>
+  <si>
+    <t>INTWK0002207060006</t>
+  </si>
+  <si>
+    <t>INTWK0002207060018</t>
+  </si>
+  <si>
+    <t>INTWK0002207060017</t>
+  </si>
+  <si>
+    <t>INTWK0002207060032</t>
+  </si>
+  <si>
+    <t>INTWK0002207060019</t>
+  </si>
+  <si>
+    <t>INTWK0002207060004</t>
+  </si>
+  <si>
+    <t>INTWK0002207060007</t>
+  </si>
+  <si>
+    <t>INTWK0002207060015</t>
+  </si>
+  <si>
+    <t>INTWK0002207060038</t>
+  </si>
+  <si>
+    <t>INTWK0002207060002</t>
+  </si>
+  <si>
+    <t>INTWK0002207060005</t>
+  </si>
+  <si>
+    <t>INTWK0002207060027</t>
+  </si>
+  <si>
+    <t>INTWK0002207060037</t>
+  </si>
+  <si>
+    <t>INTWK0002207060035</t>
+  </si>
+  <si>
+    <t>INTWK0002207060025</t>
+  </si>
+  <si>
+    <t>INTWK0002207060026</t>
+  </si>
+  <si>
+    <t>INTWK0002207060040</t>
+  </si>
+  <si>
+    <t>INTWK0002207060031</t>
+  </si>
+  <si>
+    <t>INTWK0002207060039</t>
+  </si>
+  <si>
+    <t>INTWK0002207060008</t>
+  </si>
+  <si>
+    <t>INTWK0002207060010</t>
+  </si>
+  <si>
+    <t>INTWK0002207060012</t>
+  </si>
+  <si>
+    <t>INTWK0002207060028</t>
+  </si>
+  <si>
+    <t>INTWK0002207060029</t>
+  </si>
+  <si>
+    <t>INTWK0002207060016</t>
+  </si>
+  <si>
+    <t>INTWK0002207060041</t>
+  </si>
+  <si>
+    <t>INTWK0002207060024</t>
+  </si>
+  <si>
+    <t>INTWK0002207060022</t>
+  </si>
+  <si>
+    <t>INTWK0002207060009</t>
+  </si>
+  <si>
+    <t>INTWK0002207060021</t>
+  </si>
+  <si>
+    <t>INTWK0002207060030</t>
+  </si>
+  <si>
+    <t>INTWK0002207060003</t>
+  </si>
+  <si>
+    <t>INTWK0002207060013</t>
+  </si>
+  <si>
+    <t>INTWK0002207060020</t>
+  </si>
+  <si>
+    <t>INTWK0002207060014</t>
+  </si>
+  <si>
+    <t>INTWK0002207060431</t>
+  </si>
+  <si>
+    <t>INTWK0002207060430</t>
+  </si>
+  <si>
+    <t>INTWK0002207060429</t>
+  </si>
+  <si>
+    <t>INTWK0002207060432</t>
+  </si>
+  <si>
+    <t>INTWK0002207060433</t>
+  </si>
+  <si>
+    <t>INTWK0002207040373</t>
+  </si>
+  <si>
+    <t>INTWK0002207040372</t>
+  </si>
+  <si>
+    <t>INTWK0002207040340</t>
+  </si>
+  <si>
+    <t>INTWK0002207040371</t>
+  </si>
+  <si>
+    <t>INTWK0002207060363</t>
+  </si>
+  <si>
+    <t>INTWK0002207060369</t>
+  </si>
+  <si>
+    <t>INTWK0002207050371</t>
+  </si>
+  <si>
+    <t>INTWK0002207050330</t>
+  </si>
+  <si>
+    <t>INTWK0002207060367</t>
+  </si>
+  <si>
+    <t>INTWK0002207060366</t>
+  </si>
+  <si>
+    <t>INTWK0002207060364</t>
+  </si>
+  <si>
+    <t>INTWK0002207060365</t>
+  </si>
+  <si>
+    <t>INTWK0002207060362</t>
+  </si>
+  <si>
+    <t>INTWK0002207060361</t>
+  </si>
+  <si>
+    <t>INTWK0002207070259</t>
+  </si>
+  <si>
+    <t>INTWK0002207060341</t>
+  </si>
+  <si>
+    <t>INTWK0002207060343</t>
+  </si>
+  <si>
+    <t>INTWK0002207060342</t>
+  </si>
+  <si>
+    <t>INTWK0002207070488</t>
+  </si>
+  <si>
+    <t>INTWK0002207070490</t>
+  </si>
+  <si>
+    <t>INTWK0002207070494</t>
+  </si>
+  <si>
+    <t>INTWK0002207070470</t>
+  </si>
+  <si>
+    <t>INTWK0002207070482</t>
+  </si>
+  <si>
+    <t>INTWK0002207070489</t>
+  </si>
+  <si>
+    <t>INTWK0002207070484</t>
+  </si>
+  <si>
+    <t>INTWK0002207070483</t>
+  </si>
+  <si>
+    <t>INTWK0002207070485</t>
+  </si>
+  <si>
+    <t>INTWK0002207070491</t>
+  </si>
+  <si>
+    <t>INTWK0002207070481</t>
+  </si>
+  <si>
+    <t>INTWK0002207070492</t>
+  </si>
+  <si>
+    <t>INTWK0002207070469</t>
+  </si>
+  <si>
+    <t>INTWK0002207070487</t>
+  </si>
+  <si>
+    <t>INTWK0002207070493</t>
+  </si>
+  <si>
+    <t>INTWK0002207070486</t>
+  </si>
+  <si>
+    <t>INTWK0002207070369</t>
+  </si>
+  <si>
+    <t>INTWK0002207070367</t>
+  </si>
+  <si>
+    <t>INTWK0002207070372</t>
+  </si>
+  <si>
+    <t>INTWK0002207070368</t>
+  </si>
+  <si>
+    <t>INTWK0002207070370</t>
+  </si>
+  <si>
+    <t>INTWK0002207070371</t>
+  </si>
+  <si>
+    <t>INTWK0002207060389</t>
+  </si>
+  <si>
+    <t>INTWK0002207060385</t>
+  </si>
+  <si>
+    <t>INTWK0002207060382</t>
+  </si>
+  <si>
+    <t>INTWK0002207060384</t>
+  </si>
+  <si>
+    <t>INTWK0002207060386</t>
+  </si>
+  <si>
+    <t>INTWK0002207060387</t>
+  </si>
+  <si>
+    <t>INTWK0002207060381</t>
+  </si>
+  <si>
+    <t>INTWK0002207060388</t>
+  </si>
+  <si>
+    <t>INTWK0002207060379</t>
+  </si>
+  <si>
+    <t>INTWK0002207060392</t>
+  </si>
+  <si>
+    <t>INTWK0002207060383</t>
+  </si>
+  <si>
+    <t>INTWK0002207060391</t>
+  </si>
+  <si>
+    <t>INTWK0002207060390</t>
+  </si>
+  <si>
+    <t>INTWK0002207060380</t>
+  </si>
+  <si>
+    <t>INTWK0002206280311</t>
+  </si>
+  <si>
+    <t>INTWK0002206290104</t>
+  </si>
+  <si>
+    <t>INTWK0002206290353</t>
+  </si>
+  <si>
+    <t>INTWK0002206290105</t>
+  </si>
+  <si>
+    <t>INTWK0002206290108</t>
+  </si>
+  <si>
+    <t>INTWK0002206290107</t>
+  </si>
+  <si>
+    <t>INTWK0002206290106</t>
+  </si>
+  <si>
+    <t>INTWK0002206280313</t>
+  </si>
+  <si>
+    <t>INTWK0002206280312</t>
+  </si>
+  <si>
+    <t>INTWK0002206280301</t>
+  </si>
+  <si>
+    <t>INTWK0002207060183</t>
+  </si>
+  <si>
+    <t>INTWK0002207050179</t>
+  </si>
+  <si>
+    <t>INTWK0002207050173</t>
+  </si>
+  <si>
+    <t>INTWK0002207050175</t>
+  </si>
+  <si>
+    <t>INTWK0002207060185</t>
+  </si>
+  <si>
+    <t>INTWK0002207060184</t>
+  </si>
+  <si>
+    <t>INTWK0002207050177</t>
+  </si>
+  <si>
+    <t>INTWK0002207050174</t>
+  </si>
+  <si>
+    <t>INTWK0002207050178</t>
+  </si>
+  <si>
+    <t>INTWK0002207050171</t>
+  </si>
+  <si>
+    <t>INTWK0002207050180</t>
+  </si>
+  <si>
+    <t>INTWK0002207070409</t>
+  </si>
+  <si>
+    <t>INTWK0002207070407</t>
+  </si>
+  <si>
+    <t>INTWK0002207070406</t>
+  </si>
+  <si>
+    <t>INTWK0002207070398</t>
+  </si>
+  <si>
+    <t>INTWK0002207070397</t>
+  </si>
+  <si>
+    <t>INTWK0002207070399</t>
+  </si>
+  <si>
+    <t>INTWK0002207070408</t>
+  </si>
+  <si>
+    <t>INTWK0002207070411</t>
+  </si>
+  <si>
+    <t>INTWK0002207070400</t>
+  </si>
+  <si>
+    <t>INTWK0002207070392</t>
+  </si>
+  <si>
+    <t>INTWK0002207070391</t>
+  </si>
+  <si>
+    <t>INTWK0002207070396</t>
+  </si>
+  <si>
+    <t>INTWK0002207070395</t>
+  </si>
+  <si>
+    <t>INTWK0002207070404</t>
+  </si>
+  <si>
+    <t>INTWK0002207070405</t>
+  </si>
+  <si>
+    <t>INTWK0002207050214</t>
+  </si>
+  <si>
+    <t>INTWK0002207070393</t>
+  </si>
+  <si>
+    <t>INTWK0002207070403</t>
+  </si>
+  <si>
+    <t>INTWK0002207070394</t>
+  </si>
+  <si>
+    <t>INTWK0002207050206</t>
+  </si>
+  <si>
+    <t>INTWK0002207070402</t>
+  </si>
+  <si>
+    <t>INTWK0002207050217</t>
+  </si>
+  <si>
+    <t>INTWK0002207050205</t>
+  </si>
+  <si>
+    <t>INTWK0002207050210</t>
+  </si>
+  <si>
+    <t>INTWK0002207050204</t>
+  </si>
+  <si>
+    <t>INTWK0002207050215</t>
+  </si>
+  <si>
+    <t>INTWK0002207050219</t>
+  </si>
+  <si>
+    <t>INTWK0002207070410</t>
+  </si>
+  <si>
+    <t>INTWK0002207050212</t>
+  </si>
+  <si>
+    <t>INTWK0002207050211</t>
+  </si>
+  <si>
+    <t>INTWK0002207050208</t>
+  </si>
+  <si>
+    <t>INTWK0002207050203</t>
+  </si>
+  <si>
+    <t>INTWK0002207050207</t>
+  </si>
+  <si>
+    <t>INTWK0002207050221</t>
+  </si>
+  <si>
+    <t>INTWK0002207050213</t>
+  </si>
+  <si>
+    <t>INTWK0002207050202</t>
+  </si>
+  <si>
+    <t>INTWK0002207050172</t>
+  </si>
+  <si>
+    <t>INTWK0002207050216</t>
+  </si>
+  <si>
+    <t>INTWK0002207050201</t>
+  </si>
+  <si>
+    <t>INTWK0002207050209</t>
+  </si>
+  <si>
+    <t>INTWK0002207050218</t>
+  </si>
+  <si>
+    <t>INTWK0002207050220</t>
+  </si>
+  <si>
+    <t>INTWK0002207050065</t>
+  </si>
+  <si>
+    <t>INTWK0002207050067</t>
+  </si>
+  <si>
+    <t>INTWK0002207050068</t>
+  </si>
+  <si>
+    <t>INTWK0002207070149</t>
+  </si>
+  <si>
+    <t>INTWK0002207070070</t>
+  </si>
+  <si>
+    <t>INTWK0002207070068</t>
+  </si>
+  <si>
+    <t>INTWK0002207070146</t>
+  </si>
+  <si>
+    <t>INTWK0002207070147</t>
+  </si>
+  <si>
+    <t>INTWK0002207070144</t>
+  </si>
+  <si>
+    <t>INTWK0002207070067</t>
+  </si>
+  <si>
+    <t>INTWK0002207070069</t>
+  </si>
+  <si>
+    <t>INTWK0002207070377</t>
+  </si>
+  <si>
+    <t>INTWK0002207070153</t>
+  </si>
+  <si>
+    <t>INTWK0002207070151</t>
+  </si>
+  <si>
+    <t>INTWK0002207070066</t>
+  </si>
+  <si>
+    <t>INTWK0002207070141</t>
+  </si>
+  <si>
+    <t>INTWK0002207070142</t>
+  </si>
+  <si>
+    <t>INTWK0002207070152</t>
+  </si>
+  <si>
+    <t>INTWK0002207070065</t>
+  </si>
+  <si>
+    <t>INTWK0002207070143</t>
+  </si>
+  <si>
+    <t>INTWK0002207070150</t>
+  </si>
+  <si>
+    <t>INTWK0002207050312</t>
+  </si>
+  <si>
+    <t>INTWK0002207050291</t>
+  </si>
+  <si>
+    <t>INTWK0002207050294</t>
+  </si>
+  <si>
+    <t>INTWK0002207050292</t>
+  </si>
+  <si>
+    <t>INTWK0002207050311</t>
+  </si>
+  <si>
+    <t>INTWK0002207050316</t>
+  </si>
+  <si>
+    <t>INTWK0002207050307</t>
+  </si>
+  <si>
+    <t>INTWK0002207050296</t>
+  </si>
+  <si>
+    <t>INTWK0002207070285</t>
+  </si>
+  <si>
+    <t>INTWK0002207070282</t>
+  </si>
+  <si>
+    <t>INTWK0002207060345</t>
+  </si>
+  <si>
+    <t>INTWK0002207060348</t>
+  </si>
+  <si>
+    <t>INTWK0002207060347</t>
+  </si>
+  <si>
+    <t>INTWK0002207060350</t>
+  </si>
+  <si>
+    <t>INTWK0002207070281</t>
+  </si>
+  <si>
+    <t>INTWK0002207070280</t>
+  </si>
+  <si>
+    <t>INTWK0002207070284</t>
+  </si>
+  <si>
+    <t>INTWK0002207060349</t>
+  </si>
+  <si>
+    <t>INTWK0002207080091</t>
+  </si>
+  <si>
+    <t>INTWK0002207080093</t>
+  </si>
+  <si>
+    <t>INTWK0002207080086</t>
+  </si>
+  <si>
+    <t>INTWK0002207080088</t>
+  </si>
+  <si>
+    <t>INTWK0002207080089</t>
+  </si>
+  <si>
+    <t>INTWK0002207080092</t>
+  </si>
+  <si>
+    <t>INTWK0002207080094</t>
+  </si>
+  <si>
+    <t>INTWK0002207080087</t>
+  </si>
+  <si>
+    <t>INTWK0002207070378</t>
+  </si>
+  <si>
+    <t>INTWK0002207070379</t>
+  </si>
+  <si>
+    <t>INTWK0002207050310</t>
+  </si>
+  <si>
+    <t>INTWK0002207050299</t>
+  </si>
+  <si>
+    <t>INTWK0002207050283</t>
+  </si>
+  <si>
+    <t>INTWK0002207050285</t>
+  </si>
+  <si>
+    <t>INTWK0002207050300</t>
+  </si>
+  <si>
+    <t>INTWK0002207050301</t>
+  </si>
+  <si>
+    <t>INTWK0002207050309</t>
+  </si>
+  <si>
+    <t>INTWK0002207050295</t>
+  </si>
+  <si>
+    <t>INTWK0002207050298</t>
+  </si>
+  <si>
+    <t>INTWK0002207050308</t>
+  </si>
+  <si>
+    <t>INTWK0002207050314</t>
+  </si>
+  <si>
+    <t>INTWK0002207050288</t>
+  </si>
+  <si>
+    <t>INTWK0002207050315</t>
+  </si>
+  <si>
+    <t>INTWK0002207050320</t>
+  </si>
+  <si>
+    <t>INTWK0002207050321</t>
+  </si>
+  <si>
+    <t>INTWK0002207050284</t>
+  </si>
+  <si>
+    <t>INTWK0002207050287</t>
+  </si>
+  <si>
+    <t>INTWK0002207050313</t>
+  </si>
+  <si>
+    <t>INTWK0002207050304</t>
+  </si>
+  <si>
+    <t>INTWK0002207050305</t>
+  </si>
+  <si>
+    <t>INTWK0002207050286</t>
+  </si>
+  <si>
+    <t>INTWK0002207050289</t>
+  </si>
+  <si>
+    <t>INTWK0002207050317</t>
+  </si>
+  <si>
+    <t>INTWK0002207050297</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F303"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,13 +1132,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>44750.315</v>
+        <v>44751.3097337963</v>
       </c>
       <c r="E2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>7</v>
@@ -1353,13 +1152,13 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2">
-        <v>44750.315</v>
+        <v>44751.3081712963</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>7</v>
@@ -1373,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2">
-        <v>44750.33876157407</v>
+        <v>44751.30962962963</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1393,16 +1192,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2">
-        <v>44750.35638888889</v>
+        <v>44751.3097337963</v>
       </c>
       <c r="E5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1413,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2">
-        <v>44750.35672453704</v>
+        <v>44751.30989583334</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1433,16 +1232,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
-        <v>44750.41127314815</v>
+        <v>44751.30998842593</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1456,13 +1255,13 @@
         <v>12</v>
       </c>
       <c r="D8" s="2">
-        <v>44750.41134259259</v>
+        <v>44751.31012731481</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1473,13 +1272,13 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D9" s="2">
-        <v>44750.41141203704</v>
+        <v>44751.40444444444</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>9</v>
@@ -1493,16 +1292,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
-        <v>44750.41148148148</v>
+        <v>44751.31033564815</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1513,16 +1312,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2">
-        <v>44750.41170138889</v>
+        <v>44751.31050925926</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1533,16 +1332,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>44750.41174768518</v>
+        <v>44751.31244212963</v>
       </c>
       <c r="E12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1553,16 +1352,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>44750.41181712963</v>
+        <v>44751.31248842592</v>
       </c>
       <c r="E13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1573,16 +1372,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2">
-        <v>44750.41572916666</v>
+        <v>44751.31266203704</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1593,16 +1392,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2">
-        <v>44750.41578703704</v>
+        <v>44751.31309027778</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1613,16 +1412,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D16" s="2">
-        <v>44750.41590277778</v>
+        <v>44751.31314814815</v>
       </c>
       <c r="E16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1636,13 +1435,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="2">
-        <v>44750.41597222222</v>
+        <v>44751.31328703704</v>
       </c>
       <c r="E17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1653,16 +1452,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D18" s="2">
-        <v>44750.41605324074</v>
+        <v>44751.31340277778</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1673,16 +1472,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2">
-        <v>44750.41673611111</v>
+        <v>44751.31353009259</v>
       </c>
       <c r="E19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1693,16 +1492,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2">
-        <v>44750.4168287037</v>
+        <v>44751.31447916666</v>
       </c>
       <c r="E20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F20">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1713,16 +1512,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2">
-        <v>44750.41690972223</v>
+        <v>44751.31459490741</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1733,16 +1532,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>150</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2">
-        <v>44750.41699074074</v>
+        <v>44751.31471064815</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1756,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>44750.41765046296</v>
+        <v>44751.31484953704</v>
       </c>
       <c r="E23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1773,16 +1572,16 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D24" s="2">
-        <v>44750.41773148148</v>
+        <v>44751.3149537037</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1793,16 +1592,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="D25" s="2">
-        <v>44750.41787037037</v>
+        <v>44751.31565972222</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1813,16 +1612,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="D26" s="2">
-        <v>44750.41795138889</v>
+        <v>44751.31832175926</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1833,16 +1632,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D27" s="2">
-        <v>44750.41938657407</v>
+        <v>44751.32221064815</v>
       </c>
       <c r="E27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F27">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1853,16 +1652,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D28" s="2">
-        <v>44750.41945601852</v>
+        <v>44751.32229166666</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F28">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1873,16 +1672,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2">
-        <v>44750.41960648148</v>
+        <v>44751.32236111111</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1896,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="D30" s="2">
-        <v>44750.41964120371</v>
+        <v>44751.32248842593</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1913,16 +1712,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2">
-        <v>44750.41976851852</v>
+        <v>44751.32254629629</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1933,16 +1732,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D32" s="2">
-        <v>44750.41982638889</v>
+        <v>44751.32260416666</v>
       </c>
       <c r="E32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1953,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2">
-        <v>44750.41989583334</v>
+        <v>44751.32269675926</v>
       </c>
       <c r="E33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1973,16 +1772,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="D34" s="2">
-        <v>44750.42001157408</v>
+        <v>44751.3228125</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1993,16 +1792,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2">
-        <v>44750.42008101852</v>
+        <v>44751.32293981482</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2013,16 +1812,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D36" s="2">
-        <v>44750.42142361111</v>
+        <v>44751.3233912037</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F36">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2033,16 +1832,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D37" s="2">
-        <v>44750.42146990741</v>
+        <v>44751.32347222222</v>
       </c>
       <c r="E37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F37">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2053,16 +1852,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
-        <v>44750.4216087963</v>
+        <v>44751.32425925926</v>
       </c>
       <c r="E38">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2073,16 +1872,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D39" s="2">
-        <v>44750.42173611111</v>
+        <v>44751.32454861111</v>
       </c>
       <c r="E39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2093,16 +1892,16 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2">
-        <v>44750.42335648148</v>
+        <v>44751.33122685185</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2113,16 +1912,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2">
-        <v>44750.42486111111</v>
+        <v>44751.33158564815</v>
       </c>
       <c r="E41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2133,16 +1932,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D42" s="2">
-        <v>44750.42508101852</v>
+        <v>44751.33997685185</v>
       </c>
       <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
         <v>8</v>
-      </c>
-      <c r="F42">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2153,16 +1952,16 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D43" s="2">
-        <v>44750.42512731482</v>
+        <v>44751.34012731481</v>
       </c>
       <c r="E43">
+        <v>9</v>
+      </c>
+      <c r="F43">
         <v>8</v>
-      </c>
-      <c r="F43">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2176,13 +1975,13 @@
         <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>44750.42521990741</v>
+        <v>44751.34023148148</v>
       </c>
       <c r="E44">
+        <v>9</v>
+      </c>
+      <c r="F44">
         <v>8</v>
-      </c>
-      <c r="F44">
-        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2193,16 +1992,16 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2">
-        <v>44750.4252662037</v>
+        <v>44751.3403125</v>
       </c>
       <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
         <v>8</v>
-      </c>
-      <c r="F45">
-        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2213,16 +2012,16 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D46" s="2">
-        <v>44750.4253125</v>
+        <v>44751.34052083334</v>
       </c>
       <c r="E46">
+        <v>9</v>
+      </c>
+      <c r="F46">
         <v>8</v>
-      </c>
-      <c r="F46">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2233,16 +2032,16 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="D47" s="2">
-        <v>44750.4253587963</v>
+        <v>44751.39334490741</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2253,16 +2052,16 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>44750.42550925926</v>
+        <v>44751.39346064815</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2273,16 +2072,16 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.39350694444</v>
       </c>
       <c r="E49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2293,16 +2092,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
-        <v>44750.43833333333</v>
+        <v>44751.39350694444</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2313,16 +2112,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>1260</v>
+        <v>24</v>
       </c>
       <c r="D51" s="2">
-        <v>44750.44472222222</v>
+        <v>44751.40032407407</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F51">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2333,16 +2132,16 @@
         <v>56</v>
       </c>
       <c r="C52">
-        <v>864</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2">
-        <v>44750.44636574074</v>
+        <v>44751.40038194445</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2353,16 +2152,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="D53" s="2">
-        <v>44750.44662037037</v>
+        <v>44751.40041666666</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2373,16 +2172,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="D54" s="2">
-        <v>44750.44672453704</v>
+        <v>44751.40059027778</v>
       </c>
       <c r="E54">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2393,16 +2192,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D55" s="2">
-        <v>44750.44893518519</v>
+        <v>44751.40064814815</v>
       </c>
       <c r="E55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2413,16 +2212,16 @@
         <v>60</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D56" s="2">
-        <v>44750.4491087963</v>
+        <v>44751.40075231482</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2433,16 +2232,16 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
-        <v>44750.44935185185</v>
+        <v>44751.40083333333</v>
       </c>
       <c r="E57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2453,16 +2252,16 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
-        <v>44750.47038194445</v>
+        <v>44751.40402777777</v>
       </c>
       <c r="E58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2473,16 +2272,16 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D59" s="2">
-        <v>44750.47038194445</v>
+        <v>44751.40408564815</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2496,13 +2295,13 @@
         <v>6</v>
       </c>
       <c r="D60" s="2">
-        <v>44750.47038194445</v>
+        <v>44751.40452546296</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F60">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2513,16 +2312,16 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="D61" s="2">
-        <v>44750.49255787037</v>
+        <v>44751.40530092592</v>
       </c>
       <c r="E61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F61">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2533,16 +2332,16 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2">
-        <v>44750.49289351852</v>
+        <v>44751.40599537037</v>
       </c>
       <c r="E62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F62">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2553,16 +2352,16 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D63" s="2">
-        <v>44750.49274305555</v>
+        <v>44751.4062962963</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F63">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2573,16 +2372,16 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D64" s="2">
-        <v>44750.49297453704</v>
+        <v>44751.40677083333</v>
       </c>
       <c r="E64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2593,16 +2392,16 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D65" s="2">
-        <v>44750.49350694445</v>
+        <v>44751.40729166667</v>
       </c>
       <c r="E65">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F65">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2613,16 +2412,16 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D66" s="2">
-        <v>44750.49353009259</v>
+        <v>44751.40793981482</v>
       </c>
       <c r="E66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F66">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2633,16 +2432,16 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D67" s="2">
-        <v>44750.49355324074</v>
+        <v>44751.4080787037</v>
       </c>
       <c r="E67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2653,16 +2452,16 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D68" s="2">
-        <v>44750.49356481482</v>
+        <v>44751.40831018519</v>
       </c>
       <c r="E68">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F68">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2673,16 +2472,16 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D69" s="2">
-        <v>44750.49362268519</v>
+        <v>44751.40840277778</v>
       </c>
       <c r="E69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2693,16 +2492,16 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D70" s="2">
-        <v>44750.49371527778</v>
+        <v>44751.40855324074</v>
       </c>
       <c r="E70">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F70">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2713,16 +2512,16 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D71" s="2">
-        <v>44750.49373842592</v>
+        <v>44751.40861111111</v>
       </c>
       <c r="E71">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2733,16 +2532,16 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D72" s="2">
-        <v>44750.49417824074</v>
+        <v>44751.40869212963</v>
       </c>
       <c r="E72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F72">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2753,16 +2552,16 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2">
-        <v>44750.49425925926</v>
+        <v>44751.40879629629</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F73">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2773,16 +2572,16 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D74" s="2">
-        <v>44750.49446759259</v>
+        <v>44751.40884259259</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2793,16 +2592,16 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D75" s="2">
-        <v>44750.49458333333</v>
+        <v>44751.40902777778</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F75">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2816,13 +2615,13 @@
         <v>6</v>
       </c>
       <c r="D76" s="2">
-        <v>44750.49466435185</v>
+        <v>44751.40923611111</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F76">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2833,16 +2632,16 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D77" s="2">
-        <v>44750.49479166666</v>
+        <v>44751.40927083333</v>
       </c>
       <c r="E77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2853,16 +2652,16 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="D78" s="2">
-        <v>44750.49987268518</v>
+        <v>44751.41012731481</v>
       </c>
       <c r="E78">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F78">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2873,16 +2672,16 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D79" s="2">
-        <v>44750.50001157408</v>
+        <v>44751.41025462963</v>
       </c>
       <c r="E79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2893,16 +2692,16 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D80" s="2">
-        <v>44750.50172453704</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F80">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2913,16 +2712,16 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2">
-        <v>44750.50184027778</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2933,16 +2732,16 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D82" s="2">
-        <v>44750.50188657407</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2953,16 +2752,16 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="2">
-        <v>44750.50196759259</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2973,16 +2772,16 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D84" s="2">
-        <v>44750.50217592593</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2993,16 +2792,16 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2">
-        <v>44750.50228009259</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F85">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3013,16 +2812,16 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D86" s="2">
-        <v>44750.50240740741</v>
+        <v>44751.4125462963</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F86">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -3033,16 +2832,16 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
-        <v>44750.50241898148</v>
+        <v>44751.43086805556</v>
       </c>
       <c r="E87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F87">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3053,16 +2852,16 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D88" s="2">
-        <v>44750.50576388889</v>
+        <v>44751.43097222222</v>
       </c>
       <c r="E88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F88">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3073,16 +2872,16 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D89" s="2">
-        <v>44750.50635416667</v>
+        <v>44751.43109953704</v>
       </c>
       <c r="E89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3093,16 +2892,16 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D90" s="2">
-        <v>44750.50643518518</v>
+        <v>44751.4312037037</v>
       </c>
       <c r="E90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3113,16 +2912,16 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D91" s="2">
-        <v>44750.50659722222</v>
+        <v>44751.43145833333</v>
       </c>
       <c r="E91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F91">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3133,16 +2932,16 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D92" s="2">
-        <v>44750.50670138889</v>
+        <v>44751.43199074074</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3153,16 +2952,16 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D93" s="2">
-        <v>44750.50679398148</v>
+        <v>44751.43203703704</v>
       </c>
       <c r="E93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F93">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3173,16 +2972,16 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D94" s="2">
-        <v>44750.50708333333</v>
+        <v>44751.43211805556</v>
       </c>
       <c r="E94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F94">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3193,16 +2992,16 @@
         <v>99</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D95" s="2">
-        <v>44750.50732638889</v>
+        <v>44751.43222222223</v>
       </c>
       <c r="E95">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F95">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3213,16 +3012,16 @@
         <v>100</v>
       </c>
       <c r="C96">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="D96" s="2">
-        <v>44750.50740740741</v>
+        <v>44751.43293981482</v>
       </c>
       <c r="E96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3233,16 +3032,16 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D97" s="2">
-        <v>44750.50759259259</v>
+        <v>44751.43306712963</v>
       </c>
       <c r="E97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F97">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3253,16 +3052,16 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D98" s="2">
-        <v>44750.50790509259</v>
+        <v>44751.43319444444</v>
       </c>
       <c r="E98">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F98">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3273,16 +3072,16 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="D99" s="2">
-        <v>44750.508125</v>
+        <v>44751.43327546296</v>
       </c>
       <c r="E99">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3293,16 +3092,16 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D100" s="2">
-        <v>44750.50820601852</v>
+        <v>44751.4337962963</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F100">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3313,16 +3112,16 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" s="2">
-        <v>44750.50829861111</v>
+        <v>44751.44702546296</v>
       </c>
       <c r="E101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F101">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3333,16 +3132,16 @@
         <v>106</v>
       </c>
       <c r="C102">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D102" s="2">
-        <v>44750.50892361111</v>
+        <v>44751.44732638889</v>
       </c>
       <c r="E102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F102">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3353,16 +3152,16 @@
         <v>107</v>
       </c>
       <c r="C103">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D103" s="2">
-        <v>44750.50929398148</v>
+        <v>44751.4480787037</v>
       </c>
       <c r="E103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F103">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3373,16 +3172,16 @@
         <v>108</v>
       </c>
       <c r="C104">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D104" s="2">
-        <v>44750.509375</v>
+        <v>44751.44858796296</v>
       </c>
       <c r="E104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F104">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3393,16 +3192,16 @@
         <v>109</v>
       </c>
       <c r="C105">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D105" s="2">
-        <v>44750.50944444445</v>
+        <v>44751.44887731481</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F105">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3413,16 +3212,16 @@
         <v>110</v>
       </c>
       <c r="C106">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D106" s="2">
-        <v>44750.50954861111</v>
+        <v>44751.44909722222</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F106">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3436,13 +3235,13 @@
         <v>10</v>
       </c>
       <c r="D107" s="2">
-        <v>44750.50961805556</v>
+        <v>44751.45243055555</v>
       </c>
       <c r="E107">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F107">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3453,16 +3252,16 @@
         <v>112</v>
       </c>
       <c r="C108">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D108" s="2">
-        <v>44750.50966435186</v>
+        <v>44751.45243055555</v>
       </c>
       <c r="E108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F108">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3473,16 +3272,16 @@
         <v>113</v>
       </c>
       <c r="C109">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D109" s="2">
-        <v>44750.50974537037</v>
+        <v>44751.45243055555</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F109">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3493,16 +3292,16 @@
         <v>114</v>
       </c>
       <c r="C110">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D110" s="2">
-        <v>44750.51175925926</v>
+        <v>44751.45243055555</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F110">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3513,16 +3312,16 @@
         <v>115</v>
       </c>
       <c r="C111">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D111" s="2">
-        <v>44750.51181712963</v>
+        <v>44751.4649537037</v>
       </c>
       <c r="E111">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F111">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3533,16 +3332,16 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D112" s="2">
-        <v>44750.51195601852</v>
+        <v>44751.46516203704</v>
       </c>
       <c r="E112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F112">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3553,16 +3352,16 @@
         <v>117</v>
       </c>
       <c r="C113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D113" s="2">
-        <v>44750.51217592593</v>
+        <v>44751.46527777778</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F113">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3573,16 +3372,16 @@
         <v>118</v>
       </c>
       <c r="C114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D114" s="2">
-        <v>44750.51234953704</v>
+        <v>44751.46541666667</v>
       </c>
       <c r="E114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F114">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3593,16 +3392,16 @@
         <v>119</v>
       </c>
       <c r="C115">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D115" s="2">
-        <v>44750.51325231481</v>
+        <v>44751.46561342593</v>
       </c>
       <c r="E115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F115">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3613,16 +3412,16 @@
         <v>120</v>
       </c>
       <c r="C116">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="D116" s="2">
-        <v>44750.51332175926</v>
+        <v>44751.46568287037</v>
       </c>
       <c r="E116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3633,16 +3432,16 @@
         <v>121</v>
       </c>
       <c r="C117">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2">
-        <v>44750.51336805556</v>
+        <v>44751.46728009259</v>
       </c>
       <c r="E117">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F117">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3653,16 +3452,16 @@
         <v>122</v>
       </c>
       <c r="C118">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D118" s="2">
-        <v>44750.5134837963</v>
+        <v>44751.46740740741</v>
       </c>
       <c r="E118">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F118">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3673,16 +3472,16 @@
         <v>123</v>
       </c>
       <c r="C119">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D119" s="2">
-        <v>44750.51357638889</v>
+        <v>44751.46747685185</v>
       </c>
       <c r="E119">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F119">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3693,16 +3492,16 @@
         <v>124</v>
       </c>
       <c r="C120">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D120" s="2">
-        <v>44750.51363425926</v>
+        <v>44751.46766203704</v>
       </c>
       <c r="E120">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3713,16 +3512,16 @@
         <v>125</v>
       </c>
       <c r="C121">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="D121" s="2">
-        <v>44750.51586805555</v>
+        <v>44751.46782407408</v>
       </c>
       <c r="E121">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F121">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3733,16 +3532,16 @@
         <v>126</v>
       </c>
       <c r="C122">
-        <v>120</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2">
-        <v>44750.5147337963</v>
+        <v>44751.47237268519</v>
       </c>
       <c r="E122">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F122">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3756,13 +3555,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="2">
-        <v>44750.52166666667</v>
+        <v>44751.47253472222</v>
       </c>
       <c r="E123">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F123">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3773,16 +3572,16 @@
         <v>128</v>
       </c>
       <c r="C124">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D124" s="2">
-        <v>44750.52061342593</v>
+        <v>44751.47255787037</v>
       </c>
       <c r="E124">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F124">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3793,16 +3592,16 @@
         <v>129</v>
       </c>
       <c r="C125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D125" s="2">
-        <v>44750.52148148148</v>
+        <v>44751.47258101852</v>
       </c>
       <c r="E125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3816,13 +3615,13 @@
         <v>3</v>
       </c>
       <c r="D126" s="2">
-        <v>44750.52157407408</v>
+        <v>44751.47268518519</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3836,13 +3635,13 @@
         <v>3</v>
       </c>
       <c r="D127" s="2">
-        <v>44750.52253472222</v>
+        <v>44751.47270833333</v>
       </c>
       <c r="E127">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3856,13 +3655,13 @@
         <v>3</v>
       </c>
       <c r="D128" s="2">
-        <v>44750.52287037037</v>
+        <v>44751.47277777778</v>
       </c>
       <c r="E128">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F128">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3873,16 +3672,16 @@
         <v>133</v>
       </c>
       <c r="C129">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D129" s="2">
-        <v>44750.52342592592</v>
+        <v>44751.4728125</v>
       </c>
       <c r="E129">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F129">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3893,16 +3692,16 @@
         <v>134</v>
       </c>
       <c r="C130">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D130" s="2">
-        <v>44750.52350694445</v>
+        <v>44751.47287037037</v>
       </c>
       <c r="E130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F130">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3913,16 +3712,16 @@
         <v>135</v>
       </c>
       <c r="C131">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D131" s="2">
-        <v>44750.52362268518</v>
+        <v>44751.47291666667</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F131">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3933,16 +3732,16 @@
         <v>136</v>
       </c>
       <c r="C132">
-        <v>450</v>
+        <v>3</v>
       </c>
       <c r="D132" s="2">
-        <v>44750.53523148148</v>
+        <v>44751.47325231481</v>
       </c>
       <c r="E132">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F132">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3953,16 +3752,16 @@
         <v>137</v>
       </c>
       <c r="C133">
-        <v>400</v>
+        <v>3</v>
       </c>
       <c r="D133" s="2">
-        <v>44750.53621527777</v>
+        <v>44751.4730787037</v>
       </c>
       <c r="E133">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F133">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3973,16 +3772,16 @@
         <v>138</v>
       </c>
       <c r="C134">
-        <v>1200</v>
+        <v>3</v>
       </c>
       <c r="D134" s="2">
-        <v>44750.54553240741</v>
+        <v>44751.47310185185</v>
       </c>
       <c r="E134">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F134">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3993,16 +3792,16 @@
         <v>139</v>
       </c>
       <c r="C135">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D135" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.4731712963</v>
       </c>
       <c r="E135">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F135">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -4013,16 +3812,16 @@
         <v>140</v>
       </c>
       <c r="C136">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D136" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.47421296296</v>
       </c>
       <c r="E136">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F136">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -4033,16 +3832,16 @@
         <v>141</v>
       </c>
       <c r="C137">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D137" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.47430555556</v>
       </c>
       <c r="E137">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F137">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -4053,16 +3852,16 @@
         <v>142</v>
       </c>
       <c r="C138">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D138" s="2">
-        <v>44750.43752314815</v>
+        <v>44751.47436342593</v>
       </c>
       <c r="E138">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F138">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -4073,16 +3872,16 @@
         <v>143</v>
       </c>
       <c r="C139">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2">
-        <v>44750.43756944445</v>
+        <v>44751.4744212963</v>
       </c>
       <c r="E139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F139">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -4093,16 +3892,16 @@
         <v>144</v>
       </c>
       <c r="C140">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D140" s="2">
-        <v>44750.43766203704</v>
+        <v>44751.47451388889</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F140">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -4113,16 +3912,16 @@
         <v>145</v>
       </c>
       <c r="C141">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="D141" s="2">
-        <v>44750.43983796296</v>
+        <v>44751.47459490741</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F141">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4133,16 +3932,16 @@
         <v>146</v>
       </c>
       <c r="C142">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="D142" s="2">
-        <v>44750.44016203703</v>
+        <v>44751.47483796296</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F142">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4153,16 +3952,16 @@
         <v>147</v>
       </c>
       <c r="C143">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D143" s="2">
-        <v>44750.4402662037</v>
+        <v>44751.47494212963</v>
       </c>
       <c r="E143">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F143">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4173,16 +3972,16 @@
         <v>148</v>
       </c>
       <c r="C144">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D144" s="2">
-        <v>44750.44259259259</v>
+        <v>44751.47510416667</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4193,16 +3992,16 @@
         <v>149</v>
       </c>
       <c r="C145">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D145" s="2">
-        <v>44750.51780092593</v>
+        <v>44751.47765046296</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4213,16 +4012,16 @@
         <v>150</v>
       </c>
       <c r="C146">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D146" s="2">
-        <v>44750.51783564815</v>
+        <v>44751.47768518519</v>
       </c>
       <c r="E146">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F146">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4233,16 +4032,16 @@
         <v>151</v>
       </c>
       <c r="C147">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D147" s="2">
-        <v>44750.51793981482</v>
+        <v>44751.47787037037</v>
       </c>
       <c r="E147">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F147">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4253,16 +4052,16 @@
         <v>152</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D148" s="2">
-        <v>44750.51799768519</v>
+        <v>44751.47797453704</v>
       </c>
       <c r="E148">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4273,16 +4072,16 @@
         <v>153</v>
       </c>
       <c r="C149">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D149" s="2">
-        <v>44750.51803240741</v>
+        <v>44751.47815972222</v>
       </c>
       <c r="E149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F149">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4293,16 +4092,16 @@
         <v>154</v>
       </c>
       <c r="C150">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D150" s="2">
-        <v>44750.51806712963</v>
+        <v>44751.47815972222</v>
       </c>
       <c r="E150">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4313,16 +4112,16 @@
         <v>155</v>
       </c>
       <c r="C151">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D151" s="2">
-        <v>44750.52517361111</v>
+        <v>44751.47836805556</v>
       </c>
       <c r="E151">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F151">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4333,16 +4132,16 @@
         <v>156</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D152" s="2">
-        <v>44750.52567129629</v>
+        <v>44751.4784375</v>
       </c>
       <c r="E152">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F152">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4353,16 +4152,16 @@
         <v>157</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D153" s="2">
-        <v>44750.52575231482</v>
+        <v>44751.47857638889</v>
       </c>
       <c r="E153">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F153">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4373,16 +4172,16 @@
         <v>158</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D154" s="2">
-        <v>44750.52579861111</v>
+        <v>44751.4787037037</v>
       </c>
       <c r="E154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F154">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4396,13 +4195,13 @@
         <v>3</v>
       </c>
       <c r="D155" s="2">
-        <v>44750.52586805556</v>
+        <v>44751.47883101852</v>
       </c>
       <c r="E155">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F155">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4413,16 +4212,16 @@
         <v>160</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D156" s="2">
-        <v>44750.52596064815</v>
+        <v>44751.48024305556</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F156">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4433,16 +4232,16 @@
         <v>161</v>
       </c>
       <c r="C157">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="D157" s="2">
-        <v>44750.52600694444</v>
+        <v>44751.48033564815</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F157">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4453,16 +4252,16 @@
         <v>162</v>
       </c>
       <c r="C158">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D158" s="2">
-        <v>44750.52611111111</v>
+        <v>44751.48045138889</v>
       </c>
       <c r="E158">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F158">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4476,13 +4275,13 @@
         <v>3</v>
       </c>
       <c r="D159" s="2">
-        <v>44750.52613425926</v>
+        <v>44751.48065972222</v>
       </c>
       <c r="E159">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F159">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4493,16 +4292,16 @@
         <v>164</v>
       </c>
       <c r="C160">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D160" s="2">
-        <v>44750.52616898148</v>
+        <v>44751.48077546297</v>
       </c>
       <c r="E160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F160">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4513,16 +4312,16 @@
         <v>165</v>
       </c>
       <c r="C161">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D161" s="2">
-        <v>44750.52643518519</v>
+        <v>44751.48087962963</v>
       </c>
       <c r="E161">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4533,16 +4332,16 @@
         <v>166</v>
       </c>
       <c r="C162">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D162" s="2">
-        <v>44750.52649305556</v>
+        <v>44751.48688657407</v>
       </c>
       <c r="E162">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F162">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4553,16 +4352,16 @@
         <v>167</v>
       </c>
       <c r="C163">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D163" s="2">
-        <v>44750.52663194444</v>
+        <v>44751.48699074074</v>
       </c>
       <c r="E163">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F163">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4573,16 +4372,16 @@
         <v>168</v>
       </c>
       <c r="C164">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D164" s="2">
-        <v>44750.52673611111</v>
+        <v>44751.48715277778</v>
       </c>
       <c r="E164">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F164">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4593,16 +4392,16 @@
         <v>169</v>
       </c>
       <c r="C165">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D165" s="2">
-        <v>44750.5270949074</v>
+        <v>44751.4874537037</v>
       </c>
       <c r="E165">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F165">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4613,16 +4412,16 @@
         <v>170</v>
       </c>
       <c r="C166">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D166" s="2">
-        <v>44750.52766203704</v>
+        <v>44751.4875925926</v>
       </c>
       <c r="E166">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F166">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4633,16 +4432,16 @@
         <v>171</v>
       </c>
       <c r="C167">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D167" s="2">
-        <v>44750.52770833333</v>
+        <v>44751.326875</v>
       </c>
       <c r="E167">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F167">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4653,16 +4452,16 @@
         <v>172</v>
       </c>
       <c r="C168">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D168" s="2">
-        <v>44750.52773148148</v>
+        <v>44751.32695601852</v>
       </c>
       <c r="E168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F168">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4673,16 +4472,16 @@
         <v>173</v>
       </c>
       <c r="C169">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D169" s="2">
-        <v>44750.52782407407</v>
+        <v>44751.32719907408</v>
       </c>
       <c r="E169">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F169">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4693,16 +4492,16 @@
         <v>174</v>
       </c>
       <c r="C170">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D170" s="2">
-        <v>44750.52799768518</v>
+        <v>44751.32728009259</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F170">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4713,16 +4512,16 @@
         <v>175</v>
       </c>
       <c r="C171">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
-        <v>44750.52806712963</v>
+        <v>44751.32766203704</v>
       </c>
       <c r="E171">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F171">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4733,16 +4532,16 @@
         <v>176</v>
       </c>
       <c r="C172">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
-        <v>44750.52820601852</v>
+        <v>44751.32774305555</v>
       </c>
       <c r="E172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F172">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4753,16 +4552,16 @@
         <v>177</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D173" s="2">
-        <v>44750.52825231481</v>
+        <v>44751.32798611111</v>
       </c>
       <c r="E173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F173">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4773,16 +4572,16 @@
         <v>178</v>
       </c>
       <c r="C174">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="D174" s="2">
-        <v>44750.52829861111</v>
+        <v>44751.32828703704</v>
       </c>
       <c r="E174">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F174">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4793,16 +4592,16 @@
         <v>179</v>
       </c>
       <c r="C175">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D175" s="2">
-        <v>44750.5283449074</v>
+        <v>44751.32844907408</v>
       </c>
       <c r="E175">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F175">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4813,16 +4612,16 @@
         <v>180</v>
       </c>
       <c r="C176">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D176" s="2">
-        <v>44750.52847222222</v>
+        <v>44751.32871527778</v>
       </c>
       <c r="E176">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F176">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4833,16 +4632,16 @@
         <v>181</v>
       </c>
       <c r="C177">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D177" s="2">
-        <v>44750.52853009259</v>
+        <v>44751.32872685185</v>
       </c>
       <c r="E177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F177">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4853,16 +4652,16 @@
         <v>182</v>
       </c>
       <c r="C178">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178" s="2">
-        <v>44750.52854166667</v>
+        <v>44751.32880787037</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F178">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4873,16 +4672,16 @@
         <v>183</v>
       </c>
       <c r="C179">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D179" s="2">
-        <v>44750.52858796297</v>
+        <v>44751.32949074074</v>
       </c>
       <c r="E179">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F179">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4893,16 +4692,16 @@
         <v>184</v>
       </c>
       <c r="C180">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D180" s="2">
-        <v>44750.52927083334</v>
+        <v>44751.32957175926</v>
       </c>
       <c r="E180">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F180">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4916,13 +4715,13 @@
         <v>3</v>
       </c>
       <c r="D181" s="2">
-        <v>44750.52953703704</v>
+        <v>44751.32972222222</v>
       </c>
       <c r="E181">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F181">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4933,16 +4732,16 @@
         <v>186</v>
       </c>
       <c r="C182">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D182" s="2">
-        <v>44750.52966435185</v>
+        <v>44751.32982638889</v>
       </c>
       <c r="E182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F182">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4953,16 +4752,16 @@
         <v>187</v>
       </c>
       <c r="C183">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D183" s="2">
-        <v>44750.52974537037</v>
+        <v>44751.32990740741</v>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F183">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4973,193 +4772,193 @@
         <v>188</v>
       </c>
       <c r="C184">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="D184" s="2">
-        <v>44750.53003472222</v>
+        <v>44751.33002314815</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F184">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185" spans="1:6">
       <c r="A185">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B185" t="s">
         <v>189</v>
       </c>
       <c r="C185">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D185" s="2">
-        <v>44750.53024305555</v>
+        <v>44751.37621527778</v>
       </c>
       <c r="E185">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F185">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:6">
       <c r="A186">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B186" t="s">
         <v>190</v>
       </c>
       <c r="C186">
-        <v>192</v>
+        <v>80</v>
       </c>
       <c r="D186" s="2">
-        <v>44750.53038194445</v>
+        <v>44751.38724537037</v>
       </c>
       <c r="E186">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F186">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:6">
       <c r="A187">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B187" t="s">
         <v>191</v>
       </c>
       <c r="C187">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="D187" s="2">
-        <v>44750.53046296296</v>
+        <v>44751.42297453704</v>
       </c>
       <c r="E187">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F187">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:6">
       <c r="A188">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B188" t="s">
         <v>192</v>
       </c>
       <c r="C188">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="D188" s="2">
-        <v>44750.53059027778</v>
+        <v>44751.42326388889</v>
       </c>
       <c r="E188">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F188">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:6">
       <c r="A189">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B189" t="s">
         <v>193</v>
       </c>
       <c r="C189">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D189" s="2">
-        <v>44750.53108796296</v>
+        <v>44751.42385416666</v>
       </c>
       <c r="E189">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F189">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:6">
       <c r="A190">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B190" t="s">
         <v>194</v>
       </c>
       <c r="C190">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D190" s="2">
-        <v>44750.53114583333</v>
+        <v>44751.42388888889</v>
       </c>
       <c r="E190">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F190">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:6">
       <c r="A191">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B191" t="s">
         <v>195</v>
       </c>
       <c r="C191">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D191" s="2">
-        <v>44750.53121527778</v>
+        <v>44751.42394675926</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F191">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:6">
       <c r="A192">
-        <v>126159</v>
+        <v>42581</v>
       </c>
       <c r="B192" t="s">
         <v>196</v>
       </c>
       <c r="C192">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D192" s="2">
-        <v>44750.53130787037</v>
+        <v>44751.4240162037</v>
       </c>
       <c r="E192">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F192">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B193" t="s">
         <v>197</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D193" s="2">
-        <v>44750.53203703704</v>
+        <v>44751.50275462963</v>
       </c>
       <c r="E193">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F193">
         <v>12</v>
@@ -5167,19 +4966,19 @@
     </row>
     <row r="194" spans="1:6">
       <c r="A194">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B194" t="s">
         <v>198</v>
       </c>
       <c r="C194">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D194" s="2">
-        <v>44750.53210648148</v>
+        <v>44751.50280092593</v>
       </c>
       <c r="E194">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F194">
         <v>12</v>
@@ -5187,19 +4986,19 @@
     </row>
     <row r="195" spans="1:6">
       <c r="A195">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B195" t="s">
         <v>199</v>
       </c>
       <c r="C195">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D195" s="2">
-        <v>44750.53224537037</v>
+        <v>44751.50282407407</v>
       </c>
       <c r="E195">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F195">
         <v>12</v>
@@ -5207,7 +5006,7 @@
     </row>
     <row r="196" spans="1:6">
       <c r="A196">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B196" t="s">
         <v>200</v>
@@ -5216,10 +5015,10 @@
         <v>4</v>
       </c>
       <c r="D196" s="2">
-        <v>44750.53228009259</v>
+        <v>44751.50284722223</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F196">
         <v>12</v>
@@ -5227,19 +5026,19 @@
     </row>
     <row r="197" spans="1:6">
       <c r="A197">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B197" t="s">
         <v>201</v>
       </c>
       <c r="C197">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D197" s="2">
-        <v>44750.53240740741</v>
+        <v>44751.50287037037</v>
       </c>
       <c r="E197">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F197">
         <v>12</v>
@@ -5247,19 +5046,19 @@
     </row>
     <row r="198" spans="1:6">
       <c r="A198">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B198" t="s">
         <v>202</v>
       </c>
       <c r="C198">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>44750.53254629629</v>
+        <v>44751.50296296296</v>
       </c>
       <c r="E198">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F198">
         <v>12</v>
@@ -5267,19 +5066,19 @@
     </row>
     <row r="199" spans="1:6">
       <c r="A199">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B199" t="s">
         <v>203</v>
       </c>
       <c r="C199">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D199" s="2">
-        <v>44750.53259259259</v>
+        <v>44751.50299768519</v>
       </c>
       <c r="E199">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F199">
         <v>12</v>
@@ -5287,19 +5086,19 @@
     </row>
     <row r="200" spans="1:6">
       <c r="A200">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B200" t="s">
         <v>204</v>
       </c>
       <c r="C200">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2">
-        <v>44750.53262731482</v>
+        <v>44751.50306712963</v>
       </c>
       <c r="E200">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F200">
         <v>12</v>
@@ -5307,19 +5106,19 @@
     </row>
     <row r="201" spans="1:6">
       <c r="A201">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B201" t="s">
         <v>205</v>
       </c>
       <c r="C201">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D201" s="2">
-        <v>44750.53267361111</v>
+        <v>44751.50310185185</v>
       </c>
       <c r="E201">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F201">
         <v>12</v>
@@ -5327,19 +5126,19 @@
     </row>
     <row r="202" spans="1:6">
       <c r="A202">
-        <v>126159</v>
+        <v>42542</v>
       </c>
       <c r="B202" t="s">
         <v>206</v>
       </c>
       <c r="C202">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D202" s="2">
-        <v>44750.53296296296</v>
+        <v>44751.503125</v>
       </c>
       <c r="E202">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F202">
         <v>12</v>
@@ -5353,16 +5152,16 @@
         <v>207</v>
       </c>
       <c r="C203">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D203" s="2">
-        <v>44750.53321759259</v>
+        <v>44751.57481481481</v>
       </c>
       <c r="E203">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F203">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5373,16 +5172,16 @@
         <v>208</v>
       </c>
       <c r="C204">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D204" s="2">
-        <v>44750.53334490741</v>
+        <v>44751.57486111111</v>
       </c>
       <c r="E204">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F204">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5393,16 +5192,16 @@
         <v>209</v>
       </c>
       <c r="C205">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D205" s="2">
-        <v>44750.53346064815</v>
+        <v>44751.57679398148</v>
       </c>
       <c r="E205">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F205">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5413,16 +5212,16 @@
         <v>210</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D206" s="2">
-        <v>44750.53394675926</v>
+        <v>44751.57741898148</v>
       </c>
       <c r="E206">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F206">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5433,16 +5232,16 @@
         <v>211</v>
       </c>
       <c r="C207">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D207" s="2">
-        <v>44750.53399305556</v>
+        <v>44751.58113425926</v>
       </c>
       <c r="E207">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F207">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5453,16 +5252,16 @@
         <v>212</v>
       </c>
       <c r="C208">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="D208" s="2">
-        <v>44750.53408564815</v>
+        <v>44751.58141203703</v>
       </c>
       <c r="E208">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F208">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5473,16 +5272,16 @@
         <v>213</v>
       </c>
       <c r="C209">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="D209" s="2">
-        <v>44750.5341550926</v>
+        <v>44751.58222222222</v>
       </c>
       <c r="E209">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F209">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5493,16 +5292,16 @@
         <v>214</v>
       </c>
       <c r="C210">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="D210" s="2">
-        <v>44750.53420138889</v>
+        <v>44751.58434027778</v>
       </c>
       <c r="E210">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F210">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5513,16 +5312,16 @@
         <v>215</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D211" s="2">
-        <v>44750.53424768519</v>
+        <v>44751.41405092592</v>
       </c>
       <c r="E211">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F211">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5533,16 +5332,16 @@
         <v>216</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D212" s="2">
-        <v>44750.53430555556</v>
+        <v>44751.41487268519</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F212">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5553,16 +5352,16 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D213" s="2">
-        <v>44750.5344212963</v>
+        <v>44751.424375</v>
       </c>
       <c r="E213">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F213">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5573,16 +5372,16 @@
         <v>218</v>
       </c>
       <c r="C214">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D214" s="2">
-        <v>44750.53449074074</v>
+        <v>44751.42446759259</v>
       </c>
       <c r="E214">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F214">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5593,16 +5392,16 @@
         <v>219</v>
       </c>
       <c r="C215">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D215" s="2">
-        <v>44750.53454861111</v>
+        <v>44751.4246875</v>
       </c>
       <c r="E215">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F215">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5613,16 +5412,16 @@
         <v>220</v>
       </c>
       <c r="C216">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="D216" s="2">
-        <v>44750.53762731481</v>
+        <v>44751.42476851852</v>
       </c>
       <c r="E216">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F216">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5633,16 +5432,16 @@
         <v>221</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D217" s="2">
-        <v>44750.5378125</v>
+        <v>44751.425</v>
       </c>
       <c r="E217">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F217">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5653,16 +5452,16 @@
         <v>222</v>
       </c>
       <c r="C218">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D218" s="2">
-        <v>44750.53795138889</v>
+        <v>44751.4250462963</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F218">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5673,16 +5472,16 @@
         <v>223</v>
       </c>
       <c r="C219">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D219" s="2">
-        <v>44750.53803240741</v>
+        <v>44751.43607638889</v>
       </c>
       <c r="E219">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F219">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5693,16 +5492,16 @@
         <v>224</v>
       </c>
       <c r="C220">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D220" s="2">
-        <v>44750.53821759259</v>
+        <v>44751.43690972222</v>
       </c>
       <c r="E220">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F220">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5713,16 +5512,16 @@
         <v>225</v>
       </c>
       <c r="C221">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D221" s="2">
-        <v>44750.53824074074</v>
+        <v>44751.43694444445</v>
       </c>
       <c r="E221">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F221">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5733,16 +5532,16 @@
         <v>226</v>
       </c>
       <c r="C222">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2">
-        <v>44750.53833333333</v>
+        <v>44751.43709490741</v>
       </c>
       <c r="E222">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F222">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5753,16 +5552,16 @@
         <v>227</v>
       </c>
       <c r="C223">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D223" s="2">
-        <v>44750.53841435185</v>
+        <v>44751.43712962963</v>
       </c>
       <c r="E223">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F223">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5773,16 +5572,16 @@
         <v>228</v>
       </c>
       <c r="C224">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D224" s="2">
-        <v>44750.53853009259</v>
+        <v>44751.43721064815</v>
       </c>
       <c r="E224">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F224">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5793,16 +5592,16 @@
         <v>229</v>
       </c>
       <c r="C225">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="D225" s="2">
-        <v>44750.53863425926</v>
+        <v>44751.43724537037</v>
       </c>
       <c r="E225">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F225">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5813,16 +5612,16 @@
         <v>230</v>
       </c>
       <c r="C226">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D226" s="2">
-        <v>44750.53892361111</v>
+        <v>44751.43729166667</v>
       </c>
       <c r="E226">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F226">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5833,13 +5632,13 @@
         <v>231</v>
       </c>
       <c r="C227">
-        <v>600</v>
+        <v>16</v>
       </c>
       <c r="D227" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.43826388889</v>
       </c>
       <c r="E227">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F227">
         <v>10</v>
@@ -5853,13 +5652,13 @@
         <v>232</v>
       </c>
       <c r="C228">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D228" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.43831018519</v>
       </c>
       <c r="E228">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F228">
         <v>10</v>
@@ -5873,13 +5672,13 @@
         <v>233</v>
       </c>
       <c r="C229">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="D229" s="2">
-        <v>44750.43751157408</v>
+        <v>44751.43835648148</v>
       </c>
       <c r="E229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F229">
         <v>10</v>
@@ -5893,16 +5692,16 @@
         <v>234</v>
       </c>
       <c r="C230">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D230" s="2">
-        <v>44750.55018518519</v>
+        <v>44751.4383912037</v>
       </c>
       <c r="E230">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F230">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5913,16 +5712,16 @@
         <v>235</v>
       </c>
       <c r="C231">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D231" s="2">
-        <v>44750.5503125</v>
+        <v>44751.43847222222</v>
       </c>
       <c r="E231">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F231">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5933,16 +5732,16 @@
         <v>236</v>
       </c>
       <c r="C232">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D232" s="2">
-        <v>44750.5503587963</v>
+        <v>44751.43853009259</v>
       </c>
       <c r="E232">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F232">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5953,16 +5752,16 @@
         <v>237</v>
       </c>
       <c r="C233">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D233" s="2">
-        <v>44750.55045138889</v>
+        <v>44751.43856481482</v>
       </c>
       <c r="E233">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F233">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5973,16 +5772,16 @@
         <v>238</v>
       </c>
       <c r="C234">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D234" s="2">
-        <v>44750.55216435185</v>
+        <v>44751.43859953704</v>
       </c>
       <c r="E234">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F234">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5993,16 +5792,16 @@
         <v>239</v>
       </c>
       <c r="C235">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D235" s="2">
-        <v>44750.55277777778</v>
+        <v>44751.4418287037</v>
       </c>
       <c r="E235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F235">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6013,1356 +5812,16 @@
         <v>240</v>
       </c>
       <c r="C236">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D236" s="2">
-        <v>44750.55284722222</v>
+        <v>44751.44189814815</v>
       </c>
       <c r="E236">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F236">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
-      <c r="A237">
-        <v>126159</v>
-      </c>
-      <c r="B237" t="s">
-        <v>241</v>
-      </c>
-      <c r="C237">
-        <v>18</v>
-      </c>
-      <c r="D237" s="2">
-        <v>44750.63061342593</v>
-      </c>
-      <c r="E237">
-        <v>8</v>
-      </c>
-      <c r="F237">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
-      <c r="A238">
-        <v>126159</v>
-      </c>
-      <c r="B238" t="s">
-        <v>242</v>
-      </c>
-      <c r="C238">
-        <v>18</v>
-      </c>
-      <c r="D238" s="2">
-        <v>44750.63061342593</v>
-      </c>
-      <c r="E238">
-        <v>8</v>
-      </c>
-      <c r="F238">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
-      <c r="A239">
-        <v>42560</v>
-      </c>
-      <c r="B239" t="s">
-        <v>243</v>
-      </c>
-      <c r="C239">
-        <v>182</v>
-      </c>
-      <c r="D239" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E239">
-        <v>8</v>
-      </c>
-      <c r="F239">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
-      <c r="A240">
-        <v>42560</v>
-      </c>
-      <c r="B240" t="s">
-        <v>244</v>
-      </c>
-      <c r="C240">
-        <v>48</v>
-      </c>
-      <c r="D240" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E240">
-        <v>8</v>
-      </c>
-      <c r="F240">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
-      <c r="A241">
-        <v>42560</v>
-      </c>
-      <c r="B241" t="s">
-        <v>245</v>
-      </c>
-      <c r="C241">
-        <v>36</v>
-      </c>
-      <c r="D241" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E241">
-        <v>8</v>
-      </c>
-      <c r="F241">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
-      <c r="A242">
-        <v>42560</v>
-      </c>
-      <c r="B242" t="s">
-        <v>246</v>
-      </c>
-      <c r="C242">
-        <v>20</v>
-      </c>
-      <c r="D242" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E242">
-        <v>8</v>
-      </c>
-      <c r="F242">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243">
-        <v>42560</v>
-      </c>
-      <c r="B243" t="s">
-        <v>247</v>
-      </c>
-      <c r="C243">
-        <v>3</v>
-      </c>
-      <c r="D243" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E243">
-        <v>8</v>
-      </c>
-      <c r="F243">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244">
-        <v>42560</v>
-      </c>
-      <c r="B244" t="s">
-        <v>248</v>
-      </c>
-      <c r="C244">
-        <v>10</v>
-      </c>
-      <c r="D244" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E244">
-        <v>8</v>
-      </c>
-      <c r="F244">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245">
-        <v>42560</v>
-      </c>
-      <c r="B245" t="s">
-        <v>249</v>
-      </c>
-      <c r="C245">
-        <v>3</v>
-      </c>
-      <c r="D245" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E245">
-        <v>8</v>
-      </c>
-      <c r="F245">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246">
-        <v>42560</v>
-      </c>
-      <c r="B246" t="s">
-        <v>250</v>
-      </c>
-      <c r="C246">
-        <v>20</v>
-      </c>
-      <c r="D246" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E246">
-        <v>8</v>
-      </c>
-      <c r="F246">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247">
-        <v>42560</v>
-      </c>
-      <c r="B247" t="s">
-        <v>251</v>
-      </c>
-      <c r="C247">
-        <v>60</v>
-      </c>
-      <c r="D247" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E247">
-        <v>8</v>
-      </c>
-      <c r="F247">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248">
-        <v>42560</v>
-      </c>
-      <c r="B248" t="s">
-        <v>252</v>
-      </c>
-      <c r="C248">
-        <v>50</v>
-      </c>
-      <c r="D248" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E248">
-        <v>8</v>
-      </c>
-      <c r="F248">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
-      <c r="A249">
-        <v>42560</v>
-      </c>
-      <c r="B249" t="s">
-        <v>253</v>
-      </c>
-      <c r="C249">
-        <v>20</v>
-      </c>
-      <c r="D249" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E249">
-        <v>8</v>
-      </c>
-      <c r="F249">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
-      <c r="A250">
-        <v>42560</v>
-      </c>
-      <c r="B250" t="s">
-        <v>254</v>
-      </c>
-      <c r="C250">
-        <v>3</v>
-      </c>
-      <c r="D250" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E250">
-        <v>8</v>
-      </c>
-      <c r="F250">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
-      <c r="A251">
-        <v>42560</v>
-      </c>
-      <c r="B251" t="s">
-        <v>255</v>
-      </c>
-      <c r="C251">
-        <v>10</v>
-      </c>
-      <c r="D251" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E251">
-        <v>8</v>
-      </c>
-      <c r="F251">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
-      <c r="A252">
-        <v>42560</v>
-      </c>
-      <c r="B252" t="s">
-        <v>256</v>
-      </c>
-      <c r="C252">
-        <v>3</v>
-      </c>
-      <c r="D252" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E252">
-        <v>8</v>
-      </c>
-      <c r="F252">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
-      <c r="A253">
-        <v>42560</v>
-      </c>
-      <c r="B253" t="s">
-        <v>257</v>
-      </c>
-      <c r="C253">
-        <v>5</v>
-      </c>
-      <c r="D253" s="2">
-        <v>44750.47038194445</v>
-      </c>
-      <c r="E253">
-        <v>8</v>
-      </c>
-      <c r="F253">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
-      <c r="A254">
-        <v>42560</v>
-      </c>
-      <c r="B254" t="s">
-        <v>258</v>
-      </c>
-      <c r="C254">
-        <v>5</v>
-      </c>
-      <c r="D254" s="2">
-        <v>44750.47039351852</v>
-      </c>
-      <c r="E254">
-        <v>8</v>
-      </c>
-      <c r="F254">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
-      <c r="A255">
-        <v>42560</v>
-      </c>
-      <c r="B255" t="s">
-        <v>259</v>
-      </c>
-      <c r="C255">
-        <v>50</v>
-      </c>
-      <c r="D255" s="2">
-        <v>44750.47101851852</v>
-      </c>
-      <c r="E255">
-        <v>8</v>
-      </c>
-      <c r="F255">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
-      <c r="A256">
-        <v>42560</v>
-      </c>
-      <c r="B256" t="s">
-        <v>260</v>
-      </c>
-      <c r="C256">
-        <v>3</v>
-      </c>
-      <c r="D256" s="2">
-        <v>44750.47168981482</v>
-      </c>
-      <c r="E256">
-        <v>8</v>
-      </c>
-      <c r="F256">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
-      <c r="A257">
-        <v>42560</v>
-      </c>
-      <c r="B257" t="s">
-        <v>261</v>
-      </c>
-      <c r="C257">
-        <v>3</v>
-      </c>
-      <c r="D257" s="2">
-        <v>44750.4722337963</v>
-      </c>
-      <c r="E257">
-        <v>8</v>
-      </c>
-      <c r="F257">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
-      <c r="A258">
-        <v>42560</v>
-      </c>
-      <c r="B258" t="s">
-        <v>262</v>
-      </c>
-      <c r="C258">
-        <v>3</v>
-      </c>
-      <c r="D258" s="2">
-        <v>44750.47232638889</v>
-      </c>
-      <c r="E258">
-        <v>8</v>
-      </c>
-      <c r="F258">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
-      <c r="A259">
-        <v>42560</v>
-      </c>
-      <c r="B259" t="s">
-        <v>263</v>
-      </c>
-      <c r="C259">
-        <v>10</v>
-      </c>
-      <c r="D259" s="2">
-        <v>44750.47273148148</v>
-      </c>
-      <c r="E259">
-        <v>8</v>
-      </c>
-      <c r="F259">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
-      <c r="A260">
-        <v>42560</v>
-      </c>
-      <c r="B260" t="s">
-        <v>264</v>
-      </c>
-      <c r="C260">
-        <v>10</v>
-      </c>
-      <c r="D260" s="2">
-        <v>44750.47311342593</v>
-      </c>
-      <c r="E260">
-        <v>8</v>
-      </c>
-      <c r="F260">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
-      <c r="A261">
-        <v>42560</v>
-      </c>
-      <c r="B261" t="s">
-        <v>265</v>
-      </c>
-      <c r="C261">
-        <v>3</v>
-      </c>
-      <c r="D261" s="2">
-        <v>44750.47318287037</v>
-      </c>
-      <c r="E261">
-        <v>8</v>
-      </c>
-      <c r="F261">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
-      <c r="A262">
-        <v>42560</v>
-      </c>
-      <c r="B262" t="s">
-        <v>266</v>
-      </c>
-      <c r="C262">
-        <v>3</v>
-      </c>
-      <c r="D262" s="2">
-        <v>44750.47327546297</v>
-      </c>
-      <c r="E262">
-        <v>8</v>
-      </c>
-      <c r="F262">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
-      <c r="A263">
-        <v>42560</v>
-      </c>
-      <c r="B263" t="s">
-        <v>267</v>
-      </c>
-      <c r="C263">
-        <v>3</v>
-      </c>
-      <c r="D263" s="2">
-        <v>44750.47354166667</v>
-      </c>
-      <c r="E263">
-        <v>8</v>
-      </c>
-      <c r="F263">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
-      <c r="A264">
-        <v>42560</v>
-      </c>
-      <c r="B264" t="s">
-        <v>268</v>
-      </c>
-      <c r="C264">
-        <v>5</v>
-      </c>
-      <c r="D264" s="2">
-        <v>44750.47390046297</v>
-      </c>
-      <c r="E264">
-        <v>8</v>
-      </c>
-      <c r="F264">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
-      <c r="A265">
-        <v>42560</v>
-      </c>
-      <c r="B265" t="s">
-        <v>269</v>
-      </c>
-      <c r="C265">
-        <v>5</v>
-      </c>
-      <c r="D265" s="2">
-        <v>44750.47478009259</v>
-      </c>
-      <c r="E265">
-        <v>8</v>
-      </c>
-      <c r="F265">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
-      <c r="A266">
-        <v>42560</v>
-      </c>
-      <c r="B266" t="s">
-        <v>270</v>
-      </c>
-      <c r="C266">
-        <v>50</v>
-      </c>
-      <c r="D266" s="2">
-        <v>44750.47601851852</v>
-      </c>
-      <c r="E266">
-        <v>8</v>
-      </c>
-      <c r="F266">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
-      <c r="A267">
-        <v>42560</v>
-      </c>
-      <c r="B267" t="s">
-        <v>271</v>
-      </c>
-      <c r="C267">
-        <v>20</v>
-      </c>
-      <c r="D267" s="2">
-        <v>44750.4793287037</v>
-      </c>
-      <c r="E267">
-        <v>8</v>
-      </c>
-      <c r="F267">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
-      <c r="A268">
-        <v>42560</v>
-      </c>
-      <c r="B268" t="s">
-        <v>272</v>
-      </c>
-      <c r="C268">
-        <v>60</v>
-      </c>
-      <c r="D268" s="2">
-        <v>44750.47936342593</v>
-      </c>
-      <c r="E268">
-        <v>8</v>
-      </c>
-      <c r="F268">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
-      <c r="A269">
-        <v>42560</v>
-      </c>
-      <c r="B269" t="s">
-        <v>273</v>
-      </c>
-      <c r="C269">
-        <v>1</v>
-      </c>
-      <c r="D269" s="2">
-        <v>44750.48170138889</v>
-      </c>
-      <c r="E269">
-        <v>8</v>
-      </c>
-      <c r="F269">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
-      <c r="A270">
-        <v>42560</v>
-      </c>
-      <c r="B270" t="s">
-        <v>274</v>
-      </c>
-      <c r="C270">
-        <v>5</v>
-      </c>
-      <c r="D270" s="2">
-        <v>44750.48201388889</v>
-      </c>
-      <c r="E270">
-        <v>8</v>
-      </c>
-      <c r="F270">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
-      <c r="A271">
-        <v>42560</v>
-      </c>
-      <c r="B271" t="s">
-        <v>275</v>
-      </c>
-      <c r="C271">
-        <v>1</v>
-      </c>
-      <c r="D271" s="2">
-        <v>44750.48209490741</v>
-      </c>
-      <c r="E271">
-        <v>8</v>
-      </c>
-      <c r="F271">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
-      <c r="A272">
-        <v>42560</v>
-      </c>
-      <c r="B272" t="s">
-        <v>276</v>
-      </c>
-      <c r="C272">
-        <v>3</v>
-      </c>
-      <c r="D272" s="2">
-        <v>44750.48211805556</v>
-      </c>
-      <c r="E272">
-        <v>8</v>
-      </c>
-      <c r="F272">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
-      <c r="A273">
-        <v>42560</v>
-      </c>
-      <c r="B273" t="s">
-        <v>277</v>
-      </c>
-      <c r="C273">
-        <v>1</v>
-      </c>
-      <c r="D273" s="2">
-        <v>44750.48226851852</v>
-      </c>
-      <c r="E273">
-        <v>8</v>
-      </c>
-      <c r="F273">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
-      <c r="A274">
-        <v>42560</v>
-      </c>
-      <c r="B274" t="s">
-        <v>278</v>
-      </c>
-      <c r="C274">
-        <v>8</v>
-      </c>
-      <c r="D274" s="2">
-        <v>44750.48258101852</v>
-      </c>
-      <c r="E274">
-        <v>8</v>
-      </c>
-      <c r="F274">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
-      <c r="A275">
-        <v>42560</v>
-      </c>
-      <c r="B275" t="s">
-        <v>279</v>
-      </c>
-      <c r="C275">
-        <v>3</v>
-      </c>
-      <c r="D275" s="2">
-        <v>44750.483125</v>
-      </c>
-      <c r="E275">
-        <v>8</v>
-      </c>
-      <c r="F275">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
-      <c r="A276">
-        <v>42560</v>
-      </c>
-      <c r="B276" t="s">
-        <v>280</v>
-      </c>
-      <c r="C276">
-        <v>3</v>
-      </c>
-      <c r="D276" s="2">
-        <v>44750.48319444444</v>
-      </c>
-      <c r="E276">
-        <v>8</v>
-      </c>
-      <c r="F276">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
-      <c r="A277">
-        <v>42560</v>
-      </c>
-      <c r="B277" t="s">
-        <v>281</v>
-      </c>
-      <c r="C277">
-        <v>3</v>
-      </c>
-      <c r="D277" s="2">
-        <v>44750.48328703704</v>
-      </c>
-      <c r="E277">
-        <v>8</v>
-      </c>
-      <c r="F277">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
-      <c r="A278">
-        <v>42560</v>
-      </c>
-      <c r="B278" t="s">
-        <v>282</v>
-      </c>
-      <c r="C278">
-        <v>3</v>
-      </c>
-      <c r="D278" s="2">
-        <v>44750.48355324074</v>
-      </c>
-      <c r="E278">
-        <v>8</v>
-      </c>
-      <c r="F278">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
-      <c r="A279">
-        <v>42560</v>
-      </c>
-      <c r="B279" t="s">
-        <v>283</v>
-      </c>
-      <c r="C279">
-        <v>3</v>
-      </c>
-      <c r="D279" s="2">
-        <v>44750.48373842592</v>
-      </c>
-      <c r="E279">
-        <v>8</v>
-      </c>
-      <c r="F279">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
-      <c r="A280">
-        <v>42560</v>
-      </c>
-      <c r="B280" t="s">
-        <v>284</v>
-      </c>
-      <c r="C280">
-        <v>3</v>
-      </c>
-      <c r="D280" s="2">
-        <v>44750.48386574074</v>
-      </c>
-      <c r="E280">
-        <v>8</v>
-      </c>
-      <c r="F280">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
-      <c r="A281">
-        <v>42560</v>
-      </c>
-      <c r="B281" t="s">
-        <v>285</v>
-      </c>
-      <c r="C281">
-        <v>20</v>
-      </c>
-      <c r="D281" s="2">
-        <v>44750.48655092593</v>
-      </c>
-      <c r="E281">
-        <v>8</v>
-      </c>
-      <c r="F281">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
-      <c r="A282">
-        <v>42560</v>
-      </c>
-      <c r="B282" t="s">
-        <v>286</v>
-      </c>
-      <c r="C282">
-        <v>20</v>
-      </c>
-      <c r="D282" s="2">
-        <v>44750.48658564815</v>
-      </c>
-      <c r="E282">
-        <v>8</v>
-      </c>
-      <c r="F282">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
-      <c r="A283">
-        <v>42560</v>
-      </c>
-      <c r="B283" t="s">
-        <v>287</v>
-      </c>
-      <c r="C283">
-        <v>12</v>
-      </c>
-      <c r="D283" s="2">
-        <v>44750.48665509259</v>
-      </c>
-      <c r="E283">
-        <v>8</v>
-      </c>
-      <c r="F283">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
-      <c r="A284">
-        <v>42560</v>
-      </c>
-      <c r="B284" t="s">
-        <v>288</v>
-      </c>
-      <c r="C284">
-        <v>20</v>
-      </c>
-      <c r="D284" s="2">
-        <v>44750.48673611111</v>
-      </c>
-      <c r="E284">
-        <v>8</v>
-      </c>
-      <c r="F284">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
-      <c r="A285">
-        <v>42560</v>
-      </c>
-      <c r="B285" t="s">
-        <v>289</v>
-      </c>
-      <c r="C285">
-        <v>20</v>
-      </c>
-      <c r="D285" s="2">
-        <v>44750.48685185185</v>
-      </c>
-      <c r="E285">
-        <v>8</v>
-      </c>
-      <c r="F285">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
-      <c r="A286">
-        <v>42560</v>
-      </c>
-      <c r="B286" t="s">
-        <v>290</v>
-      </c>
-      <c r="C286">
-        <v>40</v>
-      </c>
-      <c r="D286" s="2">
-        <v>44750.48693287037</v>
-      </c>
-      <c r="E286">
-        <v>8</v>
-      </c>
-      <c r="F286">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
-      <c r="A287">
-        <v>42560</v>
-      </c>
-      <c r="B287" t="s">
-        <v>291</v>
-      </c>
-      <c r="C287">
-        <v>20</v>
-      </c>
-      <c r="D287" s="2">
-        <v>44750.48741898148</v>
-      </c>
-      <c r="E287">
-        <v>8</v>
-      </c>
-      <c r="F287">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
-      <c r="A288">
-        <v>42560</v>
-      </c>
-      <c r="B288" t="s">
-        <v>292</v>
-      </c>
-      <c r="C288">
-        <v>24</v>
-      </c>
-      <c r="D288" s="2">
-        <v>44750.48885416667</v>
-      </c>
-      <c r="E288">
-        <v>8</v>
-      </c>
-      <c r="F288">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
-      <c r="A289">
-        <v>42560</v>
-      </c>
-      <c r="B289" t="s">
-        <v>293</v>
-      </c>
-      <c r="C289">
-        <v>50</v>
-      </c>
-      <c r="D289" s="2">
-        <v>44750.48898148148</v>
-      </c>
-      <c r="E289">
-        <v>8</v>
-      </c>
-      <c r="F289">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
-      <c r="A290">
-        <v>42560</v>
-      </c>
-      <c r="B290" t="s">
-        <v>294</v>
-      </c>
-      <c r="C290">
-        <v>72</v>
-      </c>
-      <c r="D290" s="2">
-        <v>44750.48898148148</v>
-      </c>
-      <c r="E290">
-        <v>8</v>
-      </c>
-      <c r="F290">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
-      <c r="A291">
-        <v>42560</v>
-      </c>
-      <c r="B291" t="s">
-        <v>295</v>
-      </c>
-      <c r="C291">
-        <v>40</v>
-      </c>
-      <c r="D291" s="2">
-        <v>44750.48900462963</v>
-      </c>
-      <c r="E291">
-        <v>8</v>
-      </c>
-      <c r="F291">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
-      <c r="A292">
-        <v>42560</v>
-      </c>
-      <c r="B292" t="s">
-        <v>296</v>
-      </c>
-      <c r="C292">
-        <v>20</v>
-      </c>
-      <c r="D292" s="2">
-        <v>44750.48927083334</v>
-      </c>
-      <c r="E292">
-        <v>8</v>
-      </c>
-      <c r="F292">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
-      <c r="A293">
-        <v>42560</v>
-      </c>
-      <c r="B293" t="s">
-        <v>297</v>
-      </c>
-      <c r="C293">
-        <v>60</v>
-      </c>
-      <c r="D293" s="2">
-        <v>44750.49086805555</v>
-      </c>
-      <c r="E293">
-        <v>8</v>
-      </c>
-      <c r="F293">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
-      <c r="A294">
-        <v>42560</v>
-      </c>
-      <c r="B294" t="s">
-        <v>298</v>
-      </c>
-      <c r="C294">
-        <v>120</v>
-      </c>
-      <c r="D294" s="2">
-        <v>44750.4909375</v>
-      </c>
-      <c r="E294">
-        <v>8</v>
-      </c>
-      <c r="F294">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
-      <c r="A295">
-        <v>42560</v>
-      </c>
-      <c r="B295" t="s">
-        <v>299</v>
-      </c>
-      <c r="C295">
-        <v>60</v>
-      </c>
-      <c r="D295" s="2">
-        <v>44750.49101851852</v>
-      </c>
-      <c r="E295">
-        <v>8</v>
-      </c>
-      <c r="F295">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
-      <c r="A296">
-        <v>42560</v>
-      </c>
-      <c r="B296" t="s">
-        <v>300</v>
-      </c>
-      <c r="C296">
-        <v>30</v>
-      </c>
-      <c r="D296" s="2">
-        <v>44750.49173611111</v>
-      </c>
-      <c r="E296">
-        <v>8</v>
-      </c>
-      <c r="F296">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
-      <c r="A297">
-        <v>42560</v>
-      </c>
-      <c r="B297" t="s">
-        <v>301</v>
-      </c>
-      <c r="C297">
-        <v>60</v>
-      </c>
-      <c r="D297" s="2">
-        <v>44750.49179398148</v>
-      </c>
-      <c r="E297">
-        <v>8</v>
-      </c>
-      <c r="F297">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
-      <c r="A298">
-        <v>42560</v>
-      </c>
-      <c r="B298" t="s">
-        <v>302</v>
-      </c>
-      <c r="C298">
-        <v>40</v>
-      </c>
-      <c r="D298" s="2">
-        <v>44750.491875</v>
-      </c>
-      <c r="E298">
-        <v>8</v>
-      </c>
-      <c r="F298">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
-      <c r="A299">
-        <v>42560</v>
-      </c>
-      <c r="B299" t="s">
-        <v>303</v>
-      </c>
-      <c r="C299">
-        <v>8</v>
-      </c>
-      <c r="D299" s="2">
-        <v>44750.49195601852</v>
-      </c>
-      <c r="E299">
-        <v>8</v>
-      </c>
-      <c r="F299">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
-      <c r="A300">
-        <v>42560</v>
-      </c>
-      <c r="B300" t="s">
-        <v>304</v>
-      </c>
-      <c r="C300">
-        <v>120</v>
-      </c>
-      <c r="D300" s="2">
-        <v>44750.4940162037</v>
-      </c>
-      <c r="E300">
-        <v>8</v>
-      </c>
-      <c r="F300">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
-      <c r="A301">
-        <v>42560</v>
-      </c>
-      <c r="B301" t="s">
-        <v>305</v>
-      </c>
-      <c r="C301">
-        <v>120</v>
-      </c>
-      <c r="D301" s="2">
-        <v>44750.4940625</v>
-      </c>
-      <c r="E301">
-        <v>8</v>
-      </c>
-      <c r="F301">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
-      <c r="A302">
-        <v>42560</v>
-      </c>
-      <c r="B302" t="s">
-        <v>306</v>
-      </c>
-      <c r="C302">
-        <v>8</v>
-      </c>
-      <c r="D302" s="2">
-        <v>44750.4943287037</v>
-      </c>
-      <c r="E302">
-        <v>8</v>
-      </c>
-      <c r="F302">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
-      <c r="A303">
-        <v>42560</v>
-      </c>
-      <c r="B303" t="s">
-        <v>307</v>
-      </c>
-      <c r="C303">
-        <v>72</v>
-      </c>
-      <c r="D303" s="2">
-        <v>44750.49439814815</v>
-      </c>
-      <c r="E303">
-        <v>8</v>
-      </c>
-      <c r="F303">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_output/docked_raw/docked_raw_July.xlsx
+++ b/tmp_output/docked_raw/docked_raw_July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="333">
   <si>
     <t>員編</t>
   </si>
@@ -34,1036 +34,985 @@
     <t>HOUR</t>
   </si>
   <si>
-    <t>INTWK0002207070042</t>
-  </si>
-  <si>
-    <t>INTWK0002207070030</t>
-  </si>
-  <si>
-    <t>INTWK0002207070006</t>
-  </si>
-  <si>
-    <t>INTWK0002207070038</t>
-  </si>
-  <si>
-    <t>INTWK0002207070023</t>
-  </si>
-  <si>
-    <t>INTWK0002207070053</t>
-  </si>
-  <si>
-    <t>INTWK0002207070014</t>
-  </si>
-  <si>
-    <t>INTWK0002207070032</t>
-  </si>
-  <si>
-    <t>INTWK0002207070043</t>
-  </si>
-  <si>
-    <t>INTWK0002207070046</t>
-  </si>
-  <si>
-    <t>INTWK0002207070050</t>
-  </si>
-  <si>
-    <t>INTWK0002207070044</t>
-  </si>
-  <si>
-    <t>INTWK0002207070013</t>
-  </si>
-  <si>
-    <t>INTWK0002207070008</t>
-  </si>
-  <si>
-    <t>INTWK0002207070017</t>
-  </si>
-  <si>
-    <t>INTWK0002207070036</t>
-  </si>
-  <si>
-    <t>INTWK0002207070021</t>
-  </si>
-  <si>
-    <t>INTWK0002207070015</t>
-  </si>
-  <si>
-    <t>INTWK0002207070054</t>
-  </si>
-  <si>
-    <t>INTWK0002207070016</t>
-  </si>
-  <si>
-    <t>INTWK0002207070010</t>
-  </si>
-  <si>
-    <t>INTWK0002207070028</t>
-  </si>
-  <si>
-    <t>INTWK0002207070052</t>
-  </si>
-  <si>
-    <t>INTWK0002207070020</t>
-  </si>
-  <si>
-    <t>INTWK0002207070029</t>
-  </si>
-  <si>
-    <t>INTWK0002207070031</t>
-  </si>
-  <si>
-    <t>INTWK0002207070034</t>
-  </si>
-  <si>
-    <t>INTWK0002207070022</t>
-  </si>
-  <si>
-    <t>INTWK0002207070041</t>
-  </si>
-  <si>
-    <t>INTWK0002207070007</t>
-  </si>
-  <si>
-    <t>INTWK0002207070045</t>
-  </si>
-  <si>
-    <t>INTWK0002207070048</t>
-  </si>
-  <si>
-    <t>INTWK0002207070024</t>
-  </si>
-  <si>
-    <t>INTWK0002207070009</t>
-  </si>
-  <si>
-    <t>INTWK0002207070011</t>
-  </si>
-  <si>
-    <t>INTWK0002207070012</t>
-  </si>
-  <si>
-    <t>INTWK0002207070019</t>
-  </si>
-  <si>
-    <t>INTWK0002207070027</t>
-  </si>
-  <si>
-    <t>INTWK0002207070035</t>
-  </si>
-  <si>
-    <t>INTWK0002207070003</t>
-  </si>
-  <si>
-    <t>INTWK0002207070037</t>
-  </si>
-  <si>
-    <t>INTWK0002207070039</t>
-  </si>
-  <si>
-    <t>INTWK0002207070040</t>
-  </si>
-  <si>
-    <t>INTWK0002207070049</t>
-  </si>
-  <si>
-    <t>INTWK0002207070047</t>
-  </si>
-  <si>
-    <t>INTWK0002207070005</t>
-  </si>
-  <si>
-    <t>INTWK0002207070026</t>
-  </si>
-  <si>
-    <t>INTWK0002207060420</t>
-  </si>
-  <si>
-    <t>INTWK0002207060457</t>
-  </si>
-  <si>
-    <t>INTWK0002207060456</t>
-  </si>
-  <si>
-    <t>INTWK0002207060455</t>
-  </si>
-  <si>
-    <t>INTWK0002207060454</t>
-  </si>
-  <si>
-    <t>INTWK0002207060452</t>
-  </si>
-  <si>
-    <t>INTWK0002207060453</t>
-  </si>
-  <si>
-    <t>INTWK0002207060451</t>
-  </si>
-  <si>
-    <t>INTWK0002207070430</t>
-  </si>
-  <si>
-    <t>INTWK0002207070438</t>
-  </si>
-  <si>
-    <t>INTWK0002207070433</t>
-  </si>
-  <si>
-    <t>INTWK0002207070439</t>
-  </si>
-  <si>
-    <t>INTWK0002207070437</t>
-  </si>
-  <si>
-    <t>INTWK0002207070388</t>
-  </si>
-  <si>
-    <t>INTWK0002207070389</t>
-  </si>
-  <si>
-    <t>INTWK0002207070423</t>
-  </si>
-  <si>
-    <t>INTWK0002207070425</t>
-  </si>
-  <si>
-    <t>INTWK0002207070431</t>
-  </si>
-  <si>
-    <t>INTWK0002207070427</t>
-  </si>
-  <si>
-    <t>INTWK0002207070390</t>
-  </si>
-  <si>
-    <t>INTWK0002207070424</t>
-  </si>
-  <si>
-    <t>INTWK0002207070387</t>
-  </si>
-  <si>
-    <t>INTWK0002207070434</t>
-  </si>
-  <si>
-    <t>INTWK0002207070426</t>
-  </si>
-  <si>
-    <t>INTWK0002207070435</t>
-  </si>
-  <si>
-    <t>INTWK0002207070421</t>
-  </si>
-  <si>
-    <t>INTWK0002207070432</t>
-  </si>
-  <si>
-    <t>INTWK0002207070429</t>
-  </si>
-  <si>
-    <t>INTWK0002207070422</t>
-  </si>
-  <si>
-    <t>INTWK0002207070428</t>
-  </si>
-  <si>
-    <t>INTWK0002207070464</t>
-  </si>
-  <si>
-    <t>INTWK0002207070455</t>
-  </si>
-  <si>
-    <t>INTWK0002207070450</t>
-  </si>
-  <si>
-    <t>INTWK0002207070465</t>
-  </si>
-  <si>
-    <t>INTWK0002207070456</t>
-  </si>
-  <si>
-    <t>INTWK0002207070448</t>
-  </si>
-  <si>
-    <t>INTWK0002207070467</t>
-  </si>
-  <si>
-    <t>INTWK0002207070459</t>
-  </si>
-  <si>
-    <t>INTWK0002207070466</t>
-  </si>
-  <si>
-    <t>INTWK0002207070447</t>
-  </si>
-  <si>
-    <t>INTWK0002207070462</t>
-  </si>
-  <si>
-    <t>INTWK0002207070460</t>
-  </si>
-  <si>
-    <t>INTWK0002207070463</t>
-  </si>
-  <si>
-    <t>INTWK0002207070445</t>
-  </si>
-  <si>
-    <t>INTWK0002207070458</t>
-  </si>
-  <si>
-    <t>INTWK0002207070454</t>
-  </si>
-  <si>
-    <t>INTWK0002207070461</t>
-  </si>
-  <si>
-    <t>INTWK0002207070446</t>
-  </si>
-  <si>
-    <t>INTWK0002207070453</t>
-  </si>
-  <si>
-    <t>INTWK0002207070451</t>
-  </si>
-  <si>
-    <t>INTWK0002207070452</t>
-  </si>
-  <si>
-    <t>INTWK0002207070308</t>
-  </si>
-  <si>
-    <t>INTWK0002207070326</t>
-  </si>
-  <si>
-    <t>INTWK0002207070307</t>
-  </si>
-  <si>
-    <t>INTWK0002207070309</t>
-  </si>
-  <si>
-    <t>INTWK0002207070310</t>
-  </si>
-  <si>
-    <t>INTWK0002207070321</t>
-  </si>
-  <si>
-    <t>INTWK0002207070325</t>
-  </si>
-  <si>
-    <t>INTWK0002207070306</t>
-  </si>
-  <si>
-    <t>INTWK0002207070322</t>
-  </si>
-  <si>
-    <t>INTWK0002207060484</t>
-  </si>
-  <si>
-    <t>INTWK0002207070324</t>
-  </si>
-  <si>
-    <t>INTWK0002207070323</t>
-  </si>
-  <si>
-    <t>INTWK0002207060491</t>
-  </si>
-  <si>
-    <t>INTWK0002207060493</t>
-  </si>
-  <si>
-    <t>INTWK0002207060469</t>
-  </si>
-  <si>
-    <t>INTWK0002207060470</t>
-  </si>
-  <si>
-    <t>INTWK0002207060492</t>
-  </si>
-  <si>
-    <t>INTWK0002207070416</t>
-  </si>
-  <si>
-    <t>INTWK0002207070417</t>
-  </si>
-  <si>
-    <t>INTWK0002207070418</t>
-  </si>
-  <si>
-    <t>INTWK0002207050275</t>
-  </si>
-  <si>
-    <t>INTWK0002207050260</t>
-  </si>
-  <si>
-    <t>INTWK0002207050272</t>
-  </si>
-  <si>
-    <t>INTWK0002207050264</t>
-  </si>
-  <si>
-    <t>INTWK0002207050265</t>
-  </si>
-  <si>
-    <t>INTWK0002207050261</t>
-  </si>
-  <si>
-    <t>INTWK0002207050269</t>
-  </si>
-  <si>
-    <t>INTWK0002207050273</t>
-  </si>
-  <si>
-    <t>INTWK0002207050237</t>
-  </si>
-  <si>
-    <t>INTWK0002207050257</t>
-  </si>
-  <si>
-    <t>INTWK0002207050274</t>
-  </si>
-  <si>
-    <t>INTWK0002207050271</t>
-  </si>
-  <si>
-    <t>INTWK0002207050277</t>
-  </si>
-  <si>
-    <t>INTWK0002207050240</t>
-  </si>
-  <si>
-    <t>INTWK0002207050259</t>
-  </si>
-  <si>
-    <t>INTWK0002207050239</t>
-  </si>
-  <si>
-    <t>INTWK0002207050276</t>
-  </si>
-  <si>
-    <t>INTWK0002207050267</t>
-  </si>
-  <si>
-    <t>INTWK0002207050256</t>
-  </si>
-  <si>
-    <t>INTWK0002207050258</t>
-  </si>
-  <si>
-    <t>INTWK0002207050263</t>
-  </si>
-  <si>
-    <t>INTWK0002207050266</t>
-  </si>
-  <si>
-    <t>INTWK0002207050238</t>
-  </si>
-  <si>
-    <t>INTWK0002207050268</t>
-  </si>
-  <si>
-    <t>INTWK0002207050270</t>
-  </si>
-  <si>
-    <t>INTWK0002207050384</t>
-  </si>
-  <si>
-    <t>INTWK0002207050382</t>
-  </si>
-  <si>
-    <t>INTWK0002207050365</t>
-  </si>
-  <si>
-    <t>INTWK0002207050364</t>
-  </si>
-  <si>
-    <t>INTWK0002207050369</t>
-  </si>
-  <si>
-    <t>INTWK0002207050383</t>
-  </si>
-  <si>
-    <t>INTWK0002207050385</t>
-  </si>
-  <si>
-    <t>INTWK0002207050367</t>
-  </si>
-  <si>
-    <t>INTWK0002207050366</t>
-  </si>
-  <si>
-    <t>INTWK0002207050370</t>
-  </si>
-  <si>
-    <t>INTWK0002207050368</t>
-  </si>
-  <si>
-    <t>INTWK0002207050381</t>
-  </si>
-  <si>
-    <t>INTWK0002207070415</t>
-  </si>
-  <si>
-    <t>INTWK0002207060428</t>
-  </si>
-  <si>
-    <t>INTWK0002207080147</t>
-  </si>
-  <si>
-    <t>INTWK0002207060399</t>
-  </si>
-  <si>
-    <t>INTWK0002207060421</t>
-  </si>
-  <si>
-    <t>INTWK0002207060400</t>
-  </si>
-  <si>
-    <t>INTWK0002207070414</t>
-  </si>
-  <si>
-    <t>INTWK0002207080002</t>
-  </si>
-  <si>
-    <t>INTWK0002207050375</t>
-  </si>
-  <si>
-    <t>INTWK0002207050391</t>
-  </si>
-  <si>
-    <t>INTWK0002207050394</t>
-  </si>
-  <si>
-    <t>INTWK0002207050389</t>
-  </si>
-  <si>
-    <t>INTWK0002207050388</t>
-  </si>
-  <si>
-    <t>INTWK0002207060354</t>
-  </si>
-  <si>
-    <t>INTWK0002207060352</t>
-  </si>
-  <si>
-    <t>INTWK0002207060351</t>
-  </si>
-  <si>
-    <t>INTWK0002207050376</t>
-  </si>
-  <si>
-    <t>INTWK0002207050374</t>
-  </si>
-  <si>
-    <t>INTWK0002207050377</t>
-  </si>
-  <si>
-    <t>INTWK0002207070343</t>
-  </si>
-  <si>
-    <t>INTWK0002207070337</t>
-  </si>
-  <si>
-    <t>INTWK0002207080011</t>
-  </si>
-  <si>
-    <t>INTWK0002207080121</t>
-  </si>
-  <si>
-    <t>INTWK0002207080122</t>
-  </si>
-  <si>
-    <t>INTWK0002207070355</t>
-  </si>
-  <si>
-    <t>INTWK0002207070334</t>
-  </si>
-  <si>
-    <t>INTWK0002207070338</t>
-  </si>
-  <si>
-    <t>INTWK0002207070340</t>
-  </si>
-  <si>
-    <t>INTWK0002207070339</t>
-  </si>
-  <si>
-    <t>INTWK0002207070342</t>
-  </si>
-  <si>
-    <t>INTWK0002207070352</t>
-  </si>
-  <si>
-    <t>INTWK0002207070333</t>
-  </si>
-  <si>
-    <t>INTWK0002207070347</t>
-  </si>
-  <si>
-    <t>INTWK0002207070345</t>
-  </si>
-  <si>
-    <t>INTWK0002207070331</t>
-  </si>
-  <si>
-    <t>INTWK0002207070350</t>
-  </si>
-  <si>
-    <t>INTWK0002207070357</t>
-  </si>
-  <si>
-    <t>INTWK0002207070341</t>
-  </si>
-  <si>
-    <t>INTWK0002207070354</t>
-  </si>
-  <si>
-    <t>INTWK0002207070351</t>
-  </si>
-  <si>
-    <t>INTWK0002207070320</t>
-  </si>
-  <si>
-    <t>INTWK0002207070344</t>
-  </si>
-  <si>
-    <t>INTWK0002207070353</t>
-  </si>
-  <si>
-    <t>INTWK0002207070349</t>
-  </si>
-  <si>
-    <t>INTWK0002207070348</t>
-  </si>
-  <si>
-    <t>INTWK0002207070356</t>
-  </si>
-  <si>
-    <t>INTWK0002207070335</t>
-  </si>
-  <si>
-    <t>INTWK0002207070336</t>
-  </si>
-  <si>
-    <t>INTWK0002207070346</t>
-  </si>
-  <si>
-    <t>INTWK0002207070413</t>
-  </si>
-  <si>
-    <t>INTWK0002207070412</t>
-  </si>
-  <si>
-    <t>INTWK0002207060631</t>
-  </si>
-  <si>
-    <t>INTWK0002207060627</t>
-  </si>
-  <si>
-    <t>INTWK0002207060637</t>
-  </si>
-  <si>
-    <t>INTWK0002207060623</t>
-  </si>
-  <si>
-    <t>INTWK0002207060635</t>
-  </si>
-  <si>
-    <t>INTWK0002207060630</t>
-  </si>
-  <si>
-    <t>INTWK0002207060626</t>
-  </si>
-  <si>
-    <t>INTWK0002207060625</t>
-  </si>
-  <si>
-    <t>INTWK0002207060629</t>
-  </si>
-  <si>
-    <t>INTWK0002207060628</t>
-  </si>
-  <si>
-    <t>INTWK0002207060634</t>
-  </si>
-  <si>
-    <t>INTWK0002207060633</t>
-  </si>
-  <si>
-    <t>INTWK0002207060632</t>
-  </si>
-  <si>
-    <t>INTWK0002207060636</t>
-  </si>
-  <si>
-    <t>INTWK0002207070316</t>
-  </si>
-  <si>
-    <t>INTWK0002207070315</t>
-  </si>
-  <si>
-    <t>INTWK0002207060501</t>
-  </si>
-  <si>
-    <t>INTWK0002207060487</t>
-  </si>
-  <si>
-    <t>INTWK0002207060489</t>
-  </si>
-  <si>
-    <t>INTWK0002207060490</t>
-  </si>
-  <si>
-    <t>INTWK0002207060485</t>
-  </si>
-  <si>
-    <t>INTWK0002207060488</t>
-  </si>
-  <si>
-    <t>INTWK0002207060486</t>
-  </si>
-  <si>
-    <t>INTWK0002207080074</t>
-  </si>
-  <si>
-    <t>INTWK0002207040226</t>
-  </si>
-  <si>
-    <t>INTWK0002207040227</t>
-  </si>
-  <si>
-    <t>INTWK0002207070188</t>
-  </si>
-  <si>
-    <t>INTWK0002207070181</t>
-  </si>
-  <si>
-    <t>INTWK0002207070194</t>
-  </si>
-  <si>
-    <t>INTWK0002207070182</t>
-  </si>
-  <si>
-    <t>INTWK0002207070186</t>
-  </si>
-  <si>
-    <t>INTWK0002207070177</t>
-  </si>
-  <si>
-    <t>INTWK0002207070180</t>
-  </si>
-  <si>
-    <t>INTWK0002207070189</t>
-  </si>
-  <si>
-    <t>INTWK0002207070191</t>
-  </si>
-  <si>
-    <t>INTWK0002207070184</t>
-  </si>
-  <si>
-    <t>INTWK0002207070192</t>
-  </si>
-  <si>
-    <t>INTWK0002207070178</t>
-  </si>
-  <si>
-    <t>INTWK0002207070173</t>
-  </si>
-  <si>
-    <t>INTWK0002207070185</t>
-  </si>
-  <si>
-    <t>INTWK0002207070176</t>
-  </si>
-  <si>
-    <t>INTWK0002207070175</t>
-  </si>
-  <si>
-    <t>INTWK0002207070174</t>
-  </si>
-  <si>
-    <t>INTWK0002207070179</t>
-  </si>
-  <si>
-    <t>INTWK0002207070190</t>
-  </si>
-  <si>
-    <t>INTWK0002207070195</t>
-  </si>
-  <si>
-    <t>INTWK0002207070193</t>
-  </si>
-  <si>
-    <t>INTWK0002207070187</t>
-  </si>
-  <si>
-    <t>INTWK0002207060150</t>
-  </si>
-  <si>
-    <t>INTWK0002207060121</t>
-  </si>
-  <si>
-    <t>INTWK0002207060138</t>
-  </si>
-  <si>
-    <t>INTWK0002207060147</t>
-  </si>
-  <si>
-    <t>INTWK0002207060135</t>
-  </si>
-  <si>
-    <t>INTWK0002207060151</t>
-  </si>
-  <si>
-    <t>INTWK0002207060148</t>
-  </si>
-  <si>
-    <t>INTWK0002207060145</t>
-  </si>
-  <si>
-    <t>INTWK0002207060152</t>
-  </si>
-  <si>
-    <t>INTWK0002207060149</t>
-  </si>
-  <si>
-    <t>INTWK0002207060140</t>
-  </si>
-  <si>
-    <t>INTWK0002207060108</t>
-  </si>
-  <si>
-    <t>INTWK0002207060122</t>
-  </si>
-  <si>
-    <t>INTWK0002207060127</t>
-  </si>
-  <si>
-    <t>INTWK0002207060123</t>
-  </si>
-  <si>
-    <t>INTWK0002207060144</t>
-  </si>
-  <si>
-    <t>INTWK0002207060109</t>
-  </si>
-  <si>
-    <t>INTWK0002207060143</t>
-  </si>
-  <si>
-    <t>INTWK0002207060126</t>
-  </si>
-  <si>
-    <t>INTWK0002207060137</t>
-  </si>
-  <si>
-    <t>INTWK0002207060132</t>
-  </si>
-  <si>
-    <t>INTWK0002207060131</t>
-  </si>
-  <si>
-    <t>INTWK0002207060139</t>
-  </si>
-  <si>
-    <t>INTWK0002207060142</t>
-  </si>
-  <si>
-    <t>INTWK0002207060110</t>
-  </si>
-  <si>
-    <t>INTWK0002207060124</t>
-  </si>
-  <si>
-    <t>INTWK0002207060146</t>
-  </si>
-  <si>
-    <t>INTWK0002207060136</t>
-  </si>
-  <si>
-    <t>INTWK0002207060125</t>
-  </si>
-  <si>
-    <t>INTWK0002207060355</t>
-  </si>
-  <si>
-    <t>INTWK0002207060340</t>
-  </si>
-  <si>
-    <t>INTWK0002207060339</t>
-  </si>
-  <si>
-    <t>INTWK0002207060337</t>
-  </si>
-  <si>
-    <t>INTWK0002207040375</t>
-  </si>
-  <si>
-    <t>INTWK0002207040374</t>
-  </si>
-  <si>
-    <t>INTWK0002207060401</t>
-  </si>
-  <si>
-    <t>INTWK0002207060370</t>
-  </si>
-  <si>
-    <t>INTWK0002207060415</t>
-  </si>
-  <si>
-    <t>INTWK0002207060414</t>
-  </si>
-  <si>
-    <t>INTWK0002207060413</t>
-  </si>
-  <si>
-    <t>INTWK0002207060410</t>
-  </si>
-  <si>
-    <t>INTWK0002207060409</t>
-  </si>
-  <si>
-    <t>INTWK0002207060412</t>
-  </si>
-  <si>
-    <t>INTWK0002207060404</t>
-  </si>
-  <si>
-    <t>INTWK0002207060402</t>
-  </si>
-  <si>
-    <t>INTWK0002207060406</t>
-  </si>
-  <si>
-    <t>INTWK0002207060403</t>
-  </si>
-  <si>
-    <t>INTWK0002207060407</t>
-  </si>
-  <si>
-    <t>INTWK0002207060416</t>
-  </si>
-  <si>
-    <t>INTWK0002207060405</t>
-  </si>
-  <si>
-    <t>INTWK0002207060408</t>
-  </si>
-  <si>
-    <t>INTWK0002207080146</t>
-  </si>
-  <si>
-    <t>INTWK0002207080142</t>
-  </si>
-  <si>
-    <t>INTWK0002207080144</t>
-  </si>
-  <si>
-    <t>INTWK0002207080143</t>
-  </si>
-  <si>
-    <t>INTWK0002207080141</t>
-  </si>
-  <si>
-    <t>INTWK0002207080145</t>
-  </si>
-  <si>
-    <t>INTWK0002207060411</t>
-  </si>
-  <si>
-    <t>INTWK0002207070317</t>
-  </si>
-  <si>
-    <t>INTWK0002207050387</t>
-  </si>
-  <si>
-    <t>INTWK0002207050386</t>
-  </si>
-  <si>
-    <t>INTWK0002207070318</t>
-  </si>
-  <si>
-    <t>INTWK0002207070319</t>
-  </si>
-  <si>
-    <t>INTWK0002207060443</t>
-  </si>
-  <si>
-    <t>INTWK0002207060444</t>
-  </si>
-  <si>
-    <t>INTWK0002207060371</t>
-  </si>
-  <si>
-    <t>INTWK0002207060360</t>
-  </si>
-  <si>
-    <t>INTWK0002207060372</t>
-  </si>
-  <si>
-    <t>INTWK0002207060373</t>
-  </si>
-  <si>
-    <t>INTWK0002207060358</t>
-  </si>
-  <si>
-    <t>INTWK0002207060357</t>
-  </si>
-  <si>
-    <t>INTWK0002207060356</t>
-  </si>
-  <si>
-    <t>INTWK0002207060442</t>
-  </si>
-  <si>
-    <t>INTWK0002207040273</t>
-  </si>
-  <si>
-    <t>INTWK0002207040272</t>
-  </si>
-  <si>
-    <t>INTWK0002207040271</t>
-  </si>
-  <si>
-    <t>INTWK0002207070137</t>
-  </si>
-  <si>
-    <t>INTWK0002207070133</t>
-  </si>
-  <si>
-    <t>INTWK0002207070136</t>
-  </si>
-  <si>
-    <t>INTWK0002207070132</t>
-  </si>
-  <si>
-    <t>INTWK0002207070139</t>
-  </si>
-  <si>
-    <t>INTWK0002207070135</t>
-  </si>
-  <si>
-    <t>INTWK0002207070171</t>
-  </si>
-  <si>
-    <t>INTWK0002207070140</t>
-  </si>
-  <si>
-    <t>INTWK0002207070134</t>
-  </si>
-  <si>
-    <t>INTWK0002207070138</t>
-  </si>
-  <si>
-    <t>INTWK0002207070172</t>
-  </si>
-  <si>
-    <t>INTWK0002207050398</t>
-  </si>
-  <si>
-    <t>INTWK0002207050396</t>
-  </si>
-  <si>
-    <t>INTWK0002207050397</t>
+    <t>INTWK0002207070057</t>
+  </si>
+  <si>
+    <t>INTWK0002207070058</t>
+  </si>
+  <si>
+    <t>INTWK0002207070059</t>
+  </si>
+  <si>
+    <t>INTWK0002207080053</t>
+  </si>
+  <si>
+    <t>INTWK0002207080054</t>
+  </si>
+  <si>
+    <t>INTWK0002207080055</t>
+  </si>
+  <si>
+    <t>INTWK0002207080052</t>
+  </si>
+  <si>
+    <t>INTWK0002207080195</t>
+  </si>
+  <si>
+    <t>INTWK0002207080197</t>
+  </si>
+  <si>
+    <t>INTWK0002207080196</t>
+  </si>
+  <si>
+    <t>INTWK0002207080194</t>
+  </si>
+  <si>
+    <t>INTWK0002207080198</t>
+  </si>
+  <si>
+    <t>INTWK0002207080221</t>
+  </si>
+  <si>
+    <t>INTWK0002207080222</t>
+  </si>
+  <si>
+    <t>INTWK0002207080223</t>
+  </si>
+  <si>
+    <t>INTWK0002207080199</t>
+  </si>
+  <si>
+    <t>INTWK0002207080224</t>
+  </si>
+  <si>
+    <t>INTWK0002207080200</t>
+  </si>
+  <si>
+    <t>INTWK0002207070313</t>
+  </si>
+  <si>
+    <t>INTWK0002207070311</t>
+  </si>
+  <si>
+    <t>INTWK0002207070312</t>
+  </si>
+  <si>
+    <t>INTWK0002207070314</t>
+  </si>
+  <si>
+    <t>INTWK0002207040454</t>
+  </si>
+  <si>
+    <t>INTWK0002207040469</t>
+  </si>
+  <si>
+    <t>INTWK0002207040511</t>
+  </si>
+  <si>
+    <t>INTWK0002207040450</t>
+  </si>
+  <si>
+    <t>INTWK0002207040486</t>
+  </si>
+  <si>
+    <t>INTWK0002207040467</t>
+  </si>
+  <si>
+    <t>INTWK0002207040442</t>
+  </si>
+  <si>
+    <t>INTWK0002207040510</t>
+  </si>
+  <si>
+    <t>INTWK0002207040453</t>
+  </si>
+  <si>
+    <t>INTWK0002207040488</t>
+  </si>
+  <si>
+    <t>INTWK0002207040489</t>
+  </si>
+  <si>
+    <t>INTWK0002207040481</t>
+  </si>
+  <si>
+    <t>INTWK0002207040504</t>
+  </si>
+  <si>
+    <t>INTWK0002207040509</t>
+  </si>
+  <si>
+    <t>INTWK0002207040497</t>
+  </si>
+  <si>
+    <t>INTWK0002207040490</t>
+  </si>
+  <si>
+    <t>INTWK0002207040466</t>
+  </si>
+  <si>
+    <t>INTWK0002207040445</t>
+  </si>
+  <si>
+    <t>INTWK0002207040441</t>
+  </si>
+  <si>
+    <t>INTWK0002207040493</t>
+  </si>
+  <si>
+    <t>INTWK0002207040446</t>
+  </si>
+  <si>
+    <t>INTWK0002207040473</t>
+  </si>
+  <si>
+    <t>INTWK0002207040506</t>
+  </si>
+  <si>
+    <t>INTWK0002207040498</t>
+  </si>
+  <si>
+    <t>INTWK0002207040447</t>
+  </si>
+  <si>
+    <t>INTWK0002207040480</t>
+  </si>
+  <si>
+    <t>INTWK0002207040484</t>
+  </si>
+  <si>
+    <t>INTWK0002207040515</t>
+  </si>
+  <si>
+    <t>INTWK0002207040496</t>
+  </si>
+  <si>
+    <t>INTWK0002207040508</t>
+  </si>
+  <si>
+    <t>INTWK0002207040472</t>
+  </si>
+  <si>
+    <t>INTWK0002207040513</t>
+  </si>
+  <si>
+    <t>INTWK0002207040443</t>
+  </si>
+  <si>
+    <t>INTWK0002207040465</t>
+  </si>
+  <si>
+    <t>INTWK0002207040487</t>
+  </si>
+  <si>
+    <t>INTWK0002207040476</t>
+  </si>
+  <si>
+    <t>INTWK0002207040495</t>
+  </si>
+  <si>
+    <t>INTWK0002207040464</t>
+  </si>
+  <si>
+    <t>INTWK0002207040455</t>
+  </si>
+  <si>
+    <t>INTWK0002207040458</t>
+  </si>
+  <si>
+    <t>INTWK0002207040478</t>
+  </si>
+  <si>
+    <t>INTWK0002207040491</t>
+  </si>
+  <si>
+    <t>INTWK0002207040494</t>
+  </si>
+  <si>
+    <t>INTWK0002207040503</t>
+  </si>
+  <si>
+    <t>INTWK0002207040501</t>
+  </si>
+  <si>
+    <t>INTWK0002207040492</t>
+  </si>
+  <si>
+    <t>INTWK0002207040477</t>
+  </si>
+  <si>
+    <t>INTWK0002207040457</t>
+  </si>
+  <si>
+    <t>INTWK0002207040502</t>
+  </si>
+  <si>
+    <t>INTWK0002207040460</t>
+  </si>
+  <si>
+    <t>INTWK0002207040459</t>
+  </si>
+  <si>
+    <t>INTWK0002207040462</t>
+  </si>
+  <si>
+    <t>INTWK0002207040463</t>
+  </si>
+  <si>
+    <t>INTWK0002207040507</t>
+  </si>
+  <si>
+    <t>INTWK0002207040512</t>
+  </si>
+  <si>
+    <t>INTWK0002207040514</t>
+  </si>
+  <si>
+    <t>INTWK0002207040452</t>
+  </si>
+  <si>
+    <t>INTWK0002207040468</t>
+  </si>
+  <si>
+    <t>INTWK0002207040475</t>
+  </si>
+  <si>
+    <t>INTWK0002207040451</t>
+  </si>
+  <si>
+    <t>INTWK0002207040474</t>
+  </si>
+  <si>
+    <t>INTWK0002207040499</t>
+  </si>
+  <si>
+    <t>INTWK0002207040482</t>
+  </si>
+  <si>
+    <t>INTWK0002207040470</t>
+  </si>
+  <si>
+    <t>INTWK0002207040456</t>
+  </si>
+  <si>
+    <t>INTWK0002207040483</t>
+  </si>
+  <si>
+    <t>INTWK0002207040500</t>
+  </si>
+  <si>
+    <t>INTWK0002207040479</t>
+  </si>
+  <si>
+    <t>INTWK0002207040461</t>
+  </si>
+  <si>
+    <t>INTWK0002207040485</t>
+  </si>
+  <si>
+    <t>INTWK0002207040505</t>
+  </si>
+  <si>
+    <t>INTWK0002207040448</t>
+  </si>
+  <si>
+    <t>INTWK0002207050328</t>
+  </si>
+  <si>
+    <t>INTWK0002207040449</t>
+  </si>
+  <si>
+    <t>INTWK0002207040471</t>
+  </si>
+  <si>
+    <t>INTWK0002207050329</t>
+  </si>
+  <si>
+    <t>INTWK0002207060508</t>
+  </si>
+  <si>
+    <t>INTWK0002207060507</t>
+  </si>
+  <si>
+    <t>INTWK0002207060505</t>
+  </si>
+  <si>
+    <t>INTWK0002207060504</t>
+  </si>
+  <si>
+    <t>INTWK0002207060512</t>
+  </si>
+  <si>
+    <t>INTWK0002207060510</t>
+  </si>
+  <si>
+    <t>INTWK0002207060511</t>
+  </si>
+  <si>
+    <t>INTWK0002207060513</t>
+  </si>
+  <si>
+    <t>INTWK0002207060509</t>
+  </si>
+  <si>
+    <t>INTWK0002207060506</t>
+  </si>
+  <si>
+    <t>INTWK0002207050236</t>
+  </si>
+  <si>
+    <t>INTWK0002207070385</t>
+  </si>
+  <si>
+    <t>INTWK0002207070297</t>
+  </si>
+  <si>
+    <t>INTWK0002207070300</t>
+  </si>
+  <si>
+    <t>INTWK0002207060221</t>
+  </si>
+  <si>
+    <t>INTWK0002207060210</t>
+  </si>
+  <si>
+    <t>INTWK0002207060225</t>
+  </si>
+  <si>
+    <t>INTWK0002207060226</t>
+  </si>
+  <si>
+    <t>INTWK0002207060222</t>
+  </si>
+  <si>
+    <t>INTWK0002207060223</t>
+  </si>
+  <si>
+    <t>INTWK0002207080017</t>
+  </si>
+  <si>
+    <t>INTWK0002207060224</t>
+  </si>
+  <si>
+    <t>INTWK0002207060425</t>
+  </si>
+  <si>
+    <t>INTWK0002207060426</t>
+  </si>
+  <si>
+    <t>INTWK0002207060427</t>
+  </si>
+  <si>
+    <t>INTWK0002207050125</t>
+  </si>
+  <si>
+    <t>INTWK0002207050127</t>
+  </si>
+  <si>
+    <t>INTWK0002207050126</t>
+  </si>
+  <si>
+    <t>INTWK0002207050128</t>
+  </si>
+  <si>
+    <t>INTWK0002207080085</t>
+  </si>
+  <si>
+    <t>INTWK0002207080077</t>
+  </si>
+  <si>
+    <t>INTWK0002207080079</t>
+  </si>
+  <si>
+    <t>INTWK0002207080084</t>
+  </si>
+  <si>
+    <t>INTWK0002207080078</t>
+  </si>
+  <si>
+    <t>INTWK0002207080083</t>
+  </si>
+  <si>
+    <t>INTWK0002207080082</t>
+  </si>
+  <si>
+    <t>INTWK0002207080076</t>
+  </si>
+  <si>
+    <t>INTWK0002207080075</t>
+  </si>
+  <si>
+    <t>INTWK0002207080081</t>
+  </si>
+  <si>
+    <t>INTWK0002207080080</t>
+  </si>
+  <si>
+    <t>INTWK0002207060584</t>
+  </si>
+  <si>
+    <t>INTWK0002207060539</t>
+  </si>
+  <si>
+    <t>INTWK0002207060555</t>
+  </si>
+  <si>
+    <t>INTWK0002207060588</t>
+  </si>
+  <si>
+    <t>INTWK0002207060554</t>
+  </si>
+  <si>
+    <t>INTWK0002207060594</t>
+  </si>
+  <si>
+    <t>INTWK0002207060579</t>
+  </si>
+  <si>
+    <t>INTWK0002207060546</t>
+  </si>
+  <si>
+    <t>INTWK0002207060542</t>
+  </si>
+  <si>
+    <t>INTWK0002207060583</t>
+  </si>
+  <si>
+    <t>INTWK0002207060601</t>
+  </si>
+  <si>
+    <t>INTWK0002207060559</t>
+  </si>
+  <si>
+    <t>INTWK0002207060545</t>
+  </si>
+  <si>
+    <t>INTWK0002207060599</t>
+  </si>
+  <si>
+    <t>INTWK0002207060536</t>
+  </si>
+  <si>
+    <t>INTWK0002207050250</t>
+  </si>
+  <si>
+    <t>INTWK0002207050247</t>
+  </si>
+  <si>
+    <t>INTWK0002207050348</t>
+  </si>
+  <si>
+    <t>INTWK0002207050345</t>
+  </si>
+  <si>
+    <t>INTWK0002207060541</t>
+  </si>
+  <si>
+    <t>INTWK0002207060549</t>
+  </si>
+  <si>
+    <t>INTWK0002207060562</t>
+  </si>
+  <si>
+    <t>INTWK0002207060563</t>
+  </si>
+  <si>
+    <t>INTWK0002207060577</t>
+  </si>
+  <si>
+    <t>INTWK0002207060595</t>
+  </si>
+  <si>
+    <t>INTWK0002207060585</t>
+  </si>
+  <si>
+    <t>INTWK0002207060572</t>
+  </si>
+  <si>
+    <t>INTWK0002207060550</t>
+  </si>
+  <si>
+    <t>INTWK0002207060575</t>
+  </si>
+  <si>
+    <t>INTWK0002207060540</t>
+  </si>
+  <si>
+    <t>INTWK0002207060600</t>
+  </si>
+  <si>
+    <t>INTWK0002207060581</t>
+  </si>
+  <si>
+    <t>INTWK0002207060544</t>
+  </si>
+  <si>
+    <t>INTWK0002207060573</t>
+  </si>
+  <si>
+    <t>INTWK0002207060556</t>
+  </si>
+  <si>
+    <t>INTWK0002207060560</t>
+  </si>
+  <si>
+    <t>INTWK0002207050355</t>
+  </si>
+  <si>
+    <t>INTWK0002207060561</t>
+  </si>
+  <si>
+    <t>INTWK0002207060591</t>
+  </si>
+  <si>
+    <t>INTWK0002207060564</t>
+  </si>
+  <si>
+    <t>INTWK0002207060598</t>
+  </si>
+  <si>
+    <t>INTWK0002207060590</t>
+  </si>
+  <si>
+    <t>INTWK0002207060551</t>
+  </si>
+  <si>
+    <t>INTWK0002207060569</t>
+  </si>
+  <si>
+    <t>INTWK0002207060596</t>
+  </si>
+  <si>
+    <t>INTWK0002207060606</t>
+  </si>
+  <si>
+    <t>INTWK0002207050353</t>
+  </si>
+  <si>
+    <t>INTWK0002207060567</t>
+  </si>
+  <si>
+    <t>INTWK0002207050334</t>
+  </si>
+  <si>
+    <t>INTWK0002207050336</t>
+  </si>
+  <si>
+    <t>INTWK0002207060602</t>
+  </si>
+  <si>
+    <t>INTWK0002207060553</t>
+  </si>
+  <si>
+    <t>INTWK0002207060568</t>
+  </si>
+  <si>
+    <t>INTWK0002207060552</t>
+  </si>
+  <si>
+    <t>INTWK0002207060537</t>
+  </si>
+  <si>
+    <t>INTWK0002207050332</t>
+  </si>
+  <si>
+    <t>INTWK0002207050248</t>
+  </si>
+  <si>
+    <t>INTWK0002207050352</t>
+  </si>
+  <si>
+    <t>INTWK0002207060582</t>
+  </si>
+  <si>
+    <t>INTWK0002207050341</t>
+  </si>
+  <si>
+    <t>INTWK0002207050343</t>
+  </si>
+  <si>
+    <t>INTWK0002207060535</t>
+  </si>
+  <si>
+    <t>INTWK0002207060603</t>
+  </si>
+  <si>
+    <t>INTWK0002207060592</t>
+  </si>
+  <si>
+    <t>INTWK0002207050335</t>
+  </si>
+  <si>
+    <t>INTWK0002207050337</t>
+  </si>
+  <si>
+    <t>INTWK0002207050349</t>
+  </si>
+  <si>
+    <t>INTWK0002207060593</t>
+  </si>
+  <si>
+    <t>INTWK0002207060578</t>
+  </si>
+  <si>
+    <t>INTWK0002207050351</t>
+  </si>
+  <si>
+    <t>INTWK0002207050340</t>
+  </si>
+  <si>
+    <t>INTWK0002207060558</t>
+  </si>
+  <si>
+    <t>INTWK0002207060605</t>
+  </si>
+  <si>
+    <t>INTWK0002207060538</t>
+  </si>
+  <si>
+    <t>INTWK0002207060548</t>
+  </si>
+  <si>
+    <t>INTWK0002207050333</t>
+  </si>
+  <si>
+    <t>INTWK0002207060586</t>
+  </si>
+  <si>
+    <t>INTWK0002207050350</t>
+  </si>
+  <si>
+    <t>INTWK0002207050356</t>
+  </si>
+  <si>
+    <t>INTWK0002207050339</t>
+  </si>
+  <si>
+    <t>INTWK0002207050347</t>
+  </si>
+  <si>
+    <t>INTWK0002207050344</t>
+  </si>
+  <si>
+    <t>INTWK0002207060574</t>
+  </si>
+  <si>
+    <t>INTWK0002207050342</t>
+  </si>
+  <si>
+    <t>INTWK0002207060589</t>
+  </si>
+  <si>
+    <t>INTWK0002207060576</t>
+  </si>
+  <si>
+    <t>INTWK0002207060587</t>
+  </si>
+  <si>
+    <t>INTWK0002207060565</t>
+  </si>
+  <si>
+    <t>INTWK0002207050346</t>
+  </si>
+  <si>
+    <t>INTWK0002207050338</t>
+  </si>
+  <si>
+    <t>INTWK0002207050331</t>
+  </si>
+  <si>
+    <t>INTWK0002207060463</t>
+  </si>
+  <si>
+    <t>INTWK0002207060467</t>
+  </si>
+  <si>
+    <t>INTWK0002207060466</t>
+  </si>
+  <si>
+    <t>INTWK0002207060465</t>
+  </si>
+  <si>
+    <t>INTWK0002207060450</t>
+  </si>
+  <si>
+    <t>INTWK0002207060461</t>
+  </si>
+  <si>
+    <t>INTWK0002207060462</t>
+  </si>
+  <si>
+    <t>INTWK0002207060449</t>
+  </si>
+  <si>
+    <t>INTWK0002207060468</t>
+  </si>
+  <si>
+    <t>INTWK0002207060464</t>
+  </si>
+  <si>
+    <t>INTWK0002207070330</t>
+  </si>
+  <si>
+    <t>INTWK0002207050005</t>
+  </si>
+  <si>
+    <t>INTWK0002207050004</t>
+  </si>
+  <si>
+    <t>INTWK0002207050252</t>
+  </si>
+  <si>
+    <t>INTWK0002207050254</t>
+  </si>
+  <si>
+    <t>INTWK0002207050255</t>
+  </si>
+  <si>
+    <t>INTWK0002207050251</t>
+  </si>
+  <si>
+    <t>INTWK0002207080213</t>
+  </si>
+  <si>
+    <t>INTWK0002207080211</t>
+  </si>
+  <si>
+    <t>INTWK0002207080190</t>
+  </si>
+  <si>
+    <t>INTWK0002207080208</t>
+  </si>
+  <si>
+    <t>INTWK0002207080214</t>
+  </si>
+  <si>
+    <t>INTWK0002207080206</t>
+  </si>
+  <si>
+    <t>INTWK0002207080209</t>
+  </si>
+  <si>
+    <t>INTWK0002207080201</t>
+  </si>
+  <si>
+    <t>INTWK0002207080215</t>
+  </si>
+  <si>
+    <t>INTWK0002207080205</t>
+  </si>
+  <si>
+    <t>INTWK0002207080207</t>
+  </si>
+  <si>
+    <t>INTWK0002207080186</t>
+  </si>
+  <si>
+    <t>INTWK0002207080189</t>
+  </si>
+  <si>
+    <t>INTWK0002207080185</t>
+  </si>
+  <si>
+    <t>INTWK0002207080212</t>
+  </si>
+  <si>
+    <t>INTWK0002207080187</t>
+  </si>
+  <si>
+    <t>INTWK0002207080202</t>
+  </si>
+  <si>
+    <t>INTWK0002207080210</t>
+  </si>
+  <si>
+    <t>INTWK0002207080203</t>
+  </si>
+  <si>
+    <t>INTWK0002207080216</t>
+  </si>
+  <si>
+    <t>INTWK0002207080204</t>
+  </si>
+  <si>
+    <t>INTWK0002207060247</t>
+  </si>
+  <si>
+    <t>INTWK0002207110206</t>
+  </si>
+  <si>
+    <t>INTWK0002207110207</t>
+  </si>
+  <si>
+    <t>INTWK0002207070496</t>
+  </si>
+  <si>
+    <t>INTWK0002207070495</t>
+  </si>
+  <si>
+    <t>INTWK0002207070384</t>
+  </si>
+  <si>
+    <t>INTWK0002207070383</t>
+  </si>
+  <si>
+    <t>INTWK0002207050242</t>
+  </si>
+  <si>
+    <t>INTWK0002207050228</t>
+  </si>
+  <si>
+    <t>INTWK0002207050246</t>
+  </si>
+  <si>
+    <t>INTWK0002207050230</t>
+  </si>
+  <si>
+    <t>INTWK0002207050243</t>
+  </si>
+  <si>
+    <t>INTWK0002207050229</t>
+  </si>
+  <si>
+    <t>INTWK0002207050244</t>
+  </si>
+  <si>
+    <t>INTWK0002207050245</t>
+  </si>
+  <si>
+    <t>INTWK0002207060445</t>
+  </si>
+  <si>
+    <t>INTWK0002207060447</t>
+  </si>
+  <si>
+    <t>INTWK0002207060446</t>
+  </si>
+  <si>
+    <t>INTWK0002207070205</t>
+  </si>
+  <si>
+    <t>INTWK0002207070209</t>
+  </si>
+  <si>
+    <t>INTWK0002207070206</t>
+  </si>
+  <si>
+    <t>INTWK0002207070203</t>
+  </si>
+  <si>
+    <t>INTWK0002207070208</t>
+  </si>
+  <si>
+    <t>INTWK0002207070204</t>
+  </si>
+  <si>
+    <t>INTWK0002207070202</t>
+  </si>
+  <si>
+    <t>INTWK0002207070201</t>
+  </si>
+  <si>
+    <t>INTWK0002207070210</t>
+  </si>
+  <si>
+    <t>INTWK0002207070211</t>
+  </si>
+  <si>
+    <t>INTWK0002207070207</t>
+  </si>
+  <si>
+    <t>INTWK0002207010177</t>
+  </si>
+  <si>
+    <t>INTWK0002207060498</t>
+  </si>
+  <si>
+    <t>INTWK0002207060499</t>
+  </si>
+  <si>
+    <t>INTWK0002207060496</t>
+  </si>
+  <si>
+    <t>INTWK0002207060497</t>
+  </si>
+  <si>
+    <t>INTWK0002207060500</t>
+  </si>
+  <si>
+    <t>INTWK0002207060495</t>
+  </si>
+  <si>
+    <t>INTWK0002207040410</t>
+  </si>
+  <si>
+    <t>INTWK0002207040429</t>
+  </si>
+  <si>
+    <t>INTWK0002207040438</t>
+  </si>
+  <si>
+    <t>INTWK0002207040440</t>
+  </si>
+  <si>
+    <t>INTWK0002207040437</t>
+  </si>
+  <si>
+    <t>INTWK0002207040427</t>
+  </si>
+  <si>
+    <t>INTWK0002207040439</t>
+  </si>
+  <si>
+    <t>INTWK0002207040428</t>
+  </si>
+  <si>
+    <t>INTWK0002207040426</t>
+  </si>
+  <si>
+    <t>INTWK0002207040430</t>
+  </si>
+  <si>
+    <t>INTWK0002207040434</t>
+  </si>
+  <si>
+    <t>INTWK0002207040435</t>
+  </si>
+  <si>
+    <t>INTWK0002207040422</t>
+  </si>
+  <si>
+    <t>INTWK0002207040425</t>
+  </si>
+  <si>
+    <t>INTWK0002207040431</t>
+  </si>
+  <si>
+    <t>INTWK0002207040423</t>
+  </si>
+  <si>
+    <t>INTWK0002207040436</t>
+  </si>
+  <si>
+    <t>INTWK0002207040421</t>
+  </si>
+  <si>
+    <t>INTWK0002207040424</t>
+  </si>
+  <si>
+    <t>INTWK0002207050282</t>
+  </si>
+  <si>
+    <t>INTWK0002207050279</t>
+  </si>
+  <si>
+    <t>INTWK0002207050278</t>
+  </si>
+  <si>
+    <t>INTWK0002207050281</t>
+  </si>
+  <si>
+    <t>INTWK0002207050280</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F345"/>
+  <dimension ref="A1:F328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,16 +1408,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2">
-        <v>44753.30614583333</v>
+        <v>44754.37613425926</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1479,16 +1428,16 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2">
-        <v>44753.30587962963</v>
+        <v>44754.37376157408</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1502,13 +1451,13 @@
         <v>24</v>
       </c>
       <c r="D4" s="2">
-        <v>44753.30603009259</v>
+        <v>44754.37612268519</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1519,16 +1468,16 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2">
-        <v>44753.30614583333</v>
+        <v>44754.37613425926</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1539,16 +1488,16 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
-        <v>44753.30621527778</v>
+        <v>44754.37614583333</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1559,16 +1508,16 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D7" s="2">
-        <v>44753.30631944445</v>
+        <v>44754.37616898148</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1579,16 +1528,16 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2">
-        <v>44753.30825231481</v>
+        <v>44754.37618055556</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1599,16 +1548,16 @@
         <v>13</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>44753.30885416667</v>
+        <v>44754.38548611111</v>
       </c>
       <c r="E9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1619,16 +1568,16 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2">
-        <v>44753.30891203704</v>
+        <v>44754.38550925926</v>
       </c>
       <c r="E10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1639,16 +1588,16 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2">
-        <v>44753.30894675926</v>
+        <v>44754.38555555556</v>
       </c>
       <c r="E11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1659,16 +1608,16 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>44753.31054398148</v>
+        <v>44754.38556712963</v>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1679,16 +1628,16 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2">
-        <v>44753.31298611111</v>
+        <v>44754.38780092593</v>
       </c>
       <c r="E13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1699,16 +1648,16 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D14" s="2">
-        <v>44753.31304398148</v>
+        <v>44754.38871527778</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1719,16 +1668,16 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D15" s="2">
-        <v>44753.31310185185</v>
+        <v>44754.38891203704</v>
       </c>
       <c r="E15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1739,16 +1688,16 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>44753.31334490741</v>
+        <v>44754.38894675926</v>
       </c>
       <c r="E16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1759,16 +1708,16 @@
         <v>21</v>
       </c>
       <c r="C17">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D17" s="2">
-        <v>44753.31399305556</v>
+        <v>44754.38895833334</v>
       </c>
       <c r="E17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1779,16 +1728,16 @@
         <v>22</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>44753.3159375</v>
+        <v>44754.38898148148</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1799,16 +1748,16 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2">
-        <v>44753.3160300926</v>
+        <v>44754.38908564814</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1819,16 +1768,16 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>44753.31611111111</v>
+        <v>44754.38917824074</v>
       </c>
       <c r="E20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1839,16 +1788,16 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>44753.32280092593</v>
+        <v>44754.38921296296</v>
       </c>
       <c r="E21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1859,16 +1808,16 @@
         <v>26</v>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>44753.32336805556</v>
+        <v>44754.38925925926</v>
       </c>
       <c r="E22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1879,16 +1828,16 @@
         <v>27</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
-        <v>44753.32356481482</v>
+        <v>44754.38974537037</v>
       </c>
       <c r="E23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1899,16 +1848,16 @@
         <v>28</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
-        <v>44753.32362268519</v>
+        <v>44754.38982638889</v>
       </c>
       <c r="E24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1919,16 +1868,16 @@
         <v>29</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2">
-        <v>44753.32383101852</v>
+        <v>44754.38988425926</v>
       </c>
       <c r="E25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1939,16 +1888,16 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2">
-        <v>44753.32423611111</v>
+        <v>44754.38993055555</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1959,16 +1908,16 @@
         <v>31</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D27" s="2">
-        <v>44753.3250462963</v>
+        <v>44754.39002314815</v>
       </c>
       <c r="E27">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1979,16 +1928,16 @@
         <v>32</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2">
-        <v>44753.32510416667</v>
+        <v>44754.39008101852</v>
       </c>
       <c r="E28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1999,16 +1948,16 @@
         <v>33</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2">
-        <v>44753.32518518518</v>
+        <v>44754.39015046296</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2019,16 +1968,16 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
-        <v>44753.32534722222</v>
+        <v>44754.39019675926</v>
       </c>
       <c r="E30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2039,16 +1988,16 @@
         <v>35</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2">
-        <v>44753.32539351852</v>
+        <v>44754.39033564815</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2059,16 +2008,16 @@
         <v>36</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
-        <v>44753.32695601852</v>
+        <v>44754.39038194445</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2079,16 +2028,16 @@
         <v>37</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D33" s="2">
-        <v>44753.32704861111</v>
+        <v>44754.39053240741</v>
       </c>
       <c r="E33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2099,16 +2048,16 @@
         <v>38</v>
       </c>
       <c r="C34">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D34" s="2">
-        <v>44753.32734953704</v>
+        <v>44754.39059027778</v>
       </c>
       <c r="E34">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2119,16 +2068,16 @@
         <v>39</v>
       </c>
       <c r="C35">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D35" s="2">
-        <v>44753.32741898148</v>
+        <v>44754.39070601852</v>
       </c>
       <c r="E35">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2139,16 +2088,16 @@
         <v>40</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2">
-        <v>44753.32752314815</v>
+        <v>44754.39077546296</v>
       </c>
       <c r="E36">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2159,16 +2108,16 @@
         <v>41</v>
       </c>
       <c r="C37">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D37" s="2">
-        <v>44753.32758101852</v>
+        <v>44754.39085648148</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2179,16 +2128,16 @@
         <v>42</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D38" s="2">
-        <v>44753.33054398148</v>
+        <v>44754.3909375</v>
       </c>
       <c r="E38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2199,16 +2148,16 @@
         <v>43</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2">
-        <v>44753.33148148148</v>
+        <v>44754.39137731482</v>
       </c>
       <c r="E39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2219,16 +2168,16 @@
         <v>44</v>
       </c>
       <c r="C40">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2">
-        <v>44753.3315625</v>
+        <v>44754.39146990741</v>
       </c>
       <c r="E40">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2239,16 +2188,16 @@
         <v>45</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2">
-        <v>44753.33166666667</v>
+        <v>44754.39168981482</v>
       </c>
       <c r="E41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2259,16 +2208,16 @@
         <v>46</v>
       </c>
       <c r="C42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D42" s="2">
-        <v>44753.33313657407</v>
+        <v>44754.39180555556</v>
       </c>
       <c r="E42">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2279,16 +2228,16 @@
         <v>47</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2">
-        <v>44753.33319444444</v>
+        <v>44754.39189814815</v>
       </c>
       <c r="E43">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2299,16 +2248,16 @@
         <v>48</v>
       </c>
       <c r="C44">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="D44" s="2">
-        <v>44753.34260416667</v>
+        <v>44754.3921412037</v>
       </c>
       <c r="E44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2319,16 +2268,16 @@
         <v>49</v>
       </c>
       <c r="C45">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
-        <v>44753.34358796296</v>
+        <v>44754.39232638889</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2339,16 +2288,16 @@
         <v>50</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2">
-        <v>44753.34372685185</v>
+        <v>44754.39244212963</v>
       </c>
       <c r="E46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2359,16 +2308,16 @@
         <v>51</v>
       </c>
       <c r="C47">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D47" s="2">
-        <v>44753.34486111111</v>
+        <v>44754.39267361111</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2379,16 +2328,16 @@
         <v>52</v>
       </c>
       <c r="C48">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D48" s="2">
-        <v>44753.34548611111</v>
+        <v>44754.39321759259</v>
       </c>
       <c r="E48">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2399,16 +2348,16 @@
         <v>53</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D49" s="2">
-        <v>44753.34726851852</v>
+        <v>44754.39346064815</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2419,16 +2368,16 @@
         <v>54</v>
       </c>
       <c r="C50">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D50" s="2">
-        <v>44753.34726851852</v>
+        <v>44754.39346064815</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2439,16 +2388,16 @@
         <v>55</v>
       </c>
       <c r="C51">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D51" s="2">
-        <v>44753.34741898148</v>
+        <v>44754.39380787037</v>
       </c>
       <c r="E51">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2462,13 +2411,13 @@
         <v>12</v>
       </c>
       <c r="D52" s="2">
-        <v>44753.34748842593</v>
+        <v>44754.39407407407</v>
       </c>
       <c r="E52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2479,16 +2428,16 @@
         <v>57</v>
       </c>
       <c r="C53">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D53" s="2">
-        <v>44753.34762731481</v>
+        <v>44754.39424768519</v>
       </c>
       <c r="E53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2499,16 +2448,16 @@
         <v>58</v>
       </c>
       <c r="C54">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
-        <v>44753.34769675926</v>
+        <v>44754.39440972222</v>
       </c>
       <c r="E54">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2519,16 +2468,16 @@
         <v>59</v>
       </c>
       <c r="C55">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D55" s="2">
-        <v>44753.34831018518</v>
+        <v>44754.39452546297</v>
       </c>
       <c r="E55">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2542,13 +2491,13 @@
         <v>24</v>
       </c>
       <c r="D56" s="2">
-        <v>44753.34837962963</v>
+        <v>44754.39461805556</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2559,13 +2508,13 @@
         <v>61</v>
       </c>
       <c r="C57">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39474537037</v>
       </c>
       <c r="E57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57">
         <v>9</v>
@@ -2579,13 +2528,13 @@
         <v>62</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D58" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39484953704</v>
       </c>
       <c r="E58">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58">
         <v>9</v>
@@ -2599,13 +2548,13 @@
         <v>63</v>
       </c>
       <c r="C59">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D59" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39509259259</v>
       </c>
       <c r="E59">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -2619,13 +2568,13 @@
         <v>64</v>
       </c>
       <c r="C60">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D60" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39527777778</v>
       </c>
       <c r="E60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60">
         <v>9</v>
@@ -2639,13 +2588,13 @@
         <v>65</v>
       </c>
       <c r="C61">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39554398148</v>
       </c>
       <c r="E61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61">
         <v>9</v>
@@ -2659,13 +2608,13 @@
         <v>66</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D62" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39594907407</v>
       </c>
       <c r="E62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -2679,13 +2628,13 @@
         <v>67</v>
       </c>
       <c r="C63">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="D63" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39606481481</v>
       </c>
       <c r="E63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63">
         <v>9</v>
@@ -2699,13 +2648,13 @@
         <v>68</v>
       </c>
       <c r="C64">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39627314815</v>
       </c>
       <c r="E64">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64">
         <v>9</v>
@@ -2719,13 +2668,13 @@
         <v>69</v>
       </c>
       <c r="C65">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39634259259</v>
       </c>
       <c r="E65">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65">
         <v>9</v>
@@ -2739,13 +2688,13 @@
         <v>70</v>
       </c>
       <c r="C66">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D66" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39714120371</v>
       </c>
       <c r="E66">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66">
         <v>9</v>
@@ -2759,13 +2708,13 @@
         <v>71</v>
       </c>
       <c r="C67">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.3975</v>
       </c>
       <c r="E67">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67">
         <v>9</v>
@@ -2779,13 +2728,13 @@
         <v>72</v>
       </c>
       <c r="C68">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D68" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39771990741</v>
       </c>
       <c r="E68">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68">
         <v>9</v>
@@ -2799,13 +2748,13 @@
         <v>73</v>
       </c>
       <c r="C69">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D69" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39783564815</v>
       </c>
       <c r="E69">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69">
         <v>9</v>
@@ -2819,13 +2768,13 @@
         <v>74</v>
       </c>
       <c r="C70">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D70" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39795138889</v>
       </c>
       <c r="E70">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70">
         <v>9</v>
@@ -2839,13 +2788,13 @@
         <v>75</v>
       </c>
       <c r="C71">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D71" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39805555555</v>
       </c>
       <c r="E71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71">
         <v>9</v>
@@ -2859,13 +2808,13 @@
         <v>76</v>
       </c>
       <c r="C72">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D72" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39822916667</v>
       </c>
       <c r="E72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -2879,13 +2828,13 @@
         <v>77</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39831018518</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -2899,13 +2848,13 @@
         <v>78</v>
       </c>
       <c r="C74">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D74" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39837962963</v>
       </c>
       <c r="E74">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -2919,13 +2868,13 @@
         <v>79</v>
       </c>
       <c r="C75">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D75" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39847222222</v>
       </c>
       <c r="E75">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75">
         <v>9</v>
@@ -2939,13 +2888,13 @@
         <v>80</v>
       </c>
       <c r="C76">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39862268518</v>
       </c>
       <c r="E76">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76">
         <v>9</v>
@@ -2959,13 +2908,13 @@
         <v>81</v>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D77" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39890046296</v>
       </c>
       <c r="E77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77">
         <v>9</v>
@@ -2979,13 +2928,13 @@
         <v>82</v>
       </c>
       <c r="C78">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.39903935185</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>9</v>
@@ -2999,13 +2948,13 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D79" s="2">
-        <v>44753.38145833334</v>
+        <v>44754.39916666667</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <v>9</v>
@@ -3019,13 +2968,13 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
-        <v>44753.38152777778</v>
+        <v>44754.39931712963</v>
       </c>
       <c r="E80">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80">
         <v>9</v>
@@ -3039,13 +2988,13 @@
         <v>85</v>
       </c>
       <c r="C81">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D81" s="2">
-        <v>44753.38155092593</v>
+        <v>44754.39944444445</v>
       </c>
       <c r="E81">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81">
         <v>9</v>
@@ -3059,13 +3008,13 @@
         <v>86</v>
       </c>
       <c r="C82">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="D82" s="2">
-        <v>44753.38168981481</v>
+        <v>44754.39990740741</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82">
         <v>9</v>
@@ -3079,13 +3028,13 @@
         <v>87</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2">
-        <v>44753.3860300926</v>
+        <v>44754.40008101852</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -3099,13 +3048,13 @@
         <v>88</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2">
-        <v>44753.38653935185</v>
+        <v>44754.40025462963</v>
       </c>
       <c r="E84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84">
         <v>9</v>
@@ -3119,13 +3068,13 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2">
-        <v>44753.38675925926</v>
+        <v>44754.40033564815</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -3139,13 +3088,13 @@
         <v>90</v>
       </c>
       <c r="C86">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D86" s="2">
-        <v>44753.38702546297</v>
+        <v>44754.40061342593</v>
       </c>
       <c r="E86">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86">
         <v>9</v>
@@ -3159,13 +3108,13 @@
         <v>91</v>
       </c>
       <c r="C87">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D87" s="2">
-        <v>44753.38721064815</v>
+        <v>44754.40086805556</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87">
         <v>9</v>
@@ -3179,13 +3128,13 @@
         <v>92</v>
       </c>
       <c r="C88">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="D88" s="2">
-        <v>44753.38753472222</v>
+        <v>44754.40112268519</v>
       </c>
       <c r="E88">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88">
         <v>9</v>
@@ -3199,13 +3148,13 @@
         <v>93</v>
       </c>
       <c r="C89">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D89" s="2">
-        <v>44753.39094907408</v>
+        <v>44754.40141203703</v>
       </c>
       <c r="E89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89">
         <v>9</v>
@@ -3219,13 +3168,13 @@
         <v>94</v>
       </c>
       <c r="C90">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D90" s="2">
-        <v>44753.3915162037</v>
+        <v>44754.40158564815</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90">
         <v>9</v>
@@ -3239,13 +3188,13 @@
         <v>95</v>
       </c>
       <c r="C91">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D91" s="2">
-        <v>44753.39164351852</v>
+        <v>44754.40167824074</v>
       </c>
       <c r="E91">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91">
         <v>9</v>
@@ -3259,16 +3208,16 @@
         <v>96</v>
       </c>
       <c r="C92">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D92" s="2">
-        <v>44753.39188657407</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E92">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3279,16 +3228,16 @@
         <v>97</v>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D93" s="2">
-        <v>44753.39196759259</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E93">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3299,16 +3248,16 @@
         <v>98</v>
       </c>
       <c r="C94">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
-        <v>44753.39274305556</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E94">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3322,13 +3271,13 @@
         <v>12</v>
       </c>
       <c r="D95" s="2">
-        <v>44753.39285879629</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E95">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3342,13 +3291,13 @@
         <v>12</v>
       </c>
       <c r="D96" s="2">
-        <v>44753.3935300926</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E96">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3359,16 +3308,16 @@
         <v>101</v>
       </c>
       <c r="C97">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="D97" s="2">
-        <v>44753.39422453703</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E97">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3379,16 +3328,16 @@
         <v>102</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
-        <v>44753.394375</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E98">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3399,16 +3348,16 @@
         <v>103</v>
       </c>
       <c r="C99">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D99" s="2">
-        <v>44753.39803240741</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E99">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3419,16 +3368,16 @@
         <v>104</v>
       </c>
       <c r="C100">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2">
-        <v>44753.40252314815</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E100">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3439,16 +3388,16 @@
         <v>105</v>
       </c>
       <c r="C101">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D101" s="2">
-        <v>44753.40512731481</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3459,16 +3408,16 @@
         <v>106</v>
       </c>
       <c r="C102">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D102" s="2">
-        <v>44753.40524305555</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E102">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3479,16 +3428,16 @@
         <v>107</v>
       </c>
       <c r="C103">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D103" s="2">
-        <v>44753.40532407408</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E103">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3502,13 +3451,13 @@
         <v>12</v>
       </c>
       <c r="D104" s="2">
-        <v>44753.40538194445</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E104">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3519,16 +3468,16 @@
         <v>109</v>
       </c>
       <c r="C105">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2">
-        <v>44753.40540509259</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E105">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3539,16 +3488,16 @@
         <v>110</v>
       </c>
       <c r="C106">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2">
-        <v>44753.4065162037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3559,16 +3508,16 @@
         <v>111</v>
       </c>
       <c r="C107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D107" s="2">
-        <v>44753.40670138889</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E107">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3579,16 +3528,16 @@
         <v>112</v>
       </c>
       <c r="C108">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2">
-        <v>44753.40675925926</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E108">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3599,16 +3548,16 @@
         <v>113</v>
       </c>
       <c r="C109">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="D109" s="2">
-        <v>44753.40755787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E109">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3619,16 +3568,16 @@
         <v>114</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D110" s="2">
-        <v>44753.41135416667</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E110">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3639,16 +3588,16 @@
         <v>115</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D111" s="2">
-        <v>44753.41141203704</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E111">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3659,16 +3608,16 @@
         <v>116</v>
       </c>
       <c r="C112">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D112" s="2">
-        <v>44753.41300925926</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E112">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3679,16 +3628,16 @@
         <v>117</v>
       </c>
       <c r="C113">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D113" s="2">
-        <v>44753.41314814815</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E113">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3699,13 +3648,13 @@
         <v>118</v>
       </c>
       <c r="C114">
-        <v>186</v>
+        <v>540</v>
       </c>
       <c r="D114" s="2">
-        <v>44753.41685185185</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E114">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -3719,13 +3668,13 @@
         <v>119</v>
       </c>
       <c r="C115">
-        <v>74</v>
+        <v>540</v>
       </c>
       <c r="D115" s="2">
-        <v>44753.41940972222</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E115">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -3739,13 +3688,13 @@
         <v>120</v>
       </c>
       <c r="C116">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="D116" s="2">
-        <v>44753.41959490741</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E116">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116">
         <v>10</v>
@@ -3759,13 +3708,13 @@
         <v>121</v>
       </c>
       <c r="C117">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D117" s="2">
-        <v>44753.43025462963</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E117">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117">
         <v>10</v>
@@ -3779,13 +3728,13 @@
         <v>122</v>
       </c>
       <c r="C118">
-        <v>16</v>
+        <v>540</v>
       </c>
       <c r="D118" s="2">
-        <v>44753.43085648148</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E118">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118">
         <v>10</v>
@@ -3799,13 +3748,13 @@
         <v>123</v>
       </c>
       <c r="C119">
-        <v>36</v>
+        <v>540</v>
       </c>
       <c r="D119" s="2">
-        <v>44753.43127314815</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E119">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119">
         <v>10</v>
@@ -3819,13 +3768,13 @@
         <v>124</v>
       </c>
       <c r="C120">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D120" s="2">
-        <v>44753.43989583333</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E120">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120">
         <v>10</v>
@@ -3839,13 +3788,13 @@
         <v>125</v>
       </c>
       <c r="C121">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="D121" s="2">
-        <v>44753.43996527778</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E121">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -3859,13 +3808,13 @@
         <v>126</v>
       </c>
       <c r="C122">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D122" s="2">
-        <v>44753.44004629629</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E122">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122">
         <v>10</v>
@@ -3879,13 +3828,13 @@
         <v>127</v>
       </c>
       <c r="C123">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D123" s="2">
-        <v>44753.44011574074</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E123">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -3899,13 +3848,13 @@
         <v>128</v>
       </c>
       <c r="C124">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D124" s="2">
-        <v>44753.44020833333</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E124">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -3919,13 +3868,13 @@
         <v>129</v>
       </c>
       <c r="C125">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D125" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E125">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -3939,13 +3888,13 @@
         <v>130</v>
       </c>
       <c r="C126">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D126" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E126">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -3959,13 +3908,13 @@
         <v>131</v>
       </c>
       <c r="C127">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D127" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E127">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -3979,13 +3928,13 @@
         <v>132</v>
       </c>
       <c r="C128">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="D128" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E128">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -3999,13 +3948,13 @@
         <v>133</v>
       </c>
       <c r="C129">
-        <v>56</v>
+        <v>400</v>
       </c>
       <c r="D129" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129">
         <v>10</v>
@@ -4019,13 +3968,13 @@
         <v>134</v>
       </c>
       <c r="C130">
-        <v>48</v>
+        <v>288</v>
       </c>
       <c r="D130" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E130">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130">
         <v>10</v>
@@ -4039,13 +3988,13 @@
         <v>135</v>
       </c>
       <c r="C131">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D131" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131">
         <v>10</v>
@@ -4059,13 +4008,13 @@
         <v>136</v>
       </c>
       <c r="C132">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D132" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -4079,13 +4028,13 @@
         <v>137</v>
       </c>
       <c r="C133">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D133" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E133">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -4099,13 +4048,13 @@
         <v>138</v>
       </c>
       <c r="C134">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D134" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -4119,13 +4068,13 @@
         <v>139</v>
       </c>
       <c r="C135">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D135" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E135">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135">
         <v>10</v>
@@ -4139,13 +4088,13 @@
         <v>140</v>
       </c>
       <c r="C136">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D136" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E136">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136">
         <v>10</v>
@@ -4159,13 +4108,13 @@
         <v>141</v>
       </c>
       <c r="C137">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="D137" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E137">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -4179,13 +4128,13 @@
         <v>142</v>
       </c>
       <c r="C138">
-        <v>40</v>
+        <v>1008</v>
       </c>
       <c r="D138" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E138">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -4199,13 +4148,13 @@
         <v>143</v>
       </c>
       <c r="C139">
-        <v>13</v>
+        <v>432</v>
       </c>
       <c r="D139" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.44971064815</v>
       </c>
       <c r="E139">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -4219,13 +4168,13 @@
         <v>144</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D140" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.45157407408</v>
       </c>
       <c r="E140">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -4239,13 +4188,13 @@
         <v>145</v>
       </c>
       <c r="C141">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D141" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.45158564814</v>
       </c>
       <c r="E141">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141">
         <v>10</v>
@@ -4259,13 +4208,13 @@
         <v>146</v>
       </c>
       <c r="C142">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D142" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.45163194444</v>
       </c>
       <c r="E142">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -4279,13 +4228,13 @@
         <v>147</v>
       </c>
       <c r="C143">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D143" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.45177083334</v>
       </c>
       <c r="E143">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -4299,13 +4248,13 @@
         <v>148</v>
       </c>
       <c r="C144">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.45184027778</v>
       </c>
       <c r="E144">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -4319,13 +4268,13 @@
         <v>149</v>
       </c>
       <c r="C145">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D145" s="2">
-        <v>44753.44598379629</v>
+        <v>44754.4519212963</v>
       </c>
       <c r="E145">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -4339,13 +4288,13 @@
         <v>150</v>
       </c>
       <c r="C146">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D146" s="2">
-        <v>44753.44609953704</v>
+        <v>44754.45196759259</v>
       </c>
       <c r="E146">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146">
         <v>10</v>
@@ -4359,13 +4308,13 @@
         <v>151</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
-        <v>44753.44623842592</v>
+        <v>44754.45315972222</v>
       </c>
       <c r="E147">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147">
         <v>10</v>
@@ -4379,13 +4328,13 @@
         <v>152</v>
       </c>
       <c r="C148">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D148" s="2">
-        <v>44753.44681712963</v>
+        <v>44754.45328703704</v>
       </c>
       <c r="E148">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148">
         <v>10</v>
@@ -4399,13 +4348,13 @@
         <v>153</v>
       </c>
       <c r="C149">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2">
-        <v>44753.44696759259</v>
+        <v>44754.45334490741</v>
       </c>
       <c r="E149">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149">
         <v>10</v>
@@ -4419,13 +4368,13 @@
         <v>154</v>
       </c>
       <c r="C150">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D150" s="2">
-        <v>44753.44850694444</v>
+        <v>44754.45351851852</v>
       </c>
       <c r="E150">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150">
         <v>10</v>
@@ -4439,13 +4388,13 @@
         <v>155</v>
       </c>
       <c r="C151">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D151" s="2">
-        <v>44753.44863425926</v>
+        <v>44754.45366898148</v>
       </c>
       <c r="E151">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -4459,13 +4408,13 @@
         <v>156</v>
       </c>
       <c r="C152">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D152" s="2">
-        <v>44753.4487037037</v>
+        <v>44754.45373842592</v>
       </c>
       <c r="E152">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -4479,13 +4428,13 @@
         <v>157</v>
       </c>
       <c r="C153">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2">
-        <v>44753.44887731481</v>
+        <v>44754.45387731482</v>
       </c>
       <c r="E153">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153">
         <v>10</v>
@@ -4499,13 +4448,13 @@
         <v>158</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D154" s="2">
-        <v>44753.44899305556</v>
+        <v>44754.45391203704</v>
       </c>
       <c r="E154">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154">
         <v>10</v>
@@ -4519,13 +4468,13 @@
         <v>159</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D155" s="2">
-        <v>44753.4490625</v>
+        <v>44754.45417824074</v>
       </c>
       <c r="E155">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155">
         <v>10</v>
@@ -4539,13 +4488,13 @@
         <v>160</v>
       </c>
       <c r="C156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2">
-        <v>44753.4491087963</v>
+        <v>44754.45427083333</v>
       </c>
       <c r="E156">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156">
         <v>10</v>
@@ -4559,13 +4508,13 @@
         <v>161</v>
       </c>
       <c r="C157">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="D157" s="2">
-        <v>44753.45121527778</v>
+        <v>44754.45430555556</v>
       </c>
       <c r="E157">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -4579,13 +4528,13 @@
         <v>162</v>
       </c>
       <c r="C158">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="D158" s="2">
-        <v>44753.45247685185</v>
+        <v>44754.45447916666</v>
       </c>
       <c r="E158">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158">
         <v>10</v>
@@ -4602,13 +4551,13 @@
         <v>12</v>
       </c>
       <c r="D159" s="2">
-        <v>44753.49899305555</v>
+        <v>44754.4581712963</v>
       </c>
       <c r="E159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4619,16 +4568,16 @@
         <v>164</v>
       </c>
       <c r="C160">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D160" s="2">
-        <v>44753.51188657407</v>
+        <v>44754.45822916667</v>
       </c>
       <c r="E160">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4639,16 +4588,16 @@
         <v>165</v>
       </c>
       <c r="C161">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D161" s="2">
-        <v>44753.51200231481</v>
+        <v>44754.45829861111</v>
       </c>
       <c r="E161">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4662,13 +4611,13 @@
         <v>12</v>
       </c>
       <c r="D162" s="2">
-        <v>44753.5120949074</v>
+        <v>44754.45851851852</v>
       </c>
       <c r="E162">
+        <v>12</v>
+      </c>
+      <c r="F162">
         <v>11</v>
-      </c>
-      <c r="F162">
-        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4679,16 +4628,16 @@
         <v>167</v>
       </c>
       <c r="C163">
-        <v>240</v>
+        <v>12</v>
       </c>
       <c r="D163" s="2">
-        <v>44753.51402777778</v>
+        <v>44754.45861111111</v>
       </c>
       <c r="E163">
+        <v>12</v>
+      </c>
+      <c r="F163">
         <v>11</v>
-      </c>
-      <c r="F163">
-        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4699,16 +4648,16 @@
         <v>168</v>
       </c>
       <c r="C164">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D164" s="2">
-        <v>44753.54221064815</v>
+        <v>44754.45868055556</v>
       </c>
       <c r="E164">
+        <v>12</v>
+      </c>
+      <c r="F164">
         <v>11</v>
-      </c>
-      <c r="F164">
-        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4719,16 +4668,16 @@
         <v>169</v>
       </c>
       <c r="C165">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D165" s="2">
-        <v>44753.54253472222</v>
+        <v>44754.45875</v>
       </c>
       <c r="E165">
+        <v>12</v>
+      </c>
+      <c r="F165">
         <v>11</v>
-      </c>
-      <c r="F165">
-        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4739,16 +4688,16 @@
         <v>170</v>
       </c>
       <c r="C166">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D166" s="2">
-        <v>44753.54304398148</v>
+        <v>44754.45881944444</v>
       </c>
       <c r="E166">
+        <v>12</v>
+      </c>
+      <c r="F166">
         <v>11</v>
-      </c>
-      <c r="F166">
-        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4759,16 +4708,16 @@
         <v>171</v>
       </c>
       <c r="C167">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D167" s="2">
-        <v>44753.54332175926</v>
+        <v>44754.46003472222</v>
       </c>
       <c r="E167">
+        <v>12</v>
+      </c>
+      <c r="F167">
         <v>11</v>
-      </c>
-      <c r="F167">
-        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4779,16 +4728,16 @@
         <v>172</v>
       </c>
       <c r="C168">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D168" s="2">
-        <v>44753.54372685185</v>
+        <v>44754.46011574074</v>
       </c>
       <c r="E168">
+        <v>12</v>
+      </c>
+      <c r="F168">
         <v>11</v>
-      </c>
-      <c r="F168">
-        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4799,16 +4748,16 @@
         <v>173</v>
       </c>
       <c r="C169">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D169" s="2">
-        <v>44753.54392361111</v>
+        <v>44754.46047453704</v>
       </c>
       <c r="E169">
+        <v>12</v>
+      </c>
+      <c r="F169">
         <v>11</v>
-      </c>
-      <c r="F169">
-        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4819,16 +4768,16 @@
         <v>174</v>
       </c>
       <c r="C170">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D170" s="2">
-        <v>44753.54394675926</v>
+        <v>44754.46061342592</v>
       </c>
       <c r="E170">
+        <v>12</v>
+      </c>
+      <c r="F170">
         <v>11</v>
-      </c>
-      <c r="F170">
-        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4839,16 +4788,16 @@
         <v>175</v>
       </c>
       <c r="C171">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D171" s="2">
-        <v>44753.5439699074</v>
+        <v>44754.46068287037</v>
       </c>
       <c r="E171">
+        <v>12</v>
+      </c>
+      <c r="F171">
         <v>11</v>
-      </c>
-      <c r="F171">
-        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4859,16 +4808,16 @@
         <v>176</v>
       </c>
       <c r="C172">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D172" s="2">
-        <v>44753.54400462963</v>
+        <v>44754.46258101852</v>
       </c>
       <c r="E172">
+        <v>12</v>
+      </c>
+      <c r="F172">
         <v>11</v>
-      </c>
-      <c r="F172">
-        <v>13</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4879,16 +4828,16 @@
         <v>177</v>
       </c>
       <c r="C173">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D173" s="2">
-        <v>44753.54402777777</v>
+        <v>44754.46266203704</v>
       </c>
       <c r="E173">
+        <v>12</v>
+      </c>
+      <c r="F173">
         <v>11</v>
-      </c>
-      <c r="F173">
-        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4899,16 +4848,16 @@
         <v>178</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2">
-        <v>44753.5440625</v>
+        <v>44754.46273148148</v>
       </c>
       <c r="E174">
+        <v>12</v>
+      </c>
+      <c r="F174">
         <v>11</v>
-      </c>
-      <c r="F174">
-        <v>13</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4919,16 +4868,16 @@
         <v>179</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D175" s="2">
-        <v>44753.54417824074</v>
+        <v>44754.46287037037</v>
       </c>
       <c r="E175">
+        <v>12</v>
+      </c>
+      <c r="F175">
         <v>11</v>
-      </c>
-      <c r="F175">
-        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4939,16 +4888,16 @@
         <v>180</v>
       </c>
       <c r="C176">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="D176" s="2">
-        <v>44753.54603009259</v>
+        <v>44754.46295138889</v>
       </c>
       <c r="E176">
+        <v>12</v>
+      </c>
+      <c r="F176">
         <v>11</v>
-      </c>
-      <c r="F176">
-        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4959,16 +4908,16 @@
         <v>181</v>
       </c>
       <c r="C177">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="D177" s="2">
-        <v>44753.54607638889</v>
+        <v>44754.46305555556</v>
       </c>
       <c r="E177">
+        <v>12</v>
+      </c>
+      <c r="F177">
         <v>11</v>
-      </c>
-      <c r="F177">
-        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4982,13 +4931,13 @@
         <v>12</v>
       </c>
       <c r="D178" s="2">
-        <v>44753.54783564815</v>
+        <v>44754.46322916666</v>
       </c>
       <c r="E178">
+        <v>12</v>
+      </c>
+      <c r="F178">
         <v>11</v>
-      </c>
-      <c r="F178">
-        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4999,16 +4948,16 @@
         <v>183</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D179" s="2">
-        <v>44753.54796296296</v>
+        <v>44754.46423611111</v>
       </c>
       <c r="E179">
+        <v>12</v>
+      </c>
+      <c r="F179">
         <v>11</v>
-      </c>
-      <c r="F179">
-        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -5019,16 +4968,16 @@
         <v>184</v>
       </c>
       <c r="C180">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D180" s="2">
-        <v>44753.54806712963</v>
+        <v>44754.46429398148</v>
       </c>
       <c r="E180">
+        <v>12</v>
+      </c>
+      <c r="F180">
         <v>11</v>
-      </c>
-      <c r="F180">
-        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -5039,16 +4988,16 @@
         <v>185</v>
       </c>
       <c r="C181">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D181" s="2">
-        <v>44753.54890046296</v>
+        <v>44754.46435185185</v>
       </c>
       <c r="E181">
+        <v>12</v>
+      </c>
+      <c r="F181">
         <v>11</v>
-      </c>
-      <c r="F181">
-        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5059,16 +5008,16 @@
         <v>186</v>
       </c>
       <c r="C182">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D182" s="2">
-        <v>44753.54899305556</v>
+        <v>44754.46444444444</v>
       </c>
       <c r="E182">
+        <v>12</v>
+      </c>
+      <c r="F182">
         <v>11</v>
-      </c>
-      <c r="F182">
-        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5079,16 +5028,16 @@
         <v>187</v>
       </c>
       <c r="C183">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D183" s="2">
-        <v>44753.54903935185</v>
+        <v>44754.4645949074</v>
       </c>
       <c r="E183">
+        <v>12</v>
+      </c>
+      <c r="F183">
         <v>11</v>
-      </c>
-      <c r="F183">
-        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5102,13 +5051,13 @@
         <v>12</v>
       </c>
       <c r="D184" s="2">
-        <v>44753.54909722223</v>
+        <v>44754.46460648148</v>
       </c>
       <c r="E184">
+        <v>12</v>
+      </c>
+      <c r="F184">
         <v>11</v>
-      </c>
-      <c r="F184">
-        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5119,16 +5068,16 @@
         <v>189</v>
       </c>
       <c r="C185">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="D185" s="2">
-        <v>44753.54918981482</v>
+        <v>44754.46465277778</v>
       </c>
       <c r="E185">
+        <v>12</v>
+      </c>
+      <c r="F185">
         <v>11</v>
-      </c>
-      <c r="F185">
-        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -5139,16 +5088,16 @@
         <v>190</v>
       </c>
       <c r="C186">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="D186" s="2">
-        <v>44753.5497337963</v>
+        <v>44754.46471064815</v>
       </c>
       <c r="E186">
+        <v>12</v>
+      </c>
+      <c r="F186">
         <v>11</v>
-      </c>
-      <c r="F186">
-        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -5162,13 +5111,13 @@
         <v>120</v>
       </c>
       <c r="D187" s="2">
-        <v>44753.54983796296</v>
+        <v>44754.46517361111</v>
       </c>
       <c r="E187">
+        <v>12</v>
+      </c>
+      <c r="F187">
         <v>11</v>
-      </c>
-      <c r="F187">
-        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -5179,16 +5128,16 @@
         <v>192</v>
       </c>
       <c r="C188">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D188" s="2">
-        <v>44753.54996527778</v>
+        <v>44754.47356481481</v>
       </c>
       <c r="E188">
+        <v>12</v>
+      </c>
+      <c r="F188">
         <v>11</v>
-      </c>
-      <c r="F188">
-        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -5199,16 +5148,16 @@
         <v>193</v>
       </c>
       <c r="C189">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D189" s="2">
-        <v>44753.55050925926</v>
+        <v>44754.47359953704</v>
       </c>
       <c r="E189">
+        <v>12</v>
+      </c>
+      <c r="F189">
         <v>11</v>
-      </c>
-      <c r="F189">
-        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -5219,16 +5168,16 @@
         <v>194</v>
       </c>
       <c r="C190">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D190" s="2">
-        <v>44753.55056712963</v>
+        <v>44754.47364583334</v>
       </c>
       <c r="E190">
+        <v>12</v>
+      </c>
+      <c r="F190">
         <v>11</v>
-      </c>
-      <c r="F190">
-        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -5239,16 +5188,16 @@
         <v>195</v>
       </c>
       <c r="C191">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D191" s="2">
-        <v>44753.55063657407</v>
+        <v>44754.47372685185</v>
       </c>
       <c r="E191">
+        <v>12</v>
+      </c>
+      <c r="F191">
         <v>11</v>
-      </c>
-      <c r="F191">
-        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5259,16 +5208,16 @@
         <v>196</v>
       </c>
       <c r="C192">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D192" s="2">
-        <v>44753.55069444444</v>
+        <v>44754.47472222222</v>
       </c>
       <c r="E192">
+        <v>12</v>
+      </c>
+      <c r="F192">
         <v>11</v>
-      </c>
-      <c r="F192">
-        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5279,16 +5228,16 @@
         <v>197</v>
       </c>
       <c r="C193">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D193" s="2">
-        <v>44753.55083333333</v>
+        <v>44754.47479166667</v>
       </c>
       <c r="E193">
+        <v>12</v>
+      </c>
+      <c r="F193">
         <v>11</v>
-      </c>
-      <c r="F193">
-        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5302,13 +5251,13 @@
         <v>12</v>
       </c>
       <c r="D194" s="2">
-        <v>44753.55091435185</v>
+        <v>44754.47488425926</v>
       </c>
       <c r="E194">
+        <v>12</v>
+      </c>
+      <c r="F194">
         <v>11</v>
-      </c>
-      <c r="F194">
-        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5319,16 +5268,16 @@
         <v>199</v>
       </c>
       <c r="C195">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D195" s="2">
-        <v>44753.55099537037</v>
+        <v>44754.47494212963</v>
       </c>
       <c r="E195">
+        <v>12</v>
+      </c>
+      <c r="F195">
         <v>11</v>
-      </c>
-      <c r="F195">
-        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5339,16 +5288,16 @@
         <v>200</v>
       </c>
       <c r="C196">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D196" s="2">
-        <v>44753.55106481481</v>
+        <v>44754.47652777778</v>
       </c>
       <c r="E196">
+        <v>12</v>
+      </c>
+      <c r="F196">
         <v>11</v>
-      </c>
-      <c r="F196">
-        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5359,16 +5308,16 @@
         <v>201</v>
       </c>
       <c r="C197">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D197" s="2">
-        <v>44753.55128472222</v>
+        <v>44754.47680555555</v>
       </c>
       <c r="E197">
+        <v>12</v>
+      </c>
+      <c r="F197">
         <v>11</v>
-      </c>
-      <c r="F197">
-        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5379,16 +5328,16 @@
         <v>202</v>
       </c>
       <c r="C198">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D198" s="2">
-        <v>44753.55149305556</v>
+        <v>44754.47723379629</v>
       </c>
       <c r="E198">
+        <v>12</v>
+      </c>
+      <c r="F198">
         <v>11</v>
-      </c>
-      <c r="F198">
-        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5402,13 +5351,13 @@
         <v>12</v>
       </c>
       <c r="D199" s="2">
-        <v>44753.55159722222</v>
+        <v>44754.47729166667</v>
       </c>
       <c r="E199">
+        <v>12</v>
+      </c>
+      <c r="F199">
         <v>11</v>
-      </c>
-      <c r="F199">
-        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5419,16 +5368,16 @@
         <v>204</v>
       </c>
       <c r="C200">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D200" s="2">
-        <v>44753.55170138889</v>
+        <v>44754.47736111111</v>
       </c>
       <c r="E200">
+        <v>12</v>
+      </c>
+      <c r="F200">
         <v>11</v>
-      </c>
-      <c r="F200">
-        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5439,16 +5388,16 @@
         <v>205</v>
       </c>
       <c r="C201">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D201" s="2">
-        <v>44753.5517824074</v>
+        <v>44754.47747685185</v>
       </c>
       <c r="E201">
+        <v>12</v>
+      </c>
+      <c r="F201">
         <v>11</v>
-      </c>
-      <c r="F201">
-        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5459,16 +5408,16 @@
         <v>206</v>
       </c>
       <c r="C202">
-        <v>320</v>
+        <v>240</v>
       </c>
       <c r="D202" s="2">
-        <v>44753.55184027777</v>
+        <v>44754.47770833333</v>
       </c>
       <c r="E202">
+        <v>12</v>
+      </c>
+      <c r="F202">
         <v>11</v>
-      </c>
-      <c r="F202">
-        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5479,16 +5428,16 @@
         <v>207</v>
       </c>
       <c r="C203">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="D203" s="2">
-        <v>44753.55203703704</v>
+        <v>44754.47800925926</v>
       </c>
       <c r="E203">
+        <v>12</v>
+      </c>
+      <c r="F203">
         <v>11</v>
-      </c>
-      <c r="F203">
-        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5499,16 +5448,16 @@
         <v>208</v>
       </c>
       <c r="C204">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D204" s="2">
-        <v>44753.55216435185</v>
+        <v>44754.47851851852</v>
       </c>
       <c r="E204">
+        <v>12</v>
+      </c>
+      <c r="F204">
         <v>11</v>
-      </c>
-      <c r="F204">
-        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5519,16 +5468,16 @@
         <v>209</v>
       </c>
       <c r="C205">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D205" s="2">
-        <v>44753.55222222222</v>
+        <v>44754.47863425926</v>
       </c>
       <c r="E205">
+        <v>12</v>
+      </c>
+      <c r="F205">
         <v>11</v>
-      </c>
-      <c r="F205">
-        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5539,16 +5488,16 @@
         <v>210</v>
       </c>
       <c r="C206">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="D206" s="2">
-        <v>44753.56601851852</v>
+        <v>44754.47871527778</v>
       </c>
       <c r="E206">
+        <v>12</v>
+      </c>
+      <c r="F206">
         <v>11</v>
-      </c>
-      <c r="F206">
-        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5559,16 +5508,16 @@
         <v>211</v>
       </c>
       <c r="C207">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="D207" s="2">
-        <v>44753.56608796296</v>
+        <v>44754.47966435185</v>
       </c>
       <c r="E207">
+        <v>12</v>
+      </c>
+      <c r="F207">
         <v>11</v>
-      </c>
-      <c r="F207">
-        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5579,16 +5528,16 @@
         <v>212</v>
       </c>
       <c r="C208">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D208" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.47982638889</v>
       </c>
       <c r="E208">
+        <v>12</v>
+      </c>
+      <c r="F208">
         <v>11</v>
-      </c>
-      <c r="F208">
-        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5599,16 +5548,16 @@
         <v>213</v>
       </c>
       <c r="C209">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="D209" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.47997685185</v>
       </c>
       <c r="E209">
+        <v>12</v>
+      </c>
+      <c r="F209">
         <v>11</v>
-      </c>
-      <c r="F209">
-        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5619,16 +5568,16 @@
         <v>214</v>
       </c>
       <c r="C210">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="D210" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.48006944444</v>
       </c>
       <c r="E210">
+        <v>12</v>
+      </c>
+      <c r="F210">
         <v>11</v>
-      </c>
-      <c r="F210">
-        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5639,16 +5588,16 @@
         <v>215</v>
       </c>
       <c r="C211">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="D211" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.48019675926</v>
       </c>
       <c r="E211">
+        <v>12</v>
+      </c>
+      <c r="F211">
         <v>11</v>
-      </c>
-      <c r="F211">
-        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5659,16 +5608,16 @@
         <v>216</v>
       </c>
       <c r="C212">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D212" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.48025462963</v>
       </c>
       <c r="E212">
+        <v>12</v>
+      </c>
+      <c r="F212">
         <v>11</v>
-      </c>
-      <c r="F212">
-        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5679,16 +5628,16 @@
         <v>217</v>
       </c>
       <c r="C213">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D213" s="2">
-        <v>44753.37913194444</v>
+        <v>44754.48034722222</v>
       </c>
       <c r="E213">
+        <v>12</v>
+      </c>
+      <c r="F213">
         <v>11</v>
-      </c>
-      <c r="F213">
-        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5699,16 +5648,16 @@
         <v>218</v>
       </c>
       <c r="C214">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D214" s="2">
-        <v>44753.3791550926</v>
+        <v>44754.48041666667</v>
       </c>
       <c r="E214">
+        <v>12</v>
+      </c>
+      <c r="F214">
         <v>11</v>
-      </c>
-      <c r="F214">
-        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5719,16 +5668,16 @@
         <v>219</v>
       </c>
       <c r="C215">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D215" s="2">
-        <v>44753.37920138889</v>
+        <v>44754.48131944444</v>
       </c>
       <c r="E215">
+        <v>12</v>
+      </c>
+      <c r="F215">
         <v>11</v>
-      </c>
-      <c r="F215">
-        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5739,16 +5688,16 @@
         <v>220</v>
       </c>
       <c r="C216">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D216" s="2">
-        <v>44753.37925925926</v>
+        <v>44754.48138888889</v>
       </c>
       <c r="E216">
+        <v>12</v>
+      </c>
+      <c r="F216">
         <v>11</v>
-      </c>
-      <c r="F216">
-        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5759,16 +5708,16 @@
         <v>221</v>
       </c>
       <c r="C217">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D217" s="2">
-        <v>44753.37936342593</v>
+        <v>44754.4814699074</v>
       </c>
       <c r="E217">
+        <v>12</v>
+      </c>
+      <c r="F217">
         <v>11</v>
-      </c>
-      <c r="F217">
-        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5779,16 +5728,16 @@
         <v>222</v>
       </c>
       <c r="C218">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D218" s="2">
-        <v>44753.37943287037</v>
+        <v>44754.48152777777</v>
       </c>
       <c r="E218">
+        <v>12</v>
+      </c>
+      <c r="F218">
         <v>11</v>
-      </c>
-      <c r="F218">
-        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5799,16 +5748,16 @@
         <v>223</v>
       </c>
       <c r="C219">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D219" s="2">
-        <v>44753.37947916667</v>
+        <v>44754.48174768518</v>
       </c>
       <c r="E219">
+        <v>12</v>
+      </c>
+      <c r="F219">
         <v>11</v>
-      </c>
-      <c r="F219">
-        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5819,16 +5768,16 @@
         <v>224</v>
       </c>
       <c r="C220">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D220" s="2">
-        <v>44753.37954861111</v>
+        <v>44754.48182870371</v>
       </c>
       <c r="E220">
+        <v>12</v>
+      </c>
+      <c r="F220">
         <v>11</v>
-      </c>
-      <c r="F220">
-        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5839,16 +5788,16 @@
         <v>225</v>
       </c>
       <c r="C221">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="D221" s="2">
-        <v>44753.38055555556</v>
+        <v>44754.48194444444</v>
       </c>
       <c r="E221">
+        <v>12</v>
+      </c>
+      <c r="F221">
         <v>11</v>
-      </c>
-      <c r="F221">
-        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5859,16 +5808,16 @@
         <v>226</v>
       </c>
       <c r="C222">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D222" s="2">
-        <v>44753.38371527778</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E222">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F222">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5879,16 +5828,16 @@
         <v>227</v>
       </c>
       <c r="C223">
-        <v>12</v>
+        <v>300</v>
       </c>
       <c r="D223" s="2">
-        <v>44753.38438657407</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E223">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F223">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5899,16 +5848,16 @@
         <v>228</v>
       </c>
       <c r="C224">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="D224" s="2">
-        <v>44753.39487268519</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E224">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F224">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5919,16 +5868,16 @@
         <v>229</v>
       </c>
       <c r="C225">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="D225" s="2">
-        <v>44753.39538194444</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E225">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F225">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5939,16 +5888,16 @@
         <v>230</v>
       </c>
       <c r="C226">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D226" s="2">
-        <v>44753.39542824074</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E226">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F226">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5959,16 +5908,16 @@
         <v>231</v>
       </c>
       <c r="C227">
-        <v>240</v>
+        <v>36</v>
       </c>
       <c r="D227" s="2">
-        <v>44753.39684027778</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E227">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F227">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5979,16 +5928,16 @@
         <v>232</v>
       </c>
       <c r="C228">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D228" s="2">
-        <v>44753.41880787037</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E228">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F228">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5999,16 +5948,16 @@
         <v>233</v>
       </c>
       <c r="C229">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="D229" s="2">
-        <v>44753.42896990741</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E229">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F229">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -6019,16 +5968,16 @@
         <v>234</v>
       </c>
       <c r="C230">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="D230" s="2">
-        <v>44753.43586805555</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E230">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F230">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -6039,16 +5988,16 @@
         <v>235</v>
       </c>
       <c r="C231">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D231" s="2">
-        <v>44753.43711805555</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E231">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F231">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -6059,16 +6008,16 @@
         <v>236</v>
       </c>
       <c r="C232">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="D232" s="2">
-        <v>44753.40329861111</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E232">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F232">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -6079,16 +6028,16 @@
         <v>237</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D233" s="2">
-        <v>44753.40357638889</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E233">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F233">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -6102,13 +6051,13 @@
         <v>24</v>
       </c>
       <c r="D234" s="2">
-        <v>44753.42497685185</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E234">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F234">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -6119,16 +6068,16 @@
         <v>239</v>
       </c>
       <c r="C235">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D235" s="2">
-        <v>44753.42503472222</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E235">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F235">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -6139,16 +6088,16 @@
         <v>240</v>
       </c>
       <c r="C236">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D236" s="2">
-        <v>44753.42525462963</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E236">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F236">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -6159,16 +6108,16 @@
         <v>241</v>
       </c>
       <c r="C237">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D237" s="2">
-        <v>44753.42534722222</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E237">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F237">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -6179,16 +6128,16 @@
         <v>242</v>
       </c>
       <c r="C238">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D238" s="2">
-        <v>44753.42542824074</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E238">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F238">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -6199,16 +6148,16 @@
         <v>243</v>
       </c>
       <c r="C239">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D239" s="2">
-        <v>44753.42548611111</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E239">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F239">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6219,16 +6168,16 @@
         <v>244</v>
       </c>
       <c r="C240">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D240" s="2">
-        <v>44753.42650462963</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E240">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F240">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -6239,16 +6188,16 @@
         <v>245</v>
       </c>
       <c r="C241">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D241" s="2">
-        <v>44753.4266087963</v>
+        <v>44754.56310185185</v>
       </c>
       <c r="E241">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F241">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6259,16 +6208,16 @@
         <v>246</v>
       </c>
       <c r="C242">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D242" s="2">
-        <v>44753.42670138889</v>
+        <v>44754.56311342592</v>
       </c>
       <c r="E242">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F242">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6279,16 +6228,16 @@
         <v>247</v>
       </c>
       <c r="C243">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D243" s="2">
-        <v>44753.42674768518</v>
+        <v>44754.56317129629</v>
       </c>
       <c r="E243">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F243">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6299,16 +6248,16 @@
         <v>248</v>
       </c>
       <c r="C244">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D244" s="2">
-        <v>44753.42681712963</v>
+        <v>44754.56318287037</v>
       </c>
       <c r="E244">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F244">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6319,16 +6268,16 @@
         <v>249</v>
       </c>
       <c r="C245">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D245" s="2">
-        <v>44753.42769675926</v>
+        <v>44754.56337962963</v>
       </c>
       <c r="E245">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F245">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6339,16 +6288,16 @@
         <v>250</v>
       </c>
       <c r="C246">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D246" s="2">
-        <v>44753.42784722222</v>
+        <v>44754.5634375</v>
       </c>
       <c r="E246">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F246">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6359,16 +6308,16 @@
         <v>251</v>
       </c>
       <c r="C247">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D247" s="2">
-        <v>44753.42791666667</v>
+        <v>44754.56368055556</v>
       </c>
       <c r="E247">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F247">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6379,16 +6328,16 @@
         <v>252</v>
       </c>
       <c r="C248">
-        <v>24</v>
+        <v>700</v>
       </c>
       <c r="D248" s="2">
-        <v>44753.42803240741</v>
+        <v>44754.58322916667</v>
       </c>
       <c r="E248">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F248">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6399,16 +6348,16 @@
         <v>253</v>
       </c>
       <c r="C249">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="D249" s="2">
-        <v>44753.42815972222</v>
+        <v>44754.58596064815</v>
       </c>
       <c r="E249">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F249">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6419,16 +6368,16 @@
         <v>254</v>
       </c>
       <c r="C250">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D250" s="2">
-        <v>44753.42821759259</v>
+        <v>44754.58640046296</v>
       </c>
       <c r="E250">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F250">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6439,16 +6388,16 @@
         <v>255</v>
       </c>
       <c r="C251">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="D251" s="2">
-        <v>44753.4325462963</v>
+        <v>44754.58790509259</v>
       </c>
       <c r="E251">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F251">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6459,16 +6408,16 @@
         <v>256</v>
       </c>
       <c r="C252">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D252" s="2">
-        <v>44753.43261574074</v>
+        <v>44754.58989583333</v>
       </c>
       <c r="E252">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F252">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6479,16 +6428,16 @@
         <v>257</v>
       </c>
       <c r="C253">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D253" s="2">
-        <v>44753.43270833333</v>
+        <v>44754.59162037037</v>
       </c>
       <c r="E253">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F253">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6499,16 +6448,16 @@
         <v>258</v>
       </c>
       <c r="C254">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D254" s="2">
-        <v>44753.43278935185</v>
+        <v>44754.59353009259</v>
       </c>
       <c r="E254">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F254">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6519,293 +6468,293 @@
         <v>259</v>
       </c>
       <c r="C255">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D255" s="2">
-        <v>44753.43811342592</v>
+        <v>44754.59415509259</v>
       </c>
       <c r="E255">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F255">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:6">
       <c r="A256">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B256" t="s">
         <v>260</v>
       </c>
       <c r="C256">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D256" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.59476851852</v>
       </c>
       <c r="E256">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F256">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:6">
       <c r="A257">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B257" t="s">
         <v>261</v>
       </c>
       <c r="C257">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="D257" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.59671296296</v>
       </c>
       <c r="E257">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F257">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:6">
       <c r="A258">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B258" t="s">
         <v>262</v>
       </c>
       <c r="C258">
-        <v>12</v>
+        <v>400</v>
       </c>
       <c r="D258" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.59846064815</v>
       </c>
       <c r="E258">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F258">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:6">
       <c r="A259">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B259" t="s">
         <v>263</v>
       </c>
       <c r="C259">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D259" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.59994212963</v>
       </c>
       <c r="E259">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F259">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:6">
       <c r="A260">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B260" t="s">
         <v>264</v>
       </c>
       <c r="C260">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="D260" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.60199074074</v>
       </c>
       <c r="E260">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F260">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:6">
       <c r="A261">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B261" t="s">
         <v>265</v>
       </c>
       <c r="C261">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D261" s="2">
-        <v>44753.4455787037</v>
+        <v>44754.60211805555</v>
       </c>
       <c r="E261">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F261">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:6">
       <c r="A262">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B262" t="s">
         <v>266</v>
       </c>
       <c r="C262">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D262" s="2">
-        <v>44753.44559027778</v>
+        <v>44754.60215277778</v>
       </c>
       <c r="E262">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F262">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:6">
       <c r="A263">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B263" t="s">
         <v>267</v>
       </c>
       <c r="C263">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D263" s="2">
-        <v>44753.44563657408</v>
+        <v>44754.60311342592</v>
       </c>
       <c r="E263">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F263">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:6">
       <c r="A264">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B264" t="s">
         <v>268</v>
       </c>
       <c r="C264">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D264" s="2">
-        <v>44753.44574074074</v>
+        <v>44754.60449074074</v>
       </c>
       <c r="E264">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F264">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:6">
       <c r="A265">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B265" t="s">
         <v>269</v>
       </c>
       <c r="C265">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D265" s="2">
-        <v>44753.44583333333</v>
+        <v>44754.60572916667</v>
       </c>
       <c r="E265">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F265">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:6">
       <c r="A266">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B266" t="s">
         <v>270</v>
       </c>
       <c r="C266">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D266" s="2">
-        <v>44753.4458912037</v>
+        <v>44754.60577546297</v>
       </c>
       <c r="E266">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F266">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:6">
       <c r="A267">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B267" t="s">
         <v>271</v>
       </c>
       <c r="C267">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D267" s="2">
-        <v>44753.44692129629</v>
+        <v>44754.60603009259</v>
       </c>
       <c r="E267">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F267">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:6">
       <c r="A268">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B268" t="s">
         <v>272</v>
       </c>
       <c r="C268">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D268" s="2">
-        <v>44753.44695601852</v>
+        <v>44754.60697916667</v>
       </c>
       <c r="E268">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F268">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:6">
       <c r="A269">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B269" t="s">
         <v>273</v>
       </c>
       <c r="C269">
-        <v>12</v>
+        <v>3888</v>
       </c>
       <c r="D269" s="2">
-        <v>44753.44703703704</v>
+        <v>44754.45523148148</v>
       </c>
       <c r="E269">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F269">
         <v>10</v>
@@ -6813,82 +6762,82 @@
     </row>
     <row r="270" spans="1:6">
       <c r="A270">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B270" t="s">
         <v>274</v>
       </c>
       <c r="C270">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D270" s="2">
-        <v>44753.44708333333</v>
+        <v>44754.4659375</v>
       </c>
       <c r="E270">
+        <v>12</v>
+      </c>
+      <c r="F270">
         <v>11</v>
-      </c>
-      <c r="F270">
-        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:6">
       <c r="A271">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B271" t="s">
         <v>275</v>
       </c>
       <c r="C271">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D271" s="2">
-        <v>44753.44715277778</v>
+        <v>44754.46625</v>
       </c>
       <c r="E271">
+        <v>12</v>
+      </c>
+      <c r="F271">
         <v>11</v>
-      </c>
-      <c r="F271">
-        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:6">
       <c r="A272">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B272" t="s">
         <v>276</v>
       </c>
       <c r="C272">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D272" s="2">
-        <v>44753.44719907407</v>
+        <v>44754.46641203704</v>
       </c>
       <c r="E272">
+        <v>12</v>
+      </c>
+      <c r="F272">
         <v>11</v>
-      </c>
-      <c r="F272">
-        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:6">
       <c r="A273">
-        <v>42560</v>
+        <v>126159</v>
       </c>
       <c r="B273" t="s">
         <v>277</v>
       </c>
       <c r="C273">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D273" s="2">
-        <v>44753.44802083333</v>
+        <v>44754.46828703704</v>
       </c>
       <c r="E273">
+        <v>12</v>
+      </c>
+      <c r="F273">
         <v>11</v>
-      </c>
-      <c r="F273">
-        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6899,16 +6848,16 @@
         <v>278</v>
       </c>
       <c r="C274">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D274" s="2">
-        <v>44753.44806712963</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E274">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F274">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6919,16 +6868,16 @@
         <v>279</v>
       </c>
       <c r="C275">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D275" s="2">
-        <v>44753.44813657407</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E275">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F275">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6939,16 +6888,16 @@
         <v>280</v>
       </c>
       <c r="C276">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D276" s="2">
-        <v>44753.44819444444</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E276">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F276">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6959,16 +6908,16 @@
         <v>281</v>
       </c>
       <c r="C277">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D277" s="2">
-        <v>44753.44824074074</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E277">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F277">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6979,16 +6928,16 @@
         <v>282</v>
       </c>
       <c r="C278">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D278" s="2">
-        <v>44753.44836805556</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E278">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F278">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6999,16 +6948,16 @@
         <v>283</v>
       </c>
       <c r="C279">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D279" s="2">
-        <v>44753.44905092593</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E279">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F279">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -7019,16 +6968,16 @@
         <v>284</v>
       </c>
       <c r="C280">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D280" s="2">
-        <v>44753.4491087963</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E280">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F280">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7039,16 +6988,16 @@
         <v>285</v>
       </c>
       <c r="C281">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D281" s="2">
-        <v>44753.44927083333</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E281">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F281">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7059,16 +7008,16 @@
         <v>286</v>
       </c>
       <c r="C282">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D282" s="2">
-        <v>44753.44936342593</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E282">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F282">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -7082,13 +7031,13 @@
         <v>6</v>
       </c>
       <c r="D283" s="2">
-        <v>44753.44940972222</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E283">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F283">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -7099,16 +7048,16 @@
         <v>288</v>
       </c>
       <c r="C284">
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="D284" s="2">
-        <v>44753.44951388889</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E284">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F284">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7119,16 +7068,16 @@
         <v>289</v>
       </c>
       <c r="C285">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="D285" s="2">
-        <v>44753.45521990741</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E285">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F285">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7139,16 +7088,16 @@
         <v>290</v>
       </c>
       <c r="C286">
-        <v>24</v>
+        <v>300</v>
       </c>
       <c r="D286" s="2">
-        <v>44753.4563425926</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E286">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F286">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -7159,16 +7108,16 @@
         <v>291</v>
       </c>
       <c r="C287">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D287" s="2">
-        <v>44753.45636574074</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E287">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F287">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7179,16 +7128,16 @@
         <v>292</v>
       </c>
       <c r="C288">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D288" s="2">
-        <v>44753.45783564815</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E288">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F288">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7199,16 +7148,16 @@
         <v>293</v>
       </c>
       <c r="C289">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D289" s="2">
-        <v>44753.45850694444</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E289">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F289">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -7219,16 +7168,16 @@
         <v>294</v>
       </c>
       <c r="C290">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="D290" s="2">
-        <v>44753.45907407408</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E290">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F290">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -7239,16 +7188,16 @@
         <v>295</v>
       </c>
       <c r="C291">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D291" s="2">
-        <v>44753.46268518519</v>
+        <v>44754.51269675926</v>
       </c>
       <c r="E291">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F291">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:6">
@@ -7259,16 +7208,16 @@
         <v>296</v>
       </c>
       <c r="C292">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D292" s="2">
-        <v>44753.46288194445</v>
+        <v>44754.51288194444</v>
       </c>
       <c r="E292">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F292">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -7279,16 +7228,16 @@
         <v>297</v>
       </c>
       <c r="C293">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D293" s="2">
-        <v>44753.46349537037</v>
+        <v>44754.51331018518</v>
       </c>
       <c r="E293">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F293">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -7299,16 +7248,16 @@
         <v>298</v>
       </c>
       <c r="C294">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D294" s="2">
-        <v>44753.47204861111</v>
+        <v>44754.51341435185</v>
       </c>
       <c r="E294">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F294">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -7322,13 +7271,13 @@
         <v>24</v>
       </c>
       <c r="D295" s="2">
-        <v>44753.47207175926</v>
+        <v>44754.51346064815</v>
       </c>
       <c r="E295">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F295">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7339,16 +7288,16 @@
         <v>300</v>
       </c>
       <c r="C296">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D296" s="2">
-        <v>44753.47232638889</v>
+        <v>44754.51357638889</v>
       </c>
       <c r="E296">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F296">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -7359,16 +7308,16 @@
         <v>301</v>
       </c>
       <c r="C297">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D297" s="2">
-        <v>44753.47244212963</v>
+        <v>44754.51361111111</v>
       </c>
       <c r="E297">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F297">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -7379,16 +7328,16 @@
         <v>302</v>
       </c>
       <c r="C298">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="D298" s="2">
-        <v>44753.4727199074</v>
+        <v>44754.51443287037</v>
       </c>
       <c r="E298">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F298">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7399,16 +7348,16 @@
         <v>303</v>
       </c>
       <c r="C299">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D299" s="2">
-        <v>44753.48709490741</v>
+        <v>44754.51854166666</v>
       </c>
       <c r="E299">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F299">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -7419,16 +7368,16 @@
         <v>304</v>
       </c>
       <c r="C300">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="D300" s="2">
-        <v>44753.48709490741</v>
+        <v>44754.51865740741</v>
       </c>
       <c r="E300">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F300">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7439,16 +7388,16 @@
         <v>305</v>
       </c>
       <c r="C301">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D301" s="2">
-        <v>44753.48709490741</v>
+        <v>44754.51877314815</v>
       </c>
       <c r="E301">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F301">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7459,16 +7408,16 @@
         <v>306</v>
       </c>
       <c r="C302">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D302" s="2">
-        <v>44753.48709490741</v>
+        <v>44754.5191087963</v>
       </c>
       <c r="E302">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F302">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -7479,16 +7428,16 @@
         <v>307</v>
       </c>
       <c r="C303">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D303" s="2">
-        <v>44753.48709490741</v>
+        <v>44754.51920138889</v>
       </c>
       <c r="E303">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F303">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -7499,16 +7448,16 @@
         <v>308</v>
       </c>
       <c r="C304">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="D304" s="2">
-        <v>44753.48859953704</v>
+        <v>44754.51929398148</v>
       </c>
       <c r="E304">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F304">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7522,13 +7471,13 @@
         <v>24</v>
       </c>
       <c r="D305" s="2">
-        <v>44753.48872685185</v>
+        <v>44754.52108796296</v>
       </c>
       <c r="E305">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F305">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7542,13 +7491,13 @@
         <v>24</v>
       </c>
       <c r="D306" s="2">
-        <v>44753.49008101852</v>
+        <v>44754.52113425926</v>
       </c>
       <c r="E306">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F306">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7559,16 +7508,16 @@
         <v>311</v>
       </c>
       <c r="C307">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D307" s="2">
-        <v>44753.4962037037</v>
+        <v>44754.52267361111</v>
       </c>
       <c r="E307">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F307">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7582,13 +7531,13 @@
         <v>24</v>
       </c>
       <c r="D308" s="2">
-        <v>44753.4962962963</v>
+        <v>44754.52274305555</v>
       </c>
       <c r="E308">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F308">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7602,13 +7551,13 @@
         <v>24</v>
       </c>
       <c r="D309" s="2">
-        <v>44753.49636574074</v>
+        <v>44754.5228125</v>
       </c>
       <c r="E309">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F309">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -7622,13 +7571,13 @@
         <v>24</v>
       </c>
       <c r="D310" s="2">
-        <v>44753.49657407407</v>
+        <v>44754.52363425926</v>
       </c>
       <c r="E310">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F310">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -7639,16 +7588,16 @@
         <v>315</v>
       </c>
       <c r="C311">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D311" s="2">
-        <v>44753.49680555556</v>
+        <v>44754.5237037037</v>
       </c>
       <c r="E311">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F311">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7659,16 +7608,16 @@
         <v>316</v>
       </c>
       <c r="C312">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D312" s="2">
-        <v>44753.49710648148</v>
+        <v>44754.52472222222</v>
       </c>
       <c r="E312">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F312">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7682,13 +7631,13 @@
         <v>24</v>
       </c>
       <c r="D313" s="2">
-        <v>44753.49741898148</v>
+        <v>44754.5272800926</v>
       </c>
       <c r="E313">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F313">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7702,13 +7651,13 @@
         <v>24</v>
       </c>
       <c r="D314" s="2">
-        <v>44753.47590277778</v>
+        <v>44754.52733796297</v>
       </c>
       <c r="E314">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F314">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -7719,16 +7668,16 @@
         <v>319</v>
       </c>
       <c r="C315">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D315" s="2">
-        <v>44753.47591435185</v>
+        <v>44754.5274074074</v>
       </c>
       <c r="E315">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F315">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -7739,16 +7688,16 @@
         <v>320</v>
       </c>
       <c r="C316">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="D316" s="2">
-        <v>44753.47591435185</v>
+        <v>44754.52768518519</v>
       </c>
       <c r="E316">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F316">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -7759,16 +7708,16 @@
         <v>321</v>
       </c>
       <c r="C317">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D317" s="2">
-        <v>44753.47592592592</v>
+        <v>44754.52795138889</v>
       </c>
       <c r="E317">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F317">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7779,16 +7728,16 @@
         <v>322</v>
       </c>
       <c r="C318">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D318" s="2">
-        <v>44753.47594907408</v>
+        <v>44754.52918981481</v>
       </c>
       <c r="E318">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F318">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -7799,16 +7748,16 @@
         <v>323</v>
       </c>
       <c r="C319">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D319" s="2">
-        <v>44753.47603009259</v>
+        <v>44754.52930555555</v>
       </c>
       <c r="E319">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F319">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -7819,16 +7768,16 @@
         <v>324</v>
       </c>
       <c r="C320">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D320" s="2">
-        <v>44753.47608796296</v>
+        <v>44754.52962962963</v>
       </c>
       <c r="E320">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F320">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7839,16 +7788,16 @@
         <v>325</v>
       </c>
       <c r="C321">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D321" s="2">
-        <v>44753.47715277778</v>
+        <v>44754.53013888889</v>
       </c>
       <c r="E321">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F321">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -7859,16 +7808,16 @@
         <v>326</v>
       </c>
       <c r="C322">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D322" s="2">
-        <v>44753.47717592592</v>
+        <v>44754.53019675926</v>
       </c>
       <c r="E322">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F322">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -7879,16 +7828,16 @@
         <v>327</v>
       </c>
       <c r="C323">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D323" s="2">
-        <v>44753.4771875</v>
+        <v>44754.53026620371</v>
       </c>
       <c r="E323">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F323">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:6">
@@ -7899,16 +7848,16 @@
         <v>328</v>
       </c>
       <c r="C324">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D324" s="2">
-        <v>44753.47722222222</v>
+        <v>44754.53049768518</v>
       </c>
       <c r="E324">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F324">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -7919,16 +7868,16 @@
         <v>329</v>
       </c>
       <c r="C325">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D325" s="2">
-        <v>44753.47723379629</v>
+        <v>44754.53060185185</v>
       </c>
       <c r="E325">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F325">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -7939,16 +7888,16 @@
         <v>330</v>
       </c>
       <c r="C326">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D326" s="2">
-        <v>44753.47724537037</v>
+        <v>44754.53079861111</v>
       </c>
       <c r="E326">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F326">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:6">
@@ -7959,16 +7908,16 @@
         <v>331</v>
       </c>
       <c r="C327">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D327" s="2">
-        <v>44753.47725694445</v>
+        <v>44754.53085648148</v>
       </c>
       <c r="E327">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F327">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:6">
@@ -7979,356 +7928,16 @@
         <v>332</v>
       </c>
       <c r="C328">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D328" s="2">
-        <v>44753.47726851852</v>
+        <v>44754.53137731482</v>
       </c>
       <c r="E328">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F328">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="329" spans="1:6">
-      <c r="A329">
-        <v>42560</v>
-      </c>
-      <c r="B329" t="s">
-        <v>333</v>
-      </c>
-      <c r="C329">
-        <v>192</v>
-      </c>
-      <c r="D329" s="2">
-        <v>44753.47793981482</v>
-      </c>
-      <c r="E329">
-        <v>11</v>
-      </c>
-      <c r="F329">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6">
-      <c r="A330">
-        <v>42560</v>
-      </c>
-      <c r="B330" t="s">
-        <v>334</v>
-      </c>
-      <c r="C330">
-        <v>288</v>
-      </c>
-      <c r="D330" s="2">
-        <v>44753.47796296296</v>
-      </c>
-      <c r="E330">
-        <v>11</v>
-      </c>
-      <c r="F330">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="331" spans="1:6">
-      <c r="A331">
-        <v>42560</v>
-      </c>
-      <c r="B331" t="s">
-        <v>335</v>
-      </c>
-      <c r="C331">
-        <v>60</v>
-      </c>
-      <c r="D331" s="2">
-        <v>44753.47986111111</v>
-      </c>
-      <c r="E331">
-        <v>11</v>
-      </c>
-      <c r="F331">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="332" spans="1:6">
-      <c r="A332">
-        <v>42560</v>
-      </c>
-      <c r="B332" t="s">
-        <v>336</v>
-      </c>
-      <c r="C332">
-        <v>10</v>
-      </c>
-      <c r="D332" s="2">
-        <v>44753.48002314815</v>
-      </c>
-      <c r="E332">
-        <v>11</v>
-      </c>
-      <c r="F332">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6">
-      <c r="A333">
-        <v>42560</v>
-      </c>
-      <c r="B333" t="s">
-        <v>337</v>
-      </c>
-      <c r="C333">
-        <v>10</v>
-      </c>
-      <c r="D333" s="2">
-        <v>44753.48005787037</v>
-      </c>
-      <c r="E333">
-        <v>11</v>
-      </c>
-      <c r="F333">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="334" spans="1:6">
-      <c r="A334">
-        <v>42560</v>
-      </c>
-      <c r="B334" t="s">
-        <v>338</v>
-      </c>
-      <c r="C334">
-        <v>10</v>
-      </c>
-      <c r="D334" s="2">
-        <v>44753.48020833333</v>
-      </c>
-      <c r="E334">
-        <v>11</v>
-      </c>
-      <c r="F334">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="335" spans="1:6">
-      <c r="A335">
-        <v>42560</v>
-      </c>
-      <c r="B335" t="s">
-        <v>339</v>
-      </c>
-      <c r="C335">
-        <v>10</v>
-      </c>
-      <c r="D335" s="2">
-        <v>44753.48023148148</v>
-      </c>
-      <c r="E335">
-        <v>11</v>
-      </c>
-      <c r="F335">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="336" spans="1:6">
-      <c r="A336">
-        <v>42560</v>
-      </c>
-      <c r="B336" t="s">
-        <v>340</v>
-      </c>
-      <c r="C336">
-        <v>15</v>
-      </c>
-      <c r="D336" s="2">
-        <v>44753.4805324074</v>
-      </c>
-      <c r="E336">
-        <v>11</v>
-      </c>
-      <c r="F336">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6">
-      <c r="A337">
-        <v>42560</v>
-      </c>
-      <c r="B337" t="s">
-        <v>341</v>
-      </c>
-      <c r="C337">
-        <v>10</v>
-      </c>
-      <c r="D337" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E337">
-        <v>11</v>
-      </c>
-      <c r="F337">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6">
-      <c r="A338">
-        <v>42560</v>
-      </c>
-      <c r="B338" t="s">
-        <v>342</v>
-      </c>
-      <c r="C338">
-        <v>20</v>
-      </c>
-      <c r="D338" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E338">
-        <v>11</v>
-      </c>
-      <c r="F338">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6">
-      <c r="A339">
-        <v>42560</v>
-      </c>
-      <c r="B339" t="s">
-        <v>343</v>
-      </c>
-      <c r="C339">
-        <v>30</v>
-      </c>
-      <c r="D339" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E339">
-        <v>11</v>
-      </c>
-      <c r="F339">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6">
-      <c r="A340">
-        <v>42560</v>
-      </c>
-      <c r="B340" t="s">
-        <v>344</v>
-      </c>
-      <c r="C340">
-        <v>30</v>
-      </c>
-      <c r="D340" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E340">
-        <v>11</v>
-      </c>
-      <c r="F340">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6">
-      <c r="A341">
-        <v>42560</v>
-      </c>
-      <c r="B341" t="s">
-        <v>345</v>
-      </c>
-      <c r="C341">
-        <v>20</v>
-      </c>
-      <c r="D341" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E341">
-        <v>11</v>
-      </c>
-      <c r="F341">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6">
-      <c r="A342">
-        <v>42560</v>
-      </c>
-      <c r="B342" t="s">
-        <v>346</v>
-      </c>
-      <c r="C342">
-        <v>20</v>
-      </c>
-      <c r="D342" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E342">
-        <v>11</v>
-      </c>
-      <c r="F342">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6">
-      <c r="A343">
-        <v>42560</v>
-      </c>
-      <c r="B343" t="s">
-        <v>347</v>
-      </c>
-      <c r="C343">
-        <v>6</v>
-      </c>
-      <c r="D343" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E343">
-        <v>11</v>
-      </c>
-      <c r="F343">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6">
-      <c r="A344">
-        <v>42560</v>
-      </c>
-      <c r="B344" t="s">
-        <v>348</v>
-      </c>
-      <c r="C344">
-        <v>24</v>
-      </c>
-      <c r="D344" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E344">
-        <v>11</v>
-      </c>
-      <c r="F344">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6">
-      <c r="A345">
-        <v>42560</v>
-      </c>
-      <c r="B345" t="s">
-        <v>349</v>
-      </c>
-      <c r="C345">
-        <v>6</v>
-      </c>
-      <c r="D345" s="2">
-        <v>44753.48709490741</v>
-      </c>
-      <c r="E345">
-        <v>11</v>
-      </c>
-      <c r="F345">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/tmp_output/docked_raw/docked_raw_July.xlsx
+++ b/tmp_output/docked_raw/docked_raw_July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="347">
   <si>
     <t>員編</t>
   </si>
@@ -32,12 +32,1038 @@
   </si>
   <si>
     <t>HOUR</t>
+  </si>
+  <si>
+    <t>INTWK0002207130089</t>
+  </si>
+  <si>
+    <t>INTWK0002207130114</t>
+  </si>
+  <si>
+    <t>INTWK0002207130087</t>
+  </si>
+  <si>
+    <t>INTWK0002207130106</t>
+  </si>
+  <si>
+    <t>INTWK0002207130108</t>
+  </si>
+  <si>
+    <t>INTWK0002207130112</t>
+  </si>
+  <si>
+    <t>INTWK0002207130099</t>
+  </si>
+  <si>
+    <t>INTWK0002207130101</t>
+  </si>
+  <si>
+    <t>INTWK0002207130098</t>
+  </si>
+  <si>
+    <t>INTWK0002207130107</t>
+  </si>
+  <si>
+    <t>INTWK0002207130085</t>
+  </si>
+  <si>
+    <t>INTWK0002207130109</t>
+  </si>
+  <si>
+    <t>INTWK0002207130095</t>
+  </si>
+  <si>
+    <t>INTWK0002207130086</t>
+  </si>
+  <si>
+    <t>INTWK0002207130100</t>
+  </si>
+  <si>
+    <t>INTWK0002207130083</t>
+  </si>
+  <si>
+    <t>INTWK0002207130104</t>
+  </si>
+  <si>
+    <t>INTWK0002207130117</t>
+  </si>
+  <si>
+    <t>INTWK0002207130088</t>
+  </si>
+  <si>
+    <t>INTWK0002207130091</t>
+  </si>
+  <si>
+    <t>INTWK0002207130092</t>
+  </si>
+  <si>
+    <t>INTWK0002207130090</t>
+  </si>
+  <si>
+    <t>INTWK0002207130097</t>
+  </si>
+  <si>
+    <t>INTWK0002207130105</t>
+  </si>
+  <si>
+    <t>INTWK0002207130110</t>
+  </si>
+  <si>
+    <t>INTWK0002207130118</t>
+  </si>
+  <si>
+    <t>INTWK0002207130093</t>
+  </si>
+  <si>
+    <t>INTWK0002207130103</t>
+  </si>
+  <si>
+    <t>INTWK0002207130102</t>
+  </si>
+  <si>
+    <t>INTWK0002207130113</t>
+  </si>
+  <si>
+    <t>INTWK0002207130084</t>
+  </si>
+  <si>
+    <t>INTWK0002207130096</t>
+  </si>
+  <si>
+    <t>INTWK0002207130094</t>
+  </si>
+  <si>
+    <t>INTWK0002207130111</t>
+  </si>
+  <si>
+    <t>INTWK0002207130066</t>
+  </si>
+  <si>
+    <t>INTWK0002207130065</t>
+  </si>
+  <si>
+    <t>INTWK0002207130068</t>
+  </si>
+  <si>
+    <t>INTWK0002207130067</t>
+  </si>
+  <si>
+    <t>INTWK0002207130064</t>
+  </si>
+  <si>
+    <t>INTWK0002207140218</t>
+  </si>
+  <si>
+    <t>INTWK0002207140210</t>
+  </si>
+  <si>
+    <t>INTWK0002207140224</t>
+  </si>
+  <si>
+    <t>INTWK0002207140225</t>
+  </si>
+  <si>
+    <t>INTWK0002207140216</t>
+  </si>
+  <si>
+    <t>INTWK0002207140231</t>
+  </si>
+  <si>
+    <t>INTWK0002207140236</t>
+  </si>
+  <si>
+    <t>INTWK0002207140230</t>
+  </si>
+  <si>
+    <t>INTWK0002207140226</t>
+  </si>
+  <si>
+    <t>INTWK0002207140214</t>
+  </si>
+  <si>
+    <t>INTWK0002207140217</t>
+  </si>
+  <si>
+    <t>INTWK0002207140227</t>
+  </si>
+  <si>
+    <t>INTWK0002207140232</t>
+  </si>
+  <si>
+    <t>INTWK0002207140228</t>
+  </si>
+  <si>
+    <t>INTWK0002207140223</t>
+  </si>
+  <si>
+    <t>INTWK0002207140220</t>
+  </si>
+  <si>
+    <t>INTWK0002207140213</t>
+  </si>
+  <si>
+    <t>INTWK0002207140221</t>
+  </si>
+  <si>
+    <t>INTWK0002207140215</t>
+  </si>
+  <si>
+    <t>INTWK0002207140212</t>
+  </si>
+  <si>
+    <t>INTWK0002207140211</t>
+  </si>
+  <si>
+    <t>INTWK0002207140233</t>
+  </si>
+  <si>
+    <t>INTWK0002207140238</t>
+  </si>
+  <si>
+    <t>INTWK0002207140209</t>
+  </si>
+  <si>
+    <t>INTWK0002207140234</t>
+  </si>
+  <si>
+    <t>INTWK0002207110155</t>
+  </si>
+  <si>
+    <t>INTWK0002207110154</t>
+  </si>
+  <si>
+    <t>INTWK0002207120437</t>
+  </si>
+  <si>
+    <t>INTWK0002207120428</t>
+  </si>
+  <si>
+    <t>INTWK0002207120449</t>
+  </si>
+  <si>
+    <t>INTWK0002207130161</t>
+  </si>
+  <si>
+    <t>INTWK0002207120426</t>
+  </si>
+  <si>
+    <t>INTWK0002207120444</t>
+  </si>
+  <si>
+    <t>INTWK0002207120416</t>
+  </si>
+  <si>
+    <t>INTWK0002207120405</t>
+  </si>
+  <si>
+    <t>INTWK0002207120409</t>
+  </si>
+  <si>
+    <t>INTWK0002207120445</t>
+  </si>
+  <si>
+    <t>INTWK0002207120420</t>
+  </si>
+  <si>
+    <t>INTWK0002207120462</t>
+  </si>
+  <si>
+    <t>INTWK0002207120453</t>
+  </si>
+  <si>
+    <t>INTWK0002207120464</t>
+  </si>
+  <si>
+    <t>INTWK0002207120435</t>
+  </si>
+  <si>
+    <t>INTWK0002207120438</t>
+  </si>
+  <si>
+    <t>INTWK0002207120433</t>
+  </si>
+  <si>
+    <t>INTWK0002207120450</t>
+  </si>
+  <si>
+    <t>INTWK0002207120425</t>
+  </si>
+  <si>
+    <t>INTWK0002207120412</t>
+  </si>
+  <si>
+    <t>INTWK0002207120454</t>
+  </si>
+  <si>
+    <t>INTWK0002207120397</t>
+  </si>
+  <si>
+    <t>INTWK0002207120451</t>
+  </si>
+  <si>
+    <t>INTWK0002207120418</t>
+  </si>
+  <si>
+    <t>INTWK0002207120432</t>
+  </si>
+  <si>
+    <t>INTWK0002207120403</t>
+  </si>
+  <si>
+    <t>INTWK0002207120414</t>
+  </si>
+  <si>
+    <t>INTWK0002207120441</t>
+  </si>
+  <si>
+    <t>INTWK0002207120459</t>
+  </si>
+  <si>
+    <t>INTWK0002207120457</t>
+  </si>
+  <si>
+    <t>INTWK0002207120448</t>
+  </si>
+  <si>
+    <t>INTWK0002207120463</t>
+  </si>
+  <si>
+    <t>INTWK0002207120395</t>
+  </si>
+  <si>
+    <t>INTWK0002207120461</t>
+  </si>
+  <si>
+    <t>INTWK0002207120396</t>
+  </si>
+  <si>
+    <t>INTWK0002207120429</t>
+  </si>
+  <si>
+    <t>INTWK0002207120431</t>
+  </si>
+  <si>
+    <t>INTWK0002207120402</t>
+  </si>
+  <si>
+    <t>INTWK0002207120419</t>
+  </si>
+  <si>
+    <t>INTWK0002207120400</t>
+  </si>
+  <si>
+    <t>INTWK0002207120413</t>
+  </si>
+  <si>
+    <t>INTWK0002207120417</t>
+  </si>
+  <si>
+    <t>INTWK0002207120406</t>
+  </si>
+  <si>
+    <t>INTWK0002207120436</t>
+  </si>
+  <si>
+    <t>INTWK0002207120440</t>
+  </si>
+  <si>
+    <t>INTWK0002207120443</t>
+  </si>
+  <si>
+    <t>INTWK0002207120424</t>
+  </si>
+  <si>
+    <t>INTWK0002207120427</t>
+  </si>
+  <si>
+    <t>INTWK0002207120430</t>
+  </si>
+  <si>
+    <t>INTWK0002207120442</t>
+  </si>
+  <si>
+    <t>INTWK0002207120422</t>
+  </si>
+  <si>
+    <t>INTWK0002207120398</t>
+  </si>
+  <si>
+    <t>INTWK0002207120447</t>
+  </si>
+  <si>
+    <t>INTWK0002207120446</t>
+  </si>
+  <si>
+    <t>INTWK0002207120434</t>
+  </si>
+  <si>
+    <t>INTWK0002207120407</t>
+  </si>
+  <si>
+    <t>INTWK0002207120408</t>
+  </si>
+  <si>
+    <t>INTWK0002207120452</t>
+  </si>
+  <si>
+    <t>INTWK0002207120456</t>
+  </si>
+  <si>
+    <t>INTWK0002207120423</t>
+  </si>
+  <si>
+    <t>INTWK0002207120410</t>
+  </si>
+  <si>
+    <t>INTWK0002207120460</t>
+  </si>
+  <si>
+    <t>INTWK0002207120421</t>
+  </si>
+  <si>
+    <t>INTWK0002207120455</t>
+  </si>
+  <si>
+    <t>INTWK0002207120404</t>
+  </si>
+  <si>
+    <t>INTWK0002207120411</t>
+  </si>
+  <si>
+    <t>INTWK0002207120401</t>
+  </si>
+  <si>
+    <t>INTWK0002207120458</t>
+  </si>
+  <si>
+    <t>INTWK0002207120439</t>
+  </si>
+  <si>
+    <t>INTWK0002207120399</t>
+  </si>
+  <si>
+    <t>INTWK0002207120135</t>
+  </si>
+  <si>
+    <t>INTWK0002207120136</t>
+  </si>
+  <si>
+    <t>INTWK0002207130186</t>
+  </si>
+  <si>
+    <t>INTWK0002207130190</t>
+  </si>
+  <si>
+    <t>INTWK0002207130204</t>
+  </si>
+  <si>
+    <t>INTWK0002207130224</t>
+  </si>
+  <si>
+    <t>INTWK0002207130202</t>
+  </si>
+  <si>
+    <t>INTWK0002207130231</t>
+  </si>
+  <si>
+    <t>INTWK0002207130232</t>
+  </si>
+  <si>
+    <t>INTWK0002207130228</t>
+  </si>
+  <si>
+    <t>INTWK0002207130213</t>
+  </si>
+  <si>
+    <t>INTWK0002207130214</t>
+  </si>
+  <si>
+    <t>INTWK0002207130216</t>
+  </si>
+  <si>
+    <t>INTWK0002207130207</t>
+  </si>
+  <si>
+    <t>INTWK0002207130220</t>
+  </si>
+  <si>
+    <t>INTWK0002207130222</t>
+  </si>
+  <si>
+    <t>INTWK0002207130237</t>
+  </si>
+  <si>
+    <t>INTWK0002207130201</t>
+  </si>
+  <si>
+    <t>INTWK0002207130235</t>
+  </si>
+  <si>
+    <t>INTWK0002207130188</t>
+  </si>
+  <si>
+    <t>INTWK0002207130209</t>
+  </si>
+  <si>
+    <t>INTWK0002207120146</t>
+  </si>
+  <si>
+    <t>INTWK0002207120143</t>
+  </si>
+  <si>
+    <t>INTWK0002207120145</t>
+  </si>
+  <si>
+    <t>INTWK0002207120142</t>
+  </si>
+  <si>
+    <t>INTWK0002207120144</t>
+  </si>
+  <si>
+    <t>INTWK0002207140219</t>
+  </si>
+  <si>
+    <t>INTWK0002207140235</t>
+  </si>
+  <si>
+    <t>INTWK0002207140229</t>
+  </si>
+  <si>
+    <t>INTWK0002207140222</t>
+  </si>
+  <si>
+    <t>INTWK0002207140237</t>
+  </si>
+  <si>
+    <t>INTWK0002207140154</t>
+  </si>
+  <si>
+    <t>INTWK0002207140155</t>
+  </si>
+  <si>
+    <t>INTWK0002207140248</t>
+  </si>
+  <si>
+    <t>INTWK0002207140247</t>
+  </si>
+  <si>
+    <t>INTWK0002207130279</t>
+  </si>
+  <si>
+    <t>INTWK0002207120483</t>
+  </si>
+  <si>
+    <t>INTWK0002207120491</t>
+  </si>
+  <si>
+    <t>INTWK0002207120485</t>
+  </si>
+  <si>
+    <t>INTWK0002207120259</t>
+  </si>
+  <si>
+    <t>INTWK0002207120494</t>
+  </si>
+  <si>
+    <t>INTWK0002207120258</t>
+  </si>
+  <si>
+    <t>INTWK0002207120488</t>
+  </si>
+  <si>
+    <t>INTWK0002207120498</t>
+  </si>
+  <si>
+    <t>INTWK0002207120260</t>
+  </si>
+  <si>
+    <t>INTWK0002207120497</t>
+  </si>
+  <si>
+    <t>INTWK0002207120481</t>
+  </si>
+  <si>
+    <t>INTWK0002207120487</t>
+  </si>
+  <si>
+    <t>INTWK0002207120492</t>
+  </si>
+  <si>
+    <t>INTWK0002207120493</t>
+  </si>
+  <si>
+    <t>INTWK0002207110033</t>
+  </si>
+  <si>
+    <t>INTWK0002207110032</t>
+  </si>
+  <si>
+    <t>INTWK0002207120486</t>
+  </si>
+  <si>
+    <t>INTWK0002207120496</t>
+  </si>
+  <si>
+    <t>INTWK0002207130261</t>
+  </si>
+  <si>
+    <t>INTWK0002207130250</t>
+  </si>
+  <si>
+    <t>INTWK0002207130264</t>
+  </si>
+  <si>
+    <t>INTWK0002207130249</t>
+  </si>
+  <si>
+    <t>INTWK0002207130262</t>
+  </si>
+  <si>
+    <t>INTWK0002207130248</t>
+  </si>
+  <si>
+    <t>INTWK0002207130263</t>
+  </si>
+  <si>
+    <t>INTWK0002207130233</t>
+  </si>
+  <si>
+    <t>INTWK0002207130230</t>
+  </si>
+  <si>
+    <t>INTWK0002207130205</t>
+  </si>
+  <si>
+    <t>INTWK0002207130221</t>
+  </si>
+  <si>
+    <t>INTWK0002207130217</t>
+  </si>
+  <si>
+    <t>INTWK0002207130211</t>
+  </si>
+  <si>
+    <t>INTWK0002207130210</t>
+  </si>
+  <si>
+    <t>INTWK0002207130227</t>
+  </si>
+  <si>
+    <t>INTWK0002207130225</t>
+  </si>
+  <si>
+    <t>INTWK0002207130239</t>
+  </si>
+  <si>
+    <t>INTWK0002207130218</t>
+  </si>
+  <si>
+    <t>INTWK0002207130212</t>
+  </si>
+  <si>
+    <t>INTWK0002207130215</t>
+  </si>
+  <si>
+    <t>INTWK0002207130189</t>
+  </si>
+  <si>
+    <t>INTWK0002207130234</t>
+  </si>
+  <si>
+    <t>INTWK0002207130223</t>
+  </si>
+  <si>
+    <t>INTWK0002207130203</t>
+  </si>
+  <si>
+    <t>INTWK0002207130226</t>
+  </si>
+  <si>
+    <t>INTWK0002207130238</t>
+  </si>
+  <si>
+    <t>INTWK0002207130236</t>
+  </si>
+  <si>
+    <t>INTWK0002207130187</t>
+  </si>
+  <si>
+    <t>INTWK0002207130229</t>
+  </si>
+  <si>
+    <t>INTWK0002207130219</t>
+  </si>
+  <si>
+    <t>INTWK0002207120058</t>
+  </si>
+  <si>
+    <t>INTWK0002207120059</t>
+  </si>
+  <si>
+    <t>INTWK0002207120056</t>
+  </si>
+  <si>
+    <t>INTWK0002207120087</t>
+  </si>
+  <si>
+    <t>INTWK0002207120085</t>
+  </si>
+  <si>
+    <t>INTWK0002207120093</t>
+  </si>
+  <si>
+    <t>INTWK0002207120054</t>
+  </si>
+  <si>
+    <t>INTWK0002207120094</t>
+  </si>
+  <si>
+    <t>INTWK0002207120055</t>
+  </si>
+  <si>
+    <t>INTWK0002207120060</t>
+  </si>
+  <si>
+    <t>INTWK0002207120083</t>
+  </si>
+  <si>
+    <t>INTWK0002207120089</t>
+  </si>
+  <si>
+    <t>INTWK0002207120081</t>
+  </si>
+  <si>
+    <t>INTWK0002207120053</t>
+  </si>
+  <si>
+    <t>INTWK0002207120088</t>
+  </si>
+  <si>
+    <t>INTWK0002207120092</t>
+  </si>
+  <si>
+    <t>INTWK0002207120082</t>
+  </si>
+  <si>
+    <t>INTWK0002207120057</t>
+  </si>
+  <si>
+    <t>INTWK0002207120091</t>
+  </si>
+  <si>
+    <t>INTWK0002207120086</t>
+  </si>
+  <si>
+    <t>INTWK0002207120095</t>
+  </si>
+  <si>
+    <t>INTWK0002207120090</t>
+  </si>
+  <si>
+    <t>INTWK0002207120084</t>
+  </si>
+  <si>
+    <t>INTWK0002207140308</t>
+  </si>
+  <si>
+    <t>INTWK0002207140347</t>
+  </si>
+  <si>
+    <t>INTWK0002207140322</t>
+  </si>
+  <si>
+    <t>INTWK0002207140321</t>
+  </si>
+  <si>
+    <t>INTWK0002207140346</t>
+  </si>
+  <si>
+    <t>INTWK0002207140307</t>
+  </si>
+  <si>
+    <t>INTWK0002207140309</t>
+  </si>
+  <si>
+    <t>INTWK0002207130314</t>
+  </si>
+  <si>
+    <t>INTWK0002207140310</t>
+  </si>
+  <si>
+    <t>INTWK0002207130313</t>
+  </si>
+  <si>
+    <t>INTWK0002207130312</t>
+  </si>
+  <si>
+    <t>INTWK0002207130309</t>
+  </si>
+  <si>
+    <t>INTWK0002207150629</t>
+  </si>
+  <si>
+    <t>INTWK0002207140345</t>
+  </si>
+  <si>
+    <t>INTWK0002207130311</t>
+  </si>
+  <si>
+    <t>INTWK0002207130310</t>
+  </si>
+  <si>
+    <t>INTWK0002207150630</t>
+  </si>
+  <si>
+    <t>INTWK0002207130241</t>
+  </si>
+  <si>
+    <t>INTWK0002207130240</t>
+  </si>
+  <si>
+    <t>INTWK0002207140242</t>
+  </si>
+  <si>
+    <t>INTWK0002207130247</t>
+  </si>
+  <si>
+    <t>INTWK0002207140241</t>
+  </si>
+  <si>
+    <t>INTWK0002207130123</t>
+  </si>
+  <si>
+    <t>INTWK0002207130132</t>
+  </si>
+  <si>
+    <t>INTWK0002207130128</t>
+  </si>
+  <si>
+    <t>INTWK0002207130121</t>
+  </si>
+  <si>
+    <t>INTWK0002207130070</t>
+  </si>
+  <si>
+    <t>INTWK0002207130124</t>
+  </si>
+  <si>
+    <t>INTWK0002207130130</t>
+  </si>
+  <si>
+    <t>INTWK0002207110229</t>
+  </si>
+  <si>
+    <t>INTWK0002207110230</t>
+  </si>
+  <si>
+    <t>INTWK0002207110242</t>
+  </si>
+  <si>
+    <t>INTWK0002207110241</t>
+  </si>
+  <si>
+    <t>INTWK0002207130126</t>
+  </si>
+  <si>
+    <t>INTWK0002207130122</t>
+  </si>
+  <si>
+    <t>INTWK0002207130129</t>
+  </si>
+  <si>
+    <t>INTWK0002207130131</t>
+  </si>
+  <si>
+    <t>INTWK0002207130125</t>
+  </si>
+  <si>
+    <t>INTWK0002207130127</t>
+  </si>
+  <si>
+    <t>INTWK0002207110243</t>
+  </si>
+  <si>
+    <t>INTWK0002207130069</t>
+  </si>
+  <si>
+    <t>INTWK0002207140152</t>
+  </si>
+  <si>
+    <t>INTWK0002207140147</t>
+  </si>
+  <si>
+    <t>INTWK0002207140150</t>
+  </si>
+  <si>
+    <t>INTWK0002207140149</t>
+  </si>
+  <si>
+    <t>INTWK0002207140153</t>
+  </si>
+  <si>
+    <t>INTWK0002207140148</t>
+  </si>
+  <si>
+    <t>INTWK0002207140151</t>
+  </si>
+  <si>
+    <t>INTWK0002207140292</t>
+  </si>
+  <si>
+    <t>INTWK0002207140302</t>
+  </si>
+  <si>
+    <t>INTWK0002207140282</t>
+  </si>
+  <si>
+    <t>INTWK0002207140287</t>
+  </si>
+  <si>
+    <t>INTWK0002207140298</t>
+  </si>
+  <si>
+    <t>INTWK0002207140286</t>
+  </si>
+  <si>
+    <t>INTWK0002207140285</t>
+  </si>
+  <si>
+    <t>INTWK0002207140305</t>
+  </si>
+  <si>
+    <t>INTWK0002207140296</t>
+  </si>
+  <si>
+    <t>INTWK0002207140277</t>
+  </si>
+  <si>
+    <t>INTWK0002207140297</t>
+  </si>
+  <si>
+    <t>INTWK0002207140295</t>
+  </si>
+  <si>
+    <t>INTWK0002207140306</t>
+  </si>
+  <si>
+    <t>INTWK0002207140278</t>
+  </si>
+  <si>
+    <t>INTWK0002207140275</t>
+  </si>
+  <si>
+    <t>INTWK0002207140303</t>
+  </si>
+  <si>
+    <t>INTWK0002207140291</t>
+  </si>
+  <si>
+    <t>INTWK0002207140290</t>
+  </si>
+  <si>
+    <t>INTWK0002207140276</t>
+  </si>
+  <si>
+    <t>INTWK0002207140280</t>
+  </si>
+  <si>
+    <t>INTWK0002207140289</t>
+  </si>
+  <si>
+    <t>INTWK0002207140300</t>
+  </si>
+  <si>
+    <t>INTWK0002207140273</t>
+  </si>
+  <si>
+    <t>INTWK0002207140304</t>
+  </si>
+  <si>
+    <t>INTWK0002207140274</t>
+  </si>
+  <si>
+    <t>INTWK0002207140301</t>
+  </si>
+  <si>
+    <t>INTWK0002207140293</t>
+  </si>
+  <si>
+    <t>INTWK0002207140288</t>
+  </si>
+  <si>
+    <t>INTWK0002207140299</t>
+  </si>
+  <si>
+    <t>INTWK0002207140283</t>
+  </si>
+  <si>
+    <t>INTWK0002207140279</t>
+  </si>
+  <si>
+    <t>INTWK0002207140281</t>
+  </si>
+  <si>
+    <t>INTWK0002207140284</t>
+  </si>
+  <si>
+    <t>INTWK0002207140294</t>
+  </si>
+  <si>
+    <t>INTWK0002207130287</t>
+  </si>
+  <si>
+    <t>INTWK0002207130286</t>
+  </si>
+  <si>
+    <t>INTWK0002207130289</t>
+  </si>
+  <si>
+    <t>INTWK0002207130302</t>
+  </si>
+  <si>
+    <t>INTWK0002207130290</t>
+  </si>
+  <si>
+    <t>INTWK0002207130306</t>
+  </si>
+  <si>
+    <t>INTWK0002207130308</t>
+  </si>
+  <si>
+    <t>INTWK0002207130303</t>
+  </si>
+  <si>
+    <t>INTWK0002207130288</t>
+  </si>
+  <si>
+    <t>INTWK0002207130305</t>
+  </si>
+  <si>
+    <t>INTWK0002207130307</t>
+  </si>
+  <si>
+    <t>INTWK0002207130304</t>
+  </si>
+  <si>
+    <t>INTWK0002207130301</t>
+  </si>
+  <si>
+    <t>INTWK0002207140272</t>
+  </si>
+  <si>
+    <t>INTWK0002207140271</t>
+  </si>
+  <si>
+    <t>INTWK0002207120041</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -90,11 +1116,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +1442,6826 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>42560</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44760.30699074074</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>42560</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44760.30684027778</v>
+      </c>
+      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>42560</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44760.30694444444</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>42560</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>54</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44760.30699074074</v>
+      </c>
+      <c r="E5">
+        <v>18</v>
+      </c>
+      <c r="F5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>42560</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44760.30760416666</v>
+      </c>
+      <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>42560</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44760.30769675926</v>
+      </c>
+      <c r="E7">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>42560</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44760.30777777778</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>42560</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44760.30789351852</v>
+      </c>
+      <c r="E9">
+        <v>18</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>42560</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44760.30793981482</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>42560</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44760.30856481481</v>
+      </c>
+      <c r="E11">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>42560</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44760.30862268519</v>
+      </c>
+      <c r="E12">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>42560</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44760.30869212963</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>42560</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44760.30878472222</v>
+      </c>
+      <c r="E14">
+        <v>18</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>42560</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44760.3088425926</v>
+      </c>
+      <c r="E15">
+        <v>18</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>42560</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44760.30892361111</v>
+      </c>
+      <c r="E16">
+        <v>18</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>42560</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44760.30965277777</v>
+      </c>
+      <c r="E17">
+        <v>18</v>
+      </c>
+      <c r="F17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>42560</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44760.30975694444</v>
+      </c>
+      <c r="E18">
+        <v>18</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>42560</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44760.30994212963</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>42560</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44760.31012731481</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>42560</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>24</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44760.31015046296</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>42560</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44760.31023148148</v>
+      </c>
+      <c r="E22">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>42560</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>60</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44760.31196759259</v>
+      </c>
+      <c r="E23">
+        <v>18</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>42560</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44760.3125462963</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>42560</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44760.31278935185</v>
+      </c>
+      <c r="E25">
+        <v>18</v>
+      </c>
+      <c r="F25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>42560</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44760.31284722222</v>
+      </c>
+      <c r="E26">
+        <v>18</v>
+      </c>
+      <c r="F26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>42560</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44760.31295138889</v>
+      </c>
+      <c r="E27">
+        <v>18</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>42560</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44760.31303240741</v>
+      </c>
+      <c r="E28">
+        <v>18</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>42560</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>24</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44760.31581018519</v>
+      </c>
+      <c r="E29">
+        <v>18</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>42560</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44760.31612268519</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>42560</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44760.31623842593</v>
+      </c>
+      <c r="E31">
+        <v>18</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>42560</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44760.31636574074</v>
+      </c>
+      <c r="E32">
+        <v>18</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>42560</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44760.31706018518</v>
+      </c>
+      <c r="E33">
+        <v>18</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>42560</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44760.31725694444</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>42560</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44760.32033564815</v>
+      </c>
+      <c r="E35">
+        <v>18</v>
+      </c>
+      <c r="F35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>42560</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44760.32958333333</v>
+      </c>
+      <c r="E36">
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>42560</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>12</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44760.33016203704</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>42560</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>12</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44760.33033564815</v>
+      </c>
+      <c r="E38">
+        <v>18</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>42560</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44760.33046296296</v>
+      </c>
+      <c r="E39">
+        <v>18</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>42560</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44760.33049768519</v>
+      </c>
+      <c r="E40">
+        <v>18</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>42560</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E41">
+        <v>18</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>42560</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E42">
+        <v>18</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>42560</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>42560</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>50</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E44">
+        <v>18</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>42560</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>60</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E45">
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>42560</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>300</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E46">
+        <v>18</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>42560</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>120</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E47">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>42560</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>180</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E48">
+        <v>18</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>42560</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E49">
+        <v>18</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>42560</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>120</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E50">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>42560</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E51">
+        <v>18</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>42560</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E52">
+        <v>18</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>42560</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E53">
+        <v>18</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>42560</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E54">
+        <v>18</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>42560</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>42560</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E56">
+        <v>18</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>42560</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>300</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E57">
+        <v>18</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>42560</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>600</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E58">
+        <v>18</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>42560</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>600</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E59">
+        <v>18</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>42560</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>600</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E60">
+        <v>18</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>42560</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>576</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E61">
+        <v>18</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>42560</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E62">
+        <v>18</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>42560</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>1020</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E63">
+        <v>18</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>42560</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>60</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E64">
+        <v>18</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>42560</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E65">
+        <v>18</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>42560</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>72</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E66">
+        <v>18</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>42560</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>96</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E67">
+        <v>18</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>42560</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>480</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E68">
+        <v>18</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>42560</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>360</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E69">
+        <v>18</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>42560</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>900</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E70">
+        <v>18</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>42560</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E71">
+        <v>18</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>42560</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>900</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44760.43439814815</v>
+      </c>
+      <c r="E72">
+        <v>18</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>42560</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44760.44458333333</v>
+      </c>
+      <c r="E73">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>42560</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>120</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44760.44466435185</v>
+      </c>
+      <c r="E74">
+        <v>18</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>42560</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>45</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44760.44472222222</v>
+      </c>
+      <c r="E75">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>42560</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>60</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44760.44493055555</v>
+      </c>
+      <c r="E76">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>42560</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>120</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44760.44548611111</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>42560</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>120</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44760.44550925926</v>
+      </c>
+      <c r="E78">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>42560</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>72</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44760.4658912037</v>
+      </c>
+      <c r="E79">
+        <v>18</v>
+      </c>
+      <c r="F79">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>42560</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>120</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44760.46596064815</v>
+      </c>
+      <c r="E80">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>42560</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>240</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44760.46603009259</v>
+      </c>
+      <c r="E81">
+        <v>18</v>
+      </c>
+      <c r="F81">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>42560</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>210</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44760.46607638889</v>
+      </c>
+      <c r="E82">
+        <v>18</v>
+      </c>
+      <c r="F82">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>42560</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>72</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44760.46614583334</v>
+      </c>
+      <c r="E83">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>42560</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>120</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44760.46623842593</v>
+      </c>
+      <c r="E84">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>42560</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>210</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44760.46635416667</v>
+      </c>
+      <c r="E85">
+        <v>18</v>
+      </c>
+      <c r="F85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>42560</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44760.46688657408</v>
+      </c>
+      <c r="E86">
+        <v>18</v>
+      </c>
+      <c r="F86">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>42560</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>24</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44760.46690972222</v>
+      </c>
+      <c r="E87">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>42560</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44760.46697916667</v>
+      </c>
+      <c r="E88">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>42560</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44760.46700231481</v>
+      </c>
+      <c r="E89">
+        <v>18</v>
+      </c>
+      <c r="F89">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>42560</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>18</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44760.46707175926</v>
+      </c>
+      <c r="E90">
+        <v>18</v>
+      </c>
+      <c r="F90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>42560</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44760.46712962963</v>
+      </c>
+      <c r="E91">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>42560</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>45</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44760.46721064814</v>
+      </c>
+      <c r="E92">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>42560</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44760.46760416667</v>
+      </c>
+      <c r="E93">
+        <v>18</v>
+      </c>
+      <c r="F93">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>42560</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44760.46760416667</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>42560</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44760.46760416667</v>
+      </c>
+      <c r="E95">
+        <v>18</v>
+      </c>
+      <c r="F95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>42560</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44760.46787037037</v>
+      </c>
+      <c r="E96">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>42560</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>36</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44760.46795138889</v>
+      </c>
+      <c r="E97">
+        <v>18</v>
+      </c>
+      <c r="F97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>42560</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44760.46922453704</v>
+      </c>
+      <c r="E98">
+        <v>18</v>
+      </c>
+      <c r="F98">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>42560</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44760.46927083333</v>
+      </c>
+      <c r="E99">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>42560</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44760.46930555555</v>
+      </c>
+      <c r="E100">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>42560</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44760.46934027778</v>
+      </c>
+      <c r="E101">
+        <v>18</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>42560</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44760.46939814815</v>
+      </c>
+      <c r="E102">
+        <v>18</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>42560</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44760.46945601852</v>
+      </c>
+      <c r="E103">
+        <v>18</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>42560</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44760.46951388889</v>
+      </c>
+      <c r="E104">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>42560</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44760.46959490741</v>
+      </c>
+      <c r="E105">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>42560</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>39</v>
+      </c>
+      <c r="D106" s="2">
+        <v>44760.46991898148</v>
+      </c>
+      <c r="E106">
+        <v>18</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>42560</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2">
+        <v>44760.46994212963</v>
+      </c>
+      <c r="E107">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>42560</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108">
+        <v>18</v>
+      </c>
+      <c r="D108" s="2">
+        <v>44760.46998842592</v>
+      </c>
+      <c r="E108">
+        <v>18</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>42560</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2">
+        <v>44760.47008101852</v>
+      </c>
+      <c r="E109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>42560</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+      <c r="D110" s="2">
+        <v>44760.47332175926</v>
+      </c>
+      <c r="E110">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>42560</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111" s="2">
+        <v>44760.47340277778</v>
+      </c>
+      <c r="E111">
+        <v>18</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>42560</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112" s="2">
+        <v>44760.4734375</v>
+      </c>
+      <c r="E112">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>42560</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>18</v>
+      </c>
+      <c r="D113" s="2">
+        <v>44760.47349537037</v>
+      </c>
+      <c r="E113">
+        <v>18</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>42560</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44760.47354166667</v>
+      </c>
+      <c r="E114">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>42560</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2">
+        <v>44760.47358796297</v>
+      </c>
+      <c r="E115">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>42560</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2">
+        <v>44760.4736574074</v>
+      </c>
+      <c r="E116">
+        <v>18</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>42560</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44760.47375</v>
+      </c>
+      <c r="E117">
+        <v>18</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>42560</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44760.47383101852</v>
+      </c>
+      <c r="E118">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>42560</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2">
+        <v>44760.47387731481</v>
+      </c>
+      <c r="E119">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>42560</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44760.47402777777</v>
+      </c>
+      <c r="E120">
+        <v>18</v>
+      </c>
+      <c r="F120">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>42560</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>12</v>
+      </c>
+      <c r="D121" s="2">
+        <v>44760.47408564815</v>
+      </c>
+      <c r="E121">
+        <v>18</v>
+      </c>
+      <c r="F121">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>42560</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>90</v>
+      </c>
+      <c r="D122" s="2">
+        <v>44760.47671296296</v>
+      </c>
+      <c r="E122">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>42560</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>36</v>
+      </c>
+      <c r="D123" s="2">
+        <v>44760.47680555555</v>
+      </c>
+      <c r="E123">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>42560</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>24</v>
+      </c>
+      <c r="D124" s="2">
+        <v>44760.47684027778</v>
+      </c>
+      <c r="E124">
+        <v>18</v>
+      </c>
+      <c r="F124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>42560</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>12</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44760.47689814815</v>
+      </c>
+      <c r="E125">
+        <v>18</v>
+      </c>
+      <c r="F125">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>42560</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126" s="2">
+        <v>44760.47707175926</v>
+      </c>
+      <c r="E126">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>42560</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>240</v>
+      </c>
+      <c r="D127" s="2">
+        <v>44760.4771412037</v>
+      </c>
+      <c r="E127">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>42560</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>180</v>
+      </c>
+      <c r="D128" s="2">
+        <v>44760.47744212963</v>
+      </c>
+      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>42560</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>240</v>
+      </c>
+      <c r="D129" s="2">
+        <v>44760.47752314815</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>42560</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>12</v>
+      </c>
+      <c r="D130" s="2">
+        <v>44760.47896990741</v>
+      </c>
+      <c r="E130">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>42560</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2">
+        <v>44760.47898148148</v>
+      </c>
+      <c r="E131">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>42560</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2">
+        <v>44760.47898148148</v>
+      </c>
+      <c r="E132">
+        <v>18</v>
+      </c>
+      <c r="F132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>42560</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2">
+        <v>44760.479375</v>
+      </c>
+      <c r="E133">
+        <v>18</v>
+      </c>
+      <c r="F133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>42560</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2">
+        <v>44760.47947916666</v>
+      </c>
+      <c r="E134">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>42560</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135" s="2">
+        <v>44760.47959490741</v>
+      </c>
+      <c r="E135">
+        <v>18</v>
+      </c>
+      <c r="F135">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>42560</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" s="2">
+        <v>44760.47965277778</v>
+      </c>
+      <c r="E136">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>42560</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>36</v>
+      </c>
+      <c r="D137" s="2">
+        <v>44760.47969907407</v>
+      </c>
+      <c r="E137">
+        <v>18</v>
+      </c>
+      <c r="F137">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>42560</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>500</v>
+      </c>
+      <c r="D138" s="2">
+        <v>44760.4871412037</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>42560</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139" s="2">
+        <v>44760.48719907407</v>
+      </c>
+      <c r="E139">
+        <v>18</v>
+      </c>
+      <c r="F139">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>42560</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140" s="2">
+        <v>44760.48844907407</v>
+      </c>
+      <c r="E140">
+        <v>18</v>
+      </c>
+      <c r="F140">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>42560</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>6</v>
+      </c>
+      <c r="D141" s="2">
+        <v>44760.48885416667</v>
+      </c>
+      <c r="E141">
+        <v>18</v>
+      </c>
+      <c r="F141">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>42560</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>24</v>
+      </c>
+      <c r="D142" s="2">
+        <v>44760.48851851852</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="F142">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>42560</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" s="2">
+        <v>44760.48862268519</v>
+      </c>
+      <c r="E143">
+        <v>18</v>
+      </c>
+      <c r="F143">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>42560</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" s="2">
+        <v>44760.48871527778</v>
+      </c>
+      <c r="E144">
+        <v>18</v>
+      </c>
+      <c r="F144">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>42560</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2">
+        <v>44760.48918981481</v>
+      </c>
+      <c r="E145">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>42560</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44760.48940972222</v>
+      </c>
+      <c r="E146">
+        <v>18</v>
+      </c>
+      <c r="F146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>42560</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44760.48965277777</v>
+      </c>
+      <c r="E147">
+        <v>18</v>
+      </c>
+      <c r="F147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>42560</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>6</v>
+      </c>
+      <c r="D148" s="2">
+        <v>44760.48981481481</v>
+      </c>
+      <c r="E148">
+        <v>18</v>
+      </c>
+      <c r="F148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>42560</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>12</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44760.48993055556</v>
+      </c>
+      <c r="E149">
+        <v>18</v>
+      </c>
+      <c r="F149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>42560</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150">
+        <v>6</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44760.49002314815</v>
+      </c>
+      <c r="E150">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>42560</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151" s="2">
+        <v>44760.49010416667</v>
+      </c>
+      <c r="E151">
+        <v>18</v>
+      </c>
+      <c r="F151">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>42560</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>6</v>
+      </c>
+      <c r="D152" s="2">
+        <v>44760.49023148148</v>
+      </c>
+      <c r="E152">
+        <v>18</v>
+      </c>
+      <c r="F152">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>42560</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44760.49043981481</v>
+      </c>
+      <c r="E153">
+        <v>18</v>
+      </c>
+      <c r="F153">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>42560</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>6</v>
+      </c>
+      <c r="D154" s="2">
+        <v>44760.49054398148</v>
+      </c>
+      <c r="E154">
+        <v>18</v>
+      </c>
+      <c r="F154">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>42560</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155" s="2">
+        <v>44760.49064814814</v>
+      </c>
+      <c r="E155">
+        <v>18</v>
+      </c>
+      <c r="F155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>42560</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44760.49099537037</v>
+      </c>
+      <c r="E156">
+        <v>18</v>
+      </c>
+      <c r="F156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>42560</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44760.49107638889</v>
+      </c>
+      <c r="E157">
+        <v>18</v>
+      </c>
+      <c r="F157">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>42560</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158">
+        <v>12</v>
+      </c>
+      <c r="D158" s="2">
+        <v>44760.49109953704</v>
+      </c>
+      <c r="E158">
+        <v>18</v>
+      </c>
+      <c r="F158">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>42560</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159">
+        <v>24</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44760.49119212963</v>
+      </c>
+      <c r="E159">
+        <v>18</v>
+      </c>
+      <c r="F159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>42560</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160">
+        <v>24</v>
+      </c>
+      <c r="D160" s="2">
+        <v>44760.49123842592</v>
+      </c>
+      <c r="E160">
+        <v>18</v>
+      </c>
+      <c r="F160">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>42560</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>24</v>
+      </c>
+      <c r="D161" s="2">
+        <v>44760.49131944445</v>
+      </c>
+      <c r="E161">
+        <v>18</v>
+      </c>
+      <c r="F161">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>42560</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162">
+        <v>36</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44760.49142361111</v>
+      </c>
+      <c r="E162">
+        <v>18</v>
+      </c>
+      <c r="F162">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>42560</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163">
+        <v>24</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44760.49151620371</v>
+      </c>
+      <c r="E163">
+        <v>18</v>
+      </c>
+      <c r="F163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>42560</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164">
+        <v>240</v>
+      </c>
+      <c r="D164" s="2">
+        <v>44760.49273148148</v>
+      </c>
+      <c r="E164">
+        <v>18</v>
+      </c>
+      <c r="F164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>42560</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165">
+        <v>180</v>
+      </c>
+      <c r="D165" s="2">
+        <v>44760.49283564815</v>
+      </c>
+      <c r="E165">
+        <v>18</v>
+      </c>
+      <c r="F165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>42560</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166" s="2">
+        <v>44760.49303240741</v>
+      </c>
+      <c r="E166">
+        <v>18</v>
+      </c>
+      <c r="F166">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>42560</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167">
+        <v>42</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44760.49618055556</v>
+      </c>
+      <c r="E167">
+        <v>18</v>
+      </c>
+      <c r="F167">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>42560</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>12</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44760.49642361111</v>
+      </c>
+      <c r="E168">
+        <v>18</v>
+      </c>
+      <c r="F168">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>42560</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>200</v>
+      </c>
+      <c r="D169" s="2">
+        <v>44760.44050925926</v>
+      </c>
+      <c r="E169">
+        <v>18</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>42560</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170">
+        <v>12</v>
+      </c>
+      <c r="D170" s="2">
+        <v>44760.44145833333</v>
+      </c>
+      <c r="E170">
+        <v>18</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>42560</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171">
+        <v>30</v>
+      </c>
+      <c r="D171" s="2">
+        <v>44760.44171296297</v>
+      </c>
+      <c r="E171">
+        <v>18</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>42560</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172">
+        <v>12</v>
+      </c>
+      <c r="D172" s="2">
+        <v>44760.44195601852</v>
+      </c>
+      <c r="E172">
+        <v>18</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>42560</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173">
+        <v>98</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44760.44321759259</v>
+      </c>
+      <c r="E173">
+        <v>18</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>42560</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174">
+        <v>90</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44760.44334490741</v>
+      </c>
+      <c r="E174">
+        <v>18</v>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>42560</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175">
+        <v>70</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44760.44354166667</v>
+      </c>
+      <c r="E175">
+        <v>18</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>42560</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>50</v>
+      </c>
+      <c r="D176" s="2">
+        <v>44760.44365740741</v>
+      </c>
+      <c r="E176">
+        <v>18</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>42560</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44760.44814814815</v>
+      </c>
+      <c r="E177">
+        <v>18</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>42560</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2">
+        <v>44760.44841435185</v>
+      </c>
+      <c r="E178">
+        <v>18</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>42560</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2">
+        <v>44760.4485300926</v>
+      </c>
+      <c r="E179">
+        <v>18</v>
+      </c>
+      <c r="F179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>42560</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+      <c r="D180" s="2">
+        <v>44760.44861111111</v>
+      </c>
+      <c r="E180">
+        <v>18</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>42560</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181">
+        <v>10</v>
+      </c>
+      <c r="D181" s="2">
+        <v>44760.44909722222</v>
+      </c>
+      <c r="E181">
+        <v>18</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>42560</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182">
+        <v>15</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44760.44918981481</v>
+      </c>
+      <c r="E182">
+        <v>18</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>42560</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183">
+        <v>10</v>
+      </c>
+      <c r="D183" s="2">
+        <v>44760.44925925926</v>
+      </c>
+      <c r="E183">
+        <v>18</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>42560</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184">
+        <v>15</v>
+      </c>
+      <c r="D184" s="2">
+        <v>44760.44939814815</v>
+      </c>
+      <c r="E184">
+        <v>18</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>42560</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185" s="2">
+        <v>44760.44965277778</v>
+      </c>
+      <c r="E185">
+        <v>18</v>
+      </c>
+      <c r="F185">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>42560</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186">
+        <v>50</v>
+      </c>
+      <c r="D186" s="2">
+        <v>44760.44972222222</v>
+      </c>
+      <c r="E186">
+        <v>18</v>
+      </c>
+      <c r="F186">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>42560</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187">
+        <v>50</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44760.44976851852</v>
+      </c>
+      <c r="E187">
+        <v>18</v>
+      </c>
+      <c r="F187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>42560</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188">
+        <v>200</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44760.45104166667</v>
+      </c>
+      <c r="E188">
+        <v>18</v>
+      </c>
+      <c r="F188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>42560</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189">
+        <v>200</v>
+      </c>
+      <c r="D189" s="2">
+        <v>44760.45137731481</v>
+      </c>
+      <c r="E189">
+        <v>18</v>
+      </c>
+      <c r="F189">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>42560</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190">
+        <v>30</v>
+      </c>
+      <c r="D190" s="2">
+        <v>44760.45335648148</v>
+      </c>
+      <c r="E190">
+        <v>18</v>
+      </c>
+      <c r="F190">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>42560</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191">
+        <v>20</v>
+      </c>
+      <c r="D191" s="2">
+        <v>44760.45342592592</v>
+      </c>
+      <c r="E191">
+        <v>18</v>
+      </c>
+      <c r="F191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>42560</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192" s="2">
+        <v>44760.47150462963</v>
+      </c>
+      <c r="E192">
+        <v>18</v>
+      </c>
+      <c r="F192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>42560</v>
+      </c>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193" s="2">
+        <v>44760.47204861111</v>
+      </c>
+      <c r="E193">
+        <v>18</v>
+      </c>
+      <c r="F193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>42560</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" s="2">
+        <v>44760.47210648148</v>
+      </c>
+      <c r="E194">
+        <v>18</v>
+      </c>
+      <c r="F194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>42560</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44760.47229166667</v>
+      </c>
+      <c r="E195">
+        <v>18</v>
+      </c>
+      <c r="F195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>42560</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196" s="2">
+        <v>44760.4724537037</v>
+      </c>
+      <c r="E196">
+        <v>18</v>
+      </c>
+      <c r="F196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>42560</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197" s="2">
+        <v>44760.47280092593</v>
+      </c>
+      <c r="E197">
+        <v>18</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>42560</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198">
+        <v>3</v>
+      </c>
+      <c r="D198" s="2">
+        <v>44760.47293981481</v>
+      </c>
+      <c r="E198">
+        <v>18</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>42560</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" s="2">
+        <v>44760.49408564815</v>
+      </c>
+      <c r="E199">
+        <v>18</v>
+      </c>
+      <c r="F199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>42560</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200" s="2">
+        <v>44760.49415509259</v>
+      </c>
+      <c r="E200">
+        <v>18</v>
+      </c>
+      <c r="F200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>42560</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+      <c r="D201" s="2">
+        <v>44760.49431712963</v>
+      </c>
+      <c r="E201">
+        <v>18</v>
+      </c>
+      <c r="F201">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202">
+        <v>42560</v>
+      </c>
+      <c r="B202" t="s">
+        <v>206</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202" s="2">
+        <v>44760.49434027778</v>
+      </c>
+      <c r="E202">
+        <v>18</v>
+      </c>
+      <c r="F202">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203">
+        <v>42560</v>
+      </c>
+      <c r="B203" t="s">
+        <v>207</v>
+      </c>
+      <c r="C203">
+        <v>24</v>
+      </c>
+      <c r="D203" s="2">
+        <v>44760.494375</v>
+      </c>
+      <c r="E203">
+        <v>18</v>
+      </c>
+      <c r="F203">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204">
+        <v>42560</v>
+      </c>
+      <c r="B204" t="s">
+        <v>208</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204" s="2">
+        <v>44760.49460648148</v>
+      </c>
+      <c r="E204">
+        <v>18</v>
+      </c>
+      <c r="F204">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205">
+        <v>42560</v>
+      </c>
+      <c r="B205" t="s">
+        <v>209</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205" s="2">
+        <v>44760.49471064815</v>
+      </c>
+      <c r="E205">
+        <v>18</v>
+      </c>
+      <c r="F205">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206">
+        <v>42560</v>
+      </c>
+      <c r="B206" t="s">
+        <v>210</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206" s="2">
+        <v>44760.49479166666</v>
+      </c>
+      <c r="E206">
+        <v>18</v>
+      </c>
+      <c r="F206">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207">
+        <v>42560</v>
+      </c>
+      <c r="B207" t="s">
+        <v>211</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207" s="2">
+        <v>44760.49481481482</v>
+      </c>
+      <c r="E207">
+        <v>18</v>
+      </c>
+      <c r="F207">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208">
+        <v>42560</v>
+      </c>
+      <c r="B208" t="s">
+        <v>212</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208" s="2">
+        <v>44760.49482638889</v>
+      </c>
+      <c r="E208">
+        <v>18</v>
+      </c>
+      <c r="F208">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
+      <c r="A209">
+        <v>42560</v>
+      </c>
+      <c r="B209" t="s">
+        <v>213</v>
+      </c>
+      <c r="C209">
+        <v>24</v>
+      </c>
+      <c r="D209" s="2">
+        <v>44760.49493055556</v>
+      </c>
+      <c r="E209">
+        <v>18</v>
+      </c>
+      <c r="F209">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210">
+        <v>42560</v>
+      </c>
+      <c r="B210" t="s">
+        <v>214</v>
+      </c>
+      <c r="C210">
+        <v>12</v>
+      </c>
+      <c r="D210" s="2">
+        <v>44760.49506944444</v>
+      </c>
+      <c r="E210">
+        <v>18</v>
+      </c>
+      <c r="F210">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
+      <c r="A211">
+        <v>42560</v>
+      </c>
+      <c r="B211" t="s">
+        <v>215</v>
+      </c>
+      <c r="C211">
+        <v>12</v>
+      </c>
+      <c r="D211" s="2">
+        <v>44760.49513888889</v>
+      </c>
+      <c r="E211">
+        <v>18</v>
+      </c>
+      <c r="F211">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212">
+        <v>42560</v>
+      </c>
+      <c r="B212" t="s">
+        <v>216</v>
+      </c>
+      <c r="C212">
+        <v>12</v>
+      </c>
+      <c r="D212" s="2">
+        <v>44760.49548611111</v>
+      </c>
+      <c r="E212">
+        <v>18</v>
+      </c>
+      <c r="F212">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="A213">
+        <v>42560</v>
+      </c>
+      <c r="B213" t="s">
+        <v>217</v>
+      </c>
+      <c r="C213">
+        <v>6</v>
+      </c>
+      <c r="D213" s="2">
+        <v>44760.49552083333</v>
+      </c>
+      <c r="E213">
+        <v>18</v>
+      </c>
+      <c r="F213">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
+      <c r="A214">
+        <v>42560</v>
+      </c>
+      <c r="B214" t="s">
+        <v>218</v>
+      </c>
+      <c r="C214">
+        <v>12</v>
+      </c>
+      <c r="D214" s="2">
+        <v>44760.4955787037</v>
+      </c>
+      <c r="E214">
+        <v>18</v>
+      </c>
+      <c r="F214">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
+      <c r="A215">
+        <v>42560</v>
+      </c>
+      <c r="B215" t="s">
+        <v>219</v>
+      </c>
+      <c r="C215">
+        <v>24</v>
+      </c>
+      <c r="D215" s="2">
+        <v>44760.49569444444</v>
+      </c>
+      <c r="E215">
+        <v>18</v>
+      </c>
+      <c r="F215">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
+      <c r="A216">
+        <v>42560</v>
+      </c>
+      <c r="B216" t="s">
+        <v>220</v>
+      </c>
+      <c r="C216">
+        <v>9</v>
+      </c>
+      <c r="D216" s="2">
+        <v>44760.49576388889</v>
+      </c>
+      <c r="E216">
+        <v>18</v>
+      </c>
+      <c r="F216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
+      <c r="A217">
+        <v>42560</v>
+      </c>
+      <c r="B217" t="s">
+        <v>221</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" s="2">
+        <v>44760.49578703703</v>
+      </c>
+      <c r="E217">
+        <v>18</v>
+      </c>
+      <c r="F217">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
+      <c r="A218">
+        <v>42560</v>
+      </c>
+      <c r="B218" t="s">
+        <v>222</v>
+      </c>
+      <c r="C218">
+        <v>12</v>
+      </c>
+      <c r="D218" s="2">
+        <v>44760.49876157408</v>
+      </c>
+      <c r="E218">
+        <v>18</v>
+      </c>
+      <c r="F218">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
+      <c r="A219">
+        <v>42560</v>
+      </c>
+      <c r="B219" t="s">
+        <v>223</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219" s="2">
+        <v>44760.49856481481</v>
+      </c>
+      <c r="E219">
+        <v>18</v>
+      </c>
+      <c r="F219">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
+      <c r="A220">
+        <v>42560</v>
+      </c>
+      <c r="B220" t="s">
+        <v>224</v>
+      </c>
+      <c r="C220">
+        <v>12</v>
+      </c>
+      <c r="D220" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E220">
+        <v>18</v>
+      </c>
+      <c r="F220">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
+      <c r="A221">
+        <v>42560</v>
+      </c>
+      <c r="B221" t="s">
+        <v>225</v>
+      </c>
+      <c r="C221">
+        <v>12</v>
+      </c>
+      <c r="D221" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E221">
+        <v>18</v>
+      </c>
+      <c r="F221">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
+      <c r="A222">
+        <v>42560</v>
+      </c>
+      <c r="B222" t="s">
+        <v>226</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" s="2">
+        <v>44760.44689814815</v>
+      </c>
+      <c r="E222">
+        <v>18</v>
+      </c>
+      <c r="F222">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
+      <c r="A223">
+        <v>42560</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" s="2">
+        <v>44760.44692129629</v>
+      </c>
+      <c r="E223">
+        <v>18</v>
+      </c>
+      <c r="F223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
+      <c r="A224">
+        <v>42560</v>
+      </c>
+      <c r="B224" t="s">
+        <v>228</v>
+      </c>
+      <c r="C224">
+        <v>3</v>
+      </c>
+      <c r="D224" s="2">
+        <v>44760.44694444445</v>
+      </c>
+      <c r="E224">
+        <v>18</v>
+      </c>
+      <c r="F224">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
+      <c r="A225">
+        <v>42560</v>
+      </c>
+      <c r="B225" t="s">
+        <v>229</v>
+      </c>
+      <c r="C225">
+        <v>280</v>
+      </c>
+      <c r="D225" s="2">
+        <v>44760.44710648148</v>
+      </c>
+      <c r="E225">
+        <v>18</v>
+      </c>
+      <c r="F225">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
+      <c r="A226">
+        <v>42560</v>
+      </c>
+      <c r="B226" t="s">
+        <v>230</v>
+      </c>
+      <c r="C226">
+        <v>40</v>
+      </c>
+      <c r="D226" s="2">
+        <v>44760.45885416667</v>
+      </c>
+      <c r="E226">
+        <v>18</v>
+      </c>
+      <c r="F226">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
+      <c r="A227">
+        <v>42560</v>
+      </c>
+      <c r="B227" t="s">
+        <v>231</v>
+      </c>
+      <c r="C227">
+        <v>150</v>
+      </c>
+      <c r="D227" s="2">
+        <v>44760.45890046296</v>
+      </c>
+      <c r="E227">
+        <v>18</v>
+      </c>
+      <c r="F227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
+      <c r="A228">
+        <v>42560</v>
+      </c>
+      <c r="B228" t="s">
+        <v>232</v>
+      </c>
+      <c r="C228">
+        <v>90</v>
+      </c>
+      <c r="D228" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E228">
+        <v>18</v>
+      </c>
+      <c r="F228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
+      <c r="A229">
+        <v>42560</v>
+      </c>
+      <c r="B229" t="s">
+        <v>233</v>
+      </c>
+      <c r="C229">
+        <v>60</v>
+      </c>
+      <c r="D229" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E229">
+        <v>18</v>
+      </c>
+      <c r="F229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
+      <c r="A230">
+        <v>42560</v>
+      </c>
+      <c r="B230" t="s">
+        <v>234</v>
+      </c>
+      <c r="C230">
+        <v>48</v>
+      </c>
+      <c r="D230" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E230">
+        <v>18</v>
+      </c>
+      <c r="F230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
+      <c r="A231">
+        <v>42560</v>
+      </c>
+      <c r="B231" t="s">
+        <v>235</v>
+      </c>
+      <c r="C231">
+        <v>36</v>
+      </c>
+      <c r="D231" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E231">
+        <v>18</v>
+      </c>
+      <c r="F231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
+      <c r="A232">
+        <v>42560</v>
+      </c>
+      <c r="B232" t="s">
+        <v>236</v>
+      </c>
+      <c r="C232">
+        <v>70</v>
+      </c>
+      <c r="D232" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E232">
+        <v>18</v>
+      </c>
+      <c r="F232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
+      <c r="A233">
+        <v>42560</v>
+      </c>
+      <c r="B233" t="s">
+        <v>237</v>
+      </c>
+      <c r="C233">
+        <v>48</v>
+      </c>
+      <c r="D233" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E233">
+        <v>18</v>
+      </c>
+      <c r="F233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
+      <c r="A234">
+        <v>42560</v>
+      </c>
+      <c r="B234" t="s">
+        <v>238</v>
+      </c>
+      <c r="C234">
+        <v>16</v>
+      </c>
+      <c r="D234" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E234">
+        <v>18</v>
+      </c>
+      <c r="F234">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
+      <c r="A235">
+        <v>42560</v>
+      </c>
+      <c r="B235" t="s">
+        <v>239</v>
+      </c>
+      <c r="C235">
+        <v>200</v>
+      </c>
+      <c r="D235" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E235">
+        <v>18</v>
+      </c>
+      <c r="F235">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
+      <c r="A236">
+        <v>42560</v>
+      </c>
+      <c r="B236" t="s">
+        <v>240</v>
+      </c>
+      <c r="C236">
+        <v>72</v>
+      </c>
+      <c r="D236" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E236">
+        <v>18</v>
+      </c>
+      <c r="F236">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
+      <c r="A237">
+        <v>42560</v>
+      </c>
+      <c r="B237" t="s">
+        <v>241</v>
+      </c>
+      <c r="C237">
+        <v>24</v>
+      </c>
+      <c r="D237" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E237">
+        <v>18</v>
+      </c>
+      <c r="F237">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
+      <c r="A238">
+        <v>42560</v>
+      </c>
+      <c r="B238" t="s">
+        <v>242</v>
+      </c>
+      <c r="C238">
+        <v>192</v>
+      </c>
+      <c r="D238" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E238">
+        <v>18</v>
+      </c>
+      <c r="F238">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="A239">
+        <v>42560</v>
+      </c>
+      <c r="B239" t="s">
+        <v>243</v>
+      </c>
+      <c r="C239">
+        <v>6</v>
+      </c>
+      <c r="D239" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E239">
+        <v>18</v>
+      </c>
+      <c r="F239">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
+      <c r="A240">
+        <v>42560</v>
+      </c>
+      <c r="B240" t="s">
+        <v>244</v>
+      </c>
+      <c r="C240">
+        <v>18</v>
+      </c>
+      <c r="D240" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E240">
+        <v>18</v>
+      </c>
+      <c r="F240">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241">
+        <v>42560</v>
+      </c>
+      <c r="B241" t="s">
+        <v>245</v>
+      </c>
+      <c r="C241">
+        <v>24</v>
+      </c>
+      <c r="D241" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E241">
+        <v>18</v>
+      </c>
+      <c r="F241">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242">
+        <v>42560</v>
+      </c>
+      <c r="B242" t="s">
+        <v>246</v>
+      </c>
+      <c r="C242">
+        <v>12</v>
+      </c>
+      <c r="D242" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E242">
+        <v>18</v>
+      </c>
+      <c r="F242">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243">
+        <v>42560</v>
+      </c>
+      <c r="B243" t="s">
+        <v>247</v>
+      </c>
+      <c r="C243">
+        <v>18</v>
+      </c>
+      <c r="D243" s="2">
+        <v>44760.46010416667</v>
+      </c>
+      <c r="E243">
+        <v>18</v>
+      </c>
+      <c r="F243">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244">
+        <v>42560</v>
+      </c>
+      <c r="B244" t="s">
+        <v>248</v>
+      </c>
+      <c r="C244">
+        <v>36</v>
+      </c>
+      <c r="D244" s="2">
+        <v>44760.46013888889</v>
+      </c>
+      <c r="E244">
+        <v>18</v>
+      </c>
+      <c r="F244">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245">
+        <v>42560</v>
+      </c>
+      <c r="B245" t="s">
+        <v>249</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" s="2">
+        <v>44760.46200231482</v>
+      </c>
+      <c r="E245">
+        <v>18</v>
+      </c>
+      <c r="F245">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246">
+        <v>42560</v>
+      </c>
+      <c r="B246" t="s">
+        <v>250</v>
+      </c>
+      <c r="C246">
+        <v>20</v>
+      </c>
+      <c r="D246" s="2">
+        <v>44760.46202546296</v>
+      </c>
+      <c r="E246">
+        <v>18</v>
+      </c>
+      <c r="F246">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247">
+        <v>42560</v>
+      </c>
+      <c r="B247" t="s">
+        <v>251</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" s="2">
+        <v>44760.46228009259</v>
+      </c>
+      <c r="E247">
+        <v>18</v>
+      </c>
+      <c r="F247">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248">
+        <v>42560</v>
+      </c>
+      <c r="B248" t="s">
+        <v>252</v>
+      </c>
+      <c r="C248">
+        <v>10</v>
+      </c>
+      <c r="D248" s="2">
+        <v>44760.46234953704</v>
+      </c>
+      <c r="E248">
+        <v>18</v>
+      </c>
+      <c r="F248">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249">
+        <v>42560</v>
+      </c>
+      <c r="B249" t="s">
+        <v>253</v>
+      </c>
+      <c r="C249">
+        <v>34</v>
+      </c>
+      <c r="D249" s="2">
+        <v>44760.46244212963</v>
+      </c>
+      <c r="E249">
+        <v>18</v>
+      </c>
+      <c r="F249">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250">
+        <v>42560</v>
+      </c>
+      <c r="B250" t="s">
+        <v>254</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" s="2">
+        <v>44760.4625</v>
+      </c>
+      <c r="E250">
+        <v>18</v>
+      </c>
+      <c r="F250">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251">
+        <v>42560</v>
+      </c>
+      <c r="B251" t="s">
+        <v>255</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" s="2">
+        <v>44760.46255787037</v>
+      </c>
+      <c r="E251">
+        <v>18</v>
+      </c>
+      <c r="F251">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252">
+        <v>42560</v>
+      </c>
+      <c r="B252" t="s">
+        <v>256</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252" s="2">
+        <v>44760.46260416666</v>
+      </c>
+      <c r="E252">
+        <v>18</v>
+      </c>
+      <c r="F252">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253">
+        <v>42560</v>
+      </c>
+      <c r="B253" t="s">
+        <v>257</v>
+      </c>
+      <c r="C253">
+        <v>30</v>
+      </c>
+      <c r="D253" s="2">
+        <v>44760.46270833333</v>
+      </c>
+      <c r="E253">
+        <v>18</v>
+      </c>
+      <c r="F253">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254">
+        <v>42560</v>
+      </c>
+      <c r="B254" t="s">
+        <v>258</v>
+      </c>
+      <c r="C254">
+        <v>3</v>
+      </c>
+      <c r="D254" s="2">
+        <v>44760.46280092592</v>
+      </c>
+      <c r="E254">
+        <v>18</v>
+      </c>
+      <c r="F254">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255">
+        <v>42560</v>
+      </c>
+      <c r="B255" t="s">
+        <v>259</v>
+      </c>
+      <c r="C255">
+        <v>6</v>
+      </c>
+      <c r="D255" s="2">
+        <v>44760.46290509259</v>
+      </c>
+      <c r="E255">
+        <v>18</v>
+      </c>
+      <c r="F255">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256">
+        <v>42560</v>
+      </c>
+      <c r="B256" t="s">
+        <v>260</v>
+      </c>
+      <c r="C256">
+        <v>30</v>
+      </c>
+      <c r="D256" s="2">
+        <v>44760.46304398148</v>
+      </c>
+      <c r="E256">
+        <v>18</v>
+      </c>
+      <c r="F256">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257">
+        <v>42560</v>
+      </c>
+      <c r="B257" t="s">
+        <v>261</v>
+      </c>
+      <c r="C257">
+        <v>500</v>
+      </c>
+      <c r="D257" s="2">
+        <v>44760.46329861111</v>
+      </c>
+      <c r="E257">
+        <v>18</v>
+      </c>
+      <c r="F257">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258">
+        <v>42560</v>
+      </c>
+      <c r="B258" t="s">
+        <v>262</v>
+      </c>
+      <c r="C258">
+        <v>325</v>
+      </c>
+      <c r="D258" s="2">
+        <v>44760.46335648148</v>
+      </c>
+      <c r="E258">
+        <v>18</v>
+      </c>
+      <c r="F258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259">
+        <v>42560</v>
+      </c>
+      <c r="B259" t="s">
+        <v>263</v>
+      </c>
+      <c r="C259">
+        <v>10</v>
+      </c>
+      <c r="D259" s="2">
+        <v>44760.46349537037</v>
+      </c>
+      <c r="E259">
+        <v>18</v>
+      </c>
+      <c r="F259">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260">
+        <v>42560</v>
+      </c>
+      <c r="B260" t="s">
+        <v>264</v>
+      </c>
+      <c r="C260">
+        <v>3</v>
+      </c>
+      <c r="D260" s="2">
+        <v>44760.46359953703</v>
+      </c>
+      <c r="E260">
+        <v>18</v>
+      </c>
+      <c r="F260">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261">
+        <v>42560</v>
+      </c>
+      <c r="B261" t="s">
+        <v>265</v>
+      </c>
+      <c r="C261">
+        <v>200</v>
+      </c>
+      <c r="D261" s="2">
+        <v>44760.46375</v>
+      </c>
+      <c r="E261">
+        <v>18</v>
+      </c>
+      <c r="F261">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262">
+        <v>42560</v>
+      </c>
+      <c r="B262" t="s">
+        <v>266</v>
+      </c>
+      <c r="C262">
+        <v>600</v>
+      </c>
+      <c r="D262" s="2">
+        <v>44760.54690972222</v>
+      </c>
+      <c r="E262">
+        <v>18</v>
+      </c>
+      <c r="F262">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263">
+        <v>42560</v>
+      </c>
+      <c r="B263" t="s">
+        <v>267</v>
+      </c>
+      <c r="C263">
+        <v>200</v>
+      </c>
+      <c r="D263" s="2">
+        <v>44760.54693287037</v>
+      </c>
+      <c r="E263">
+        <v>18</v>
+      </c>
+      <c r="F263">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264">
+        <v>42560</v>
+      </c>
+      <c r="B264" t="s">
+        <v>268</v>
+      </c>
+      <c r="C264">
+        <v>12</v>
+      </c>
+      <c r="D264" s="2">
+        <v>44760.54803240741</v>
+      </c>
+      <c r="E264">
+        <v>18</v>
+      </c>
+      <c r="F264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265">
+        <v>42560</v>
+      </c>
+      <c r="B265" t="s">
+        <v>269</v>
+      </c>
+      <c r="C265">
+        <v>12</v>
+      </c>
+      <c r="D265" s="2">
+        <v>44760.54909722223</v>
+      </c>
+      <c r="E265">
+        <v>18</v>
+      </c>
+      <c r="F265">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266">
+        <v>42560</v>
+      </c>
+      <c r="B266" t="s">
+        <v>270</v>
+      </c>
+      <c r="C266">
+        <v>96</v>
+      </c>
+      <c r="D266" s="2">
+        <v>44760.55019675926</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
+      </c>
+      <c r="F266">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267">
+        <v>42560</v>
+      </c>
+      <c r="B267" t="s">
+        <v>271</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267" s="2">
+        <v>44760.55206018518</v>
+      </c>
+      <c r="E267">
+        <v>18</v>
+      </c>
+      <c r="F267">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268">
+        <v>42560</v>
+      </c>
+      <c r="B268" t="s">
+        <v>272</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" s="2">
+        <v>44760.55214120371</v>
+      </c>
+      <c r="E268">
+        <v>18</v>
+      </c>
+      <c r="F268">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269">
+        <v>42560</v>
+      </c>
+      <c r="B269" t="s">
+        <v>273</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" s="2">
+        <v>44760.55229166667</v>
+      </c>
+      <c r="E269">
+        <v>18</v>
+      </c>
+      <c r="F269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270">
+        <v>42560</v>
+      </c>
+      <c r="B270" t="s">
+        <v>274</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" s="2">
+        <v>44760.55232638889</v>
+      </c>
+      <c r="E270">
+        <v>18</v>
+      </c>
+      <c r="F270">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271">
+        <v>42560</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2">
+        <v>44760.55247685185</v>
+      </c>
+      <c r="E271">
+        <v>18</v>
+      </c>
+      <c r="F271">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272">
+        <v>42560</v>
+      </c>
+      <c r="B272" t="s">
+        <v>276</v>
+      </c>
+      <c r="C272">
+        <v>8</v>
+      </c>
+      <c r="D272" s="2">
+        <v>44760.55310185185</v>
+      </c>
+      <c r="E272">
+        <v>18</v>
+      </c>
+      <c r="F272">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
+      <c r="A273">
+        <v>42560</v>
+      </c>
+      <c r="B273" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273" s="2">
+        <v>44760.55383101852</v>
+      </c>
+      <c r="E273">
+        <v>18</v>
+      </c>
+      <c r="F273">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
+      <c r="A274">
+        <v>42560</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274" s="2">
+        <v>44760.55403935185</v>
+      </c>
+      <c r="E274">
+        <v>18</v>
+      </c>
+      <c r="F274">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
+      <c r="A275">
+        <v>42560</v>
+      </c>
+      <c r="B275" t="s">
+        <v>279</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275" s="2">
+        <v>44760.55417824074</v>
+      </c>
+      <c r="E275">
+        <v>18</v>
+      </c>
+      <c r="F275">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
+      <c r="A276">
+        <v>42560</v>
+      </c>
+      <c r="B276" t="s">
+        <v>280</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276" s="2">
+        <v>44760.55438657408</v>
+      </c>
+      <c r="E276">
+        <v>18</v>
+      </c>
+      <c r="F276">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
+      <c r="A277">
+        <v>42560</v>
+      </c>
+      <c r="B277" t="s">
+        <v>281</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" s="2">
+        <v>44760.55457175926</v>
+      </c>
+      <c r="E277">
+        <v>18</v>
+      </c>
+      <c r="F277">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
+      <c r="A278">
+        <v>42560</v>
+      </c>
+      <c r="B278" t="s">
+        <v>282</v>
+      </c>
+      <c r="C278">
+        <v>3</v>
+      </c>
+      <c r="D278" s="2">
+        <v>44760.55486111111</v>
+      </c>
+      <c r="E278">
+        <v>18</v>
+      </c>
+      <c r="F278">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
+      <c r="A279">
+        <v>42560</v>
+      </c>
+      <c r="B279" t="s">
+        <v>283</v>
+      </c>
+      <c r="C279">
+        <v>1</v>
+      </c>
+      <c r="D279" s="2">
+        <v>44760.55498842592</v>
+      </c>
+      <c r="E279">
+        <v>18</v>
+      </c>
+      <c r="F279">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
+      <c r="A280">
+        <v>42560</v>
+      </c>
+      <c r="B280" t="s">
+        <v>284</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280" s="2">
+        <v>44760.55535879629</v>
+      </c>
+      <c r="E280">
+        <v>18</v>
+      </c>
+      <c r="F280">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
+      <c r="A281">
+        <v>42560</v>
+      </c>
+      <c r="B281" t="s">
+        <v>285</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281" s="2">
+        <v>44760.55559027778</v>
+      </c>
+      <c r="E281">
+        <v>18</v>
+      </c>
+      <c r="F281">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
+      <c r="A282">
+        <v>42560</v>
+      </c>
+      <c r="B282" t="s">
+        <v>286</v>
+      </c>
+      <c r="C282">
+        <v>1</v>
+      </c>
+      <c r="D282" s="2">
+        <v>44760.55630787037</v>
+      </c>
+      <c r="E282">
+        <v>18</v>
+      </c>
+      <c r="F282">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
+      <c r="A283">
+        <v>42560</v>
+      </c>
+      <c r="B283" t="s">
+        <v>287</v>
+      </c>
+      <c r="C283">
+        <v>6</v>
+      </c>
+      <c r="D283" s="2">
+        <v>44760.5565162037</v>
+      </c>
+      <c r="E283">
+        <v>18</v>
+      </c>
+      <c r="F283">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
+      <c r="A284">
+        <v>42560</v>
+      </c>
+      <c r="B284" t="s">
+        <v>288</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" s="2">
+        <v>44760.55658564815</v>
+      </c>
+      <c r="E284">
+        <v>18</v>
+      </c>
+      <c r="F284">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
+      <c r="A285">
+        <v>42560</v>
+      </c>
+      <c r="B285" t="s">
+        <v>289</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" s="2">
+        <v>44760.55675925926</v>
+      </c>
+      <c r="E285">
+        <v>18</v>
+      </c>
+      <c r="F285">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
+      <c r="A286">
+        <v>62463</v>
+      </c>
+      <c r="B286" t="s">
+        <v>290</v>
+      </c>
+      <c r="C286">
+        <v>80</v>
+      </c>
+      <c r="D286" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E286">
+        <v>18</v>
+      </c>
+      <c r="F286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
+      <c r="A287">
+        <v>62463</v>
+      </c>
+      <c r="B287" t="s">
+        <v>291</v>
+      </c>
+      <c r="C287">
+        <v>200</v>
+      </c>
+      <c r="D287" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E287">
+        <v>18</v>
+      </c>
+      <c r="F287">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
+      <c r="A288">
+        <v>62463</v>
+      </c>
+      <c r="B288" t="s">
+        <v>292</v>
+      </c>
+      <c r="C288">
+        <v>100</v>
+      </c>
+      <c r="D288" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E288">
+        <v>18</v>
+      </c>
+      <c r="F288">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
+      <c r="A289">
+        <v>62463</v>
+      </c>
+      <c r="B289" t="s">
+        <v>293</v>
+      </c>
+      <c r="C289">
+        <v>150</v>
+      </c>
+      <c r="D289" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E289">
+        <v>18</v>
+      </c>
+      <c r="F289">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
+      <c r="A290">
+        <v>62463</v>
+      </c>
+      <c r="B290" t="s">
+        <v>294</v>
+      </c>
+      <c r="C290">
+        <v>200</v>
+      </c>
+      <c r="D290" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E290">
+        <v>18</v>
+      </c>
+      <c r="F290">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
+      <c r="A291">
+        <v>62463</v>
+      </c>
+      <c r="B291" t="s">
+        <v>295</v>
+      </c>
+      <c r="C291">
+        <v>100</v>
+      </c>
+      <c r="D291" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E291">
+        <v>18</v>
+      </c>
+      <c r="F291">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
+      <c r="A292">
+        <v>62463</v>
+      </c>
+      <c r="B292" t="s">
+        <v>296</v>
+      </c>
+      <c r="C292">
+        <v>400</v>
+      </c>
+      <c r="D292" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E292">
+        <v>18</v>
+      </c>
+      <c r="F292">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
+      <c r="A293">
+        <v>62463</v>
+      </c>
+      <c r="B293" t="s">
+        <v>297</v>
+      </c>
+      <c r="C293">
+        <v>12</v>
+      </c>
+      <c r="D293" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E293">
+        <v>18</v>
+      </c>
+      <c r="F293">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
+      <c r="A294">
+        <v>62463</v>
+      </c>
+      <c r="B294" t="s">
+        <v>298</v>
+      </c>
+      <c r="C294">
+        <v>20</v>
+      </c>
+      <c r="D294" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E294">
+        <v>18</v>
+      </c>
+      <c r="F294">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
+      <c r="A295">
+        <v>62463</v>
+      </c>
+      <c r="B295" t="s">
+        <v>299</v>
+      </c>
+      <c r="C295">
+        <v>18</v>
+      </c>
+      <c r="D295" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E295">
+        <v>18</v>
+      </c>
+      <c r="F295">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
+      <c r="A296">
+        <v>62463</v>
+      </c>
+      <c r="B296" t="s">
+        <v>300</v>
+      </c>
+      <c r="C296">
+        <v>24</v>
+      </c>
+      <c r="D296" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E296">
+        <v>18</v>
+      </c>
+      <c r="F296">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
+      <c r="A297">
+        <v>62463</v>
+      </c>
+      <c r="B297" t="s">
+        <v>301</v>
+      </c>
+      <c r="C297">
+        <v>30</v>
+      </c>
+      <c r="D297" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E297">
+        <v>18</v>
+      </c>
+      <c r="F297">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
+      <c r="A298">
+        <v>62463</v>
+      </c>
+      <c r="B298" t="s">
+        <v>302</v>
+      </c>
+      <c r="C298">
+        <v>24</v>
+      </c>
+      <c r="D298" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E298">
+        <v>18</v>
+      </c>
+      <c r="F298">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
+      <c r="A299">
+        <v>62463</v>
+      </c>
+      <c r="B299" t="s">
+        <v>303</v>
+      </c>
+      <c r="C299">
+        <v>12</v>
+      </c>
+      <c r="D299" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E299">
+        <v>18</v>
+      </c>
+      <c r="F299">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
+      <c r="A300">
+        <v>62463</v>
+      </c>
+      <c r="B300" t="s">
+        <v>304</v>
+      </c>
+      <c r="C300">
+        <v>12</v>
+      </c>
+      <c r="D300" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E300">
+        <v>18</v>
+      </c>
+      <c r="F300">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
+      <c r="A301">
+        <v>62463</v>
+      </c>
+      <c r="B301" t="s">
+        <v>305</v>
+      </c>
+      <c r="C301">
+        <v>24</v>
+      </c>
+      <c r="D301" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E301">
+        <v>18</v>
+      </c>
+      <c r="F301">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
+      <c r="A302">
+        <v>62463</v>
+      </c>
+      <c r="B302" t="s">
+        <v>306</v>
+      </c>
+      <c r="C302">
+        <v>12</v>
+      </c>
+      <c r="D302" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E302">
+        <v>18</v>
+      </c>
+      <c r="F302">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
+      <c r="A303">
+        <v>62463</v>
+      </c>
+      <c r="B303" t="s">
+        <v>307</v>
+      </c>
+      <c r="C303">
+        <v>12</v>
+      </c>
+      <c r="D303" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E303">
+        <v>18</v>
+      </c>
+      <c r="F303">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
+      <c r="A304">
+        <v>62463</v>
+      </c>
+      <c r="B304" t="s">
+        <v>308</v>
+      </c>
+      <c r="C304">
+        <v>12</v>
+      </c>
+      <c r="D304" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E304">
+        <v>18</v>
+      </c>
+      <c r="F304">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305">
+        <v>62463</v>
+      </c>
+      <c r="B305" t="s">
+        <v>309</v>
+      </c>
+      <c r="C305">
+        <v>24</v>
+      </c>
+      <c r="D305" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E305">
+        <v>18</v>
+      </c>
+      <c r="F305">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306">
+        <v>62463</v>
+      </c>
+      <c r="B306" t="s">
+        <v>310</v>
+      </c>
+      <c r="C306">
+        <v>24</v>
+      </c>
+      <c r="D306" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E306">
+        <v>18</v>
+      </c>
+      <c r="F306">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307">
+        <v>62463</v>
+      </c>
+      <c r="B307" t="s">
+        <v>311</v>
+      </c>
+      <c r="C307">
+        <v>10</v>
+      </c>
+      <c r="D307" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E307">
+        <v>18</v>
+      </c>
+      <c r="F307">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308">
+        <v>62463</v>
+      </c>
+      <c r="B308" t="s">
+        <v>312</v>
+      </c>
+      <c r="C308">
+        <v>24</v>
+      </c>
+      <c r="D308" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E308">
+        <v>18</v>
+      </c>
+      <c r="F308">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309">
+        <v>62463</v>
+      </c>
+      <c r="B309" t="s">
+        <v>313</v>
+      </c>
+      <c r="C309">
+        <v>16</v>
+      </c>
+      <c r="D309" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E309">
+        <v>18</v>
+      </c>
+      <c r="F309">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310">
+        <v>62463</v>
+      </c>
+      <c r="B310" t="s">
+        <v>314</v>
+      </c>
+      <c r="C310">
+        <v>16</v>
+      </c>
+      <c r="D310" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E310">
+        <v>18</v>
+      </c>
+      <c r="F310">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311">
+        <v>62463</v>
+      </c>
+      <c r="B311" t="s">
+        <v>315</v>
+      </c>
+      <c r="C311">
+        <v>48</v>
+      </c>
+      <c r="D311" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E311">
+        <v>18</v>
+      </c>
+      <c r="F311">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312">
+        <v>62463</v>
+      </c>
+      <c r="B312" t="s">
+        <v>316</v>
+      </c>
+      <c r="C312">
+        <v>20</v>
+      </c>
+      <c r="D312" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E312">
+        <v>18</v>
+      </c>
+      <c r="F312">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313">
+        <v>62463</v>
+      </c>
+      <c r="B313" t="s">
+        <v>317</v>
+      </c>
+      <c r="C313">
+        <v>20</v>
+      </c>
+      <c r="D313" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E313">
+        <v>18</v>
+      </c>
+      <c r="F313">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314">
+        <v>62463</v>
+      </c>
+      <c r="B314" t="s">
+        <v>318</v>
+      </c>
+      <c r="C314">
+        <v>24</v>
+      </c>
+      <c r="D314" s="2">
+        <v>44760.51670138889</v>
+      </c>
+      <c r="E314">
+        <v>18</v>
+      </c>
+      <c r="F314">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315">
+        <v>62463</v>
+      </c>
+      <c r="B315" t="s">
+        <v>319</v>
+      </c>
+      <c r="C315">
+        <v>10</v>
+      </c>
+      <c r="D315" s="2">
+        <v>44760.51690972222</v>
+      </c>
+      <c r="E315">
+        <v>18</v>
+      </c>
+      <c r="F315">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316">
+        <v>62463</v>
+      </c>
+      <c r="B316" t="s">
+        <v>320</v>
+      </c>
+      <c r="C316">
+        <v>10</v>
+      </c>
+      <c r="D316" s="2">
+        <v>44760.51694444445</v>
+      </c>
+      <c r="E316">
+        <v>18</v>
+      </c>
+      <c r="F316">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317">
+        <v>62463</v>
+      </c>
+      <c r="B317" t="s">
+        <v>321</v>
+      </c>
+      <c r="C317">
+        <v>24</v>
+      </c>
+      <c r="D317" s="2">
+        <v>44760.51697916666</v>
+      </c>
+      <c r="E317">
+        <v>18</v>
+      </c>
+      <c r="F317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318">
+        <v>62463</v>
+      </c>
+      <c r="B318" t="s">
+        <v>322</v>
+      </c>
+      <c r="C318">
+        <v>24</v>
+      </c>
+      <c r="D318" s="2">
+        <v>44760.51791666666</v>
+      </c>
+      <c r="E318">
+        <v>18</v>
+      </c>
+      <c r="F318">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319">
+        <v>62463</v>
+      </c>
+      <c r="B319" t="s">
+        <v>323</v>
+      </c>
+      <c r="C319">
+        <v>20</v>
+      </c>
+      <c r="D319" s="2">
+        <v>44760.51799768519</v>
+      </c>
+      <c r="E319">
+        <v>18</v>
+      </c>
+      <c r="F319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320">
+        <v>62463</v>
+      </c>
+      <c r="B320" t="s">
+        <v>324</v>
+      </c>
+      <c r="C320">
+        <v>20</v>
+      </c>
+      <c r="D320" s="2">
+        <v>44760.51817129629</v>
+      </c>
+      <c r="E320">
+        <v>18</v>
+      </c>
+      <c r="F320">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
+      <c r="A321">
+        <v>62463</v>
+      </c>
+      <c r="B321" t="s">
+        <v>325</v>
+      </c>
+      <c r="C321">
+        <v>50</v>
+      </c>
+      <c r="D321" s="2">
+        <v>44760.51833333333</v>
+      </c>
+      <c r="E321">
+        <v>18</v>
+      </c>
+      <c r="F321">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
+      <c r="A322">
+        <v>62463</v>
+      </c>
+      <c r="B322" t="s">
+        <v>326</v>
+      </c>
+      <c r="C322">
+        <v>36</v>
+      </c>
+      <c r="D322" s="2">
+        <v>44760.51842592593</v>
+      </c>
+      <c r="E322">
+        <v>18</v>
+      </c>
+      <c r="F322">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
+      <c r="A323">
+        <v>62463</v>
+      </c>
+      <c r="B323" t="s">
+        <v>327</v>
+      </c>
+      <c r="C323">
+        <v>24</v>
+      </c>
+      <c r="D323" s="2">
+        <v>44760.5184837963</v>
+      </c>
+      <c r="E323">
+        <v>18</v>
+      </c>
+      <c r="F323">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
+      <c r="A324">
+        <v>62463</v>
+      </c>
+      <c r="B324" t="s">
+        <v>328</v>
+      </c>
+      <c r="C324">
+        <v>24</v>
+      </c>
+      <c r="D324" s="2">
+        <v>44760.5185300926</v>
+      </c>
+      <c r="E324">
+        <v>18</v>
+      </c>
+      <c r="F324">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
+      <c r="A325">
+        <v>62463</v>
+      </c>
+      <c r="B325" t="s">
+        <v>329</v>
+      </c>
+      <c r="C325">
+        <v>12</v>
+      </c>
+      <c r="D325" s="2">
+        <v>44760.51857638889</v>
+      </c>
+      <c r="E325">
+        <v>18</v>
+      </c>
+      <c r="F325">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
+      <c r="A326">
+        <v>62463</v>
+      </c>
+      <c r="B326" t="s">
+        <v>330</v>
+      </c>
+      <c r="C326">
+        <v>12</v>
+      </c>
+      <c r="D326" s="2">
+        <v>44760.51859953703</v>
+      </c>
+      <c r="E326">
+        <v>18</v>
+      </c>
+      <c r="F326">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
+      <c r="A327">
+        <v>62463</v>
+      </c>
+      <c r="B327" t="s">
+        <v>331</v>
+      </c>
+      <c r="C327">
+        <v>12</v>
+      </c>
+      <c r="D327" s="2">
+        <v>44760.52266203704</v>
+      </c>
+      <c r="E327">
+        <v>18</v>
+      </c>
+      <c r="F327">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
+      <c r="A328">
+        <v>62463</v>
+      </c>
+      <c r="B328" t="s">
+        <v>332</v>
+      </c>
+      <c r="C328">
+        <v>12</v>
+      </c>
+      <c r="D328" s="2">
+        <v>44760.52341435185</v>
+      </c>
+      <c r="E328">
+        <v>18</v>
+      </c>
+      <c r="F328">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
+      <c r="A329">
+        <v>62463</v>
+      </c>
+      <c r="B329" t="s">
+        <v>333</v>
+      </c>
+      <c r="C329">
+        <v>12</v>
+      </c>
+      <c r="D329" s="2">
+        <v>44760.52351851852</v>
+      </c>
+      <c r="E329">
+        <v>18</v>
+      </c>
+      <c r="F329">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
+      <c r="A330">
+        <v>62463</v>
+      </c>
+      <c r="B330" t="s">
+        <v>334</v>
+      </c>
+      <c r="C330">
+        <v>12</v>
+      </c>
+      <c r="D330" s="2">
+        <v>44760.52377314815</v>
+      </c>
+      <c r="E330">
+        <v>18</v>
+      </c>
+      <c r="F330">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
+      <c r="A331">
+        <v>62463</v>
+      </c>
+      <c r="B331" t="s">
+        <v>335</v>
+      </c>
+      <c r="C331">
+        <v>12</v>
+      </c>
+      <c r="D331" s="2">
+        <v>44760.52381944445</v>
+      </c>
+      <c r="E331">
+        <v>18</v>
+      </c>
+      <c r="F331">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
+      <c r="A332">
+        <v>62463</v>
+      </c>
+      <c r="B332" t="s">
+        <v>336</v>
+      </c>
+      <c r="C332">
+        <v>12</v>
+      </c>
+      <c r="D332" s="2">
+        <v>44760.52422453704</v>
+      </c>
+      <c r="E332">
+        <v>18</v>
+      </c>
+      <c r="F332">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
+      <c r="A333">
+        <v>62463</v>
+      </c>
+      <c r="B333" t="s">
+        <v>337</v>
+      </c>
+      <c r="C333">
+        <v>12</v>
+      </c>
+      <c r="D333" s="2">
+        <v>44760.52427083333</v>
+      </c>
+      <c r="E333">
+        <v>18</v>
+      </c>
+      <c r="F333">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="A334">
+        <v>62463</v>
+      </c>
+      <c r="B334" t="s">
+        <v>338</v>
+      </c>
+      <c r="C334">
+        <v>12</v>
+      </c>
+      <c r="D334" s="2">
+        <v>44760.52434027778</v>
+      </c>
+      <c r="E334">
+        <v>18</v>
+      </c>
+      <c r="F334">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
+      <c r="A335">
+        <v>62463</v>
+      </c>
+      <c r="B335" t="s">
+        <v>339</v>
+      </c>
+      <c r="C335">
+        <v>12</v>
+      </c>
+      <c r="D335" s="2">
+        <v>44760.52442129629</v>
+      </c>
+      <c r="E335">
+        <v>18</v>
+      </c>
+      <c r="F335">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
+      <c r="A336">
+        <v>62463</v>
+      </c>
+      <c r="B336" t="s">
+        <v>340</v>
+      </c>
+      <c r="C336">
+        <v>12</v>
+      </c>
+      <c r="D336" s="2">
+        <v>44760.52451388889</v>
+      </c>
+      <c r="E336">
+        <v>18</v>
+      </c>
+      <c r="F336">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
+      <c r="A337">
+        <v>62463</v>
+      </c>
+      <c r="B337" t="s">
+        <v>341</v>
+      </c>
+      <c r="C337">
+        <v>12</v>
+      </c>
+      <c r="D337" s="2">
+        <v>44760.5246412037</v>
+      </c>
+      <c r="E337">
+        <v>18</v>
+      </c>
+      <c r="F337">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
+      <c r="A338">
+        <v>62463</v>
+      </c>
+      <c r="B338" t="s">
+        <v>342</v>
+      </c>
+      <c r="C338">
+        <v>12</v>
+      </c>
+      <c r="D338" s="2">
+        <v>44760.52482638889</v>
+      </c>
+      <c r="E338">
+        <v>18</v>
+      </c>
+      <c r="F338">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
+      <c r="A339">
+        <v>62463</v>
+      </c>
+      <c r="B339" t="s">
+        <v>343</v>
+      </c>
+      <c r="C339">
+        <v>12</v>
+      </c>
+      <c r="D339" s="2">
+        <v>44760.52488425926</v>
+      </c>
+      <c r="E339">
+        <v>18</v>
+      </c>
+      <c r="F339">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
+      <c r="A340">
+        <v>62463</v>
+      </c>
+      <c r="B340" t="s">
+        <v>344</v>
+      </c>
+      <c r="C340">
+        <v>12</v>
+      </c>
+      <c r="D340" s="2">
+        <v>44760.52700231481</v>
+      </c>
+      <c r="E340">
+        <v>18</v>
+      </c>
+      <c r="F340">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
+      <c r="A341">
+        <v>62463</v>
+      </c>
+      <c r="B341" t="s">
+        <v>345</v>
+      </c>
+      <c r="C341">
+        <v>12</v>
+      </c>
+      <c r="D341" s="2">
+        <v>44760.52824074074</v>
+      </c>
+      <c r="E341">
+        <v>18</v>
+      </c>
+      <c r="F341">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342">
+        <v>62463</v>
+      </c>
+      <c r="B342" t="s">
+        <v>346</v>
+      </c>
+      <c r="C342">
+        <v>72</v>
+      </c>
+      <c r="D342" s="2">
+        <v>44760.52954861111</v>
+      </c>
+      <c r="E342">
+        <v>18</v>
+      </c>
+      <c r="F342">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tmp_output/docked_raw/docked_raw_July.xlsx
+++ b/tmp_output/docked_raw/docked_raw_July.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>員編</t>
   </si>
@@ -32,12 +32,615 @@
   </si>
   <si>
     <t>HOUR</t>
+  </si>
+  <si>
+    <t>INTWK0002207210031</t>
+  </si>
+  <si>
+    <t>INTWK0002207210029</t>
+  </si>
+  <si>
+    <t>INTWK0002207150639</t>
+  </si>
+  <si>
+    <t>INTWK0002207150646</t>
+  </si>
+  <si>
+    <t>INTWK0002207150647</t>
+  </si>
+  <si>
+    <t>INTWK0002207150644</t>
+  </si>
+  <si>
+    <t>INTWK0002207150636</t>
+  </si>
+  <si>
+    <t>INTWK0002207150645</t>
+  </si>
+  <si>
+    <t>INTWK0002207150652</t>
+  </si>
+  <si>
+    <t>INTWK0002207150634</t>
+  </si>
+  <si>
+    <t>INTWK0002207150651</t>
+  </si>
+  <si>
+    <t>INTWK0002207150643</t>
+  </si>
+  <si>
+    <t>INTWK0002207150660</t>
+  </si>
+  <si>
+    <t>INTWK0002207150653</t>
+  </si>
+  <si>
+    <t>INTWK0002207150641</t>
+  </si>
+  <si>
+    <t>INTWK0002207150648</t>
+  </si>
+  <si>
+    <t>INTWK0002207150663</t>
+  </si>
+  <si>
+    <t>INTWK0002207150662</t>
+  </si>
+  <si>
+    <t>INTWK0002207150655</t>
+  </si>
+  <si>
+    <t>INTWK0002207150661</t>
+  </si>
+  <si>
+    <t>INTWK0002207150632</t>
+  </si>
+  <si>
+    <t>INTWK0002207150649</t>
+  </si>
+  <si>
+    <t>INTWK0002207150631</t>
+  </si>
+  <si>
+    <t>INTWK0002207150658</t>
+  </si>
+  <si>
+    <t>INTWK0002207150659</t>
+  </si>
+  <si>
+    <t>INTWK0002207150654</t>
+  </si>
+  <si>
+    <t>INTWK0002207150637</t>
+  </si>
+  <si>
+    <t>INTWK0002207150635</t>
+  </si>
+  <si>
+    <t>INTWK0002207150650</t>
+  </si>
+  <si>
+    <t>INTWK0002207150638</t>
+  </si>
+  <si>
+    <t>INTWK0002207150640</t>
+  </si>
+  <si>
+    <t>INTWK0002207150642</t>
+  </si>
+  <si>
+    <t>INTWK0002207150656</t>
+  </si>
+  <si>
+    <t>INTWK0002207150657</t>
+  </si>
+  <si>
+    <t>INTWK0002207190078</t>
+  </si>
+  <si>
+    <t>INTWK0002207190079</t>
+  </si>
+  <si>
+    <t>INTWK0002207220127</t>
+  </si>
+  <si>
+    <t>INTWK0002207180269</t>
+  </si>
+  <si>
+    <t>INTWK0002207180272</t>
+  </si>
+  <si>
+    <t>INTWK0002207180244</t>
+  </si>
+  <si>
+    <t>INTWK0002207180212</t>
+  </si>
+  <si>
+    <t>INTWK0002207180234</t>
+  </si>
+  <si>
+    <t>INTWK0002207180184</t>
+  </si>
+  <si>
+    <t>INTWK0002207180238</t>
+  </si>
+  <si>
+    <t>INTWK0002207180247</t>
+  </si>
+  <si>
+    <t>INTWK0002207180257</t>
+  </si>
+  <si>
+    <t>INTWK0002207180205</t>
+  </si>
+  <si>
+    <t>INTWK0002207180236</t>
+  </si>
+  <si>
+    <t>INTWK0002207180232</t>
+  </si>
+  <si>
+    <t>INTWK0002207180185</t>
+  </si>
+  <si>
+    <t>INTWK0002207180211</t>
+  </si>
+  <si>
+    <t>INTWK0002207180254</t>
+  </si>
+  <si>
+    <t>INTWK0002207180252</t>
+  </si>
+  <si>
+    <t>INTWK0002207180267</t>
+  </si>
+  <si>
+    <t>INTWK0002207180188</t>
+  </si>
+  <si>
+    <t>INTWK0002207180256</t>
+  </si>
+  <si>
+    <t>INTWK0002207180260</t>
+  </si>
+  <si>
+    <t>INTWK0002207180229</t>
+  </si>
+  <si>
+    <t>INTWK0002207180243</t>
+  </si>
+  <si>
+    <t>INTWK0002207180206</t>
+  </si>
+  <si>
+    <t>INTWK0002207180190</t>
+  </si>
+  <si>
+    <t>INTWK0002207180271</t>
+  </si>
+  <si>
+    <t>INTWK0002207180202</t>
+  </si>
+  <si>
+    <t>INTWK0002207180221</t>
+  </si>
+  <si>
+    <t>INTWK0002207180216</t>
+  </si>
+  <si>
+    <t>INTWK0002207180183</t>
+  </si>
+  <si>
+    <t>INTWK0002207180213</t>
+  </si>
+  <si>
+    <t>INTWK0002207180245</t>
+  </si>
+  <si>
+    <t>INTWK0002207180265</t>
+  </si>
+  <si>
+    <t>INTWK0002207180241</t>
+  </si>
+  <si>
+    <t>INTWK0002207180225</t>
+  </si>
+  <si>
+    <t>INTWK0002207180233</t>
+  </si>
+  <si>
+    <t>INTWK0002207180204</t>
+  </si>
+  <si>
+    <t>INTWK0002207180218</t>
+  </si>
+  <si>
+    <t>INTWK0002207180201</t>
+  </si>
+  <si>
+    <t>INTWK0002207180226</t>
+  </si>
+  <si>
+    <t>INTWK0002207180242</t>
+  </si>
+  <si>
+    <t>INTWK0002207180263</t>
+  </si>
+  <si>
+    <t>INTWK0002207180227</t>
+  </si>
+  <si>
+    <t>INTWK0002207180214</t>
+  </si>
+  <si>
+    <t>INTWK0002207180237</t>
+  </si>
+  <si>
+    <t>INTWK0002207180248</t>
+  </si>
+  <si>
+    <t>INTWK0002207180222</t>
+  </si>
+  <si>
+    <t>INTWK0002207180223</t>
+  </si>
+  <si>
+    <t>INTWK0002207180268</t>
+  </si>
+  <si>
+    <t>INTWK0002207180186</t>
+  </si>
+  <si>
+    <t>INTWK0002207180182</t>
+  </si>
+  <si>
+    <t>INTWK0002207180258</t>
+  </si>
+  <si>
+    <t>INTWK0002207180215</t>
+  </si>
+  <si>
+    <t>INTWK0002207180246</t>
+  </si>
+  <si>
+    <t>INTWK0002207180259</t>
+  </si>
+  <si>
+    <t>INTWK0002207180189</t>
+  </si>
+  <si>
+    <t>INTWK0002207180266</t>
+  </si>
+  <si>
+    <t>INTWK0002207180219</t>
+  </si>
+  <si>
+    <t>INTWK0002207180224</t>
+  </si>
+  <si>
+    <t>INTWK0002207180264</t>
+  </si>
+  <si>
+    <t>INTWK0002207180208</t>
+  </si>
+  <si>
+    <t>INTWK0002207180251</t>
+  </si>
+  <si>
+    <t>INTWK0002207180210</t>
+  </si>
+  <si>
+    <t>INTWK0002207180207</t>
+  </si>
+  <si>
+    <t>INTWK0002207180255</t>
+  </si>
+  <si>
+    <t>INTWK0002207180235</t>
+  </si>
+  <si>
+    <t>INTWK0002207180203</t>
+  </si>
+  <si>
+    <t>INTWK0002207180261</t>
+  </si>
+  <si>
+    <t>INTWK0002207180187</t>
+  </si>
+  <si>
+    <t>INTWK0002207180239</t>
+  </si>
+  <si>
+    <t>INTWK0002207180230</t>
+  </si>
+  <si>
+    <t>INTWK0002207180250</t>
+  </si>
+  <si>
+    <t>INTWK0002207180231</t>
+  </si>
+  <si>
+    <t>INTWK0002207180270</t>
+  </si>
+  <si>
+    <t>INTWK0002207180262</t>
+  </si>
+  <si>
+    <t>INTWK0002207180220</t>
+  </si>
+  <si>
+    <t>INTWK0002207180228</t>
+  </si>
+  <si>
+    <t>INTWK0002207180240</t>
+  </si>
+  <si>
+    <t>INTWK0002207180209</t>
+  </si>
+  <si>
+    <t>INTWK0002207180217</t>
+  </si>
+  <si>
+    <t>INTWK0002207180112</t>
+  </si>
+  <si>
+    <t>INTWK0002207180111</t>
+  </si>
+  <si>
+    <t>INTWK0002207190101</t>
+  </si>
+  <si>
+    <t>INTWK0002207150042</t>
+  </si>
+  <si>
+    <t>INTWK0002207180326</t>
+  </si>
+  <si>
+    <t>INTWK0002207180351</t>
+  </si>
+  <si>
+    <t>INTWK0002207180331</t>
+  </si>
+  <si>
+    <t>INTWK0002207180334</t>
+  </si>
+  <si>
+    <t>INTWK0002207180325</t>
+  </si>
+  <si>
+    <t>INTWK0002207180339</t>
+  </si>
+  <si>
+    <t>INTWK0002207180337</t>
+  </si>
+  <si>
+    <t>INTWK0002207180336</t>
+  </si>
+  <si>
+    <t>INTWK0002207180347</t>
+  </si>
+  <si>
+    <t>INTWK0002207180324</t>
+  </si>
+  <si>
+    <t>INTWK0002207180346</t>
+  </si>
+  <si>
+    <t>INTWK0002207180338</t>
+  </si>
+  <si>
+    <t>INTWK0002207180348</t>
+  </si>
+  <si>
+    <t>INTWK0002207180335</t>
+  </si>
+  <si>
+    <t>INTWK0002207180332</t>
+  </si>
+  <si>
+    <t>INTWK0002207180330</t>
+  </si>
+  <si>
+    <t>INTWK0002207180344</t>
+  </si>
+  <si>
+    <t>INTWK0002207180323</t>
+  </si>
+  <si>
+    <t>INTWK0002207180340</t>
+  </si>
+  <si>
+    <t>INTWK0002207180342</t>
+  </si>
+  <si>
+    <t>INTWK0002207180329</t>
+  </si>
+  <si>
+    <t>INTWK0002207180350</t>
+  </si>
+  <si>
+    <t>INTWK0002207180333</t>
+  </si>
+  <si>
+    <t>INTWK0002207180343</t>
+  </si>
+  <si>
+    <t>INTWK0002207180328</t>
+  </si>
+  <si>
+    <t>INTWK0002207180345</t>
+  </si>
+  <si>
+    <t>INTWK0002207180349</t>
+  </si>
+  <si>
+    <t>INTWK0002207180322</t>
+  </si>
+  <si>
+    <t>INTWK0002207180341</t>
+  </si>
+  <si>
+    <t>INTWK0002207200315</t>
+  </si>
+  <si>
+    <t>INTWK0002207200327</t>
+  </si>
+  <si>
+    <t>INTWK0002207200323</t>
+  </si>
+  <si>
+    <t>INTWK0002207200325</t>
+  </si>
+  <si>
+    <t>INTWK0002207200324</t>
+  </si>
+  <si>
+    <t>INTWK0002207200303</t>
+  </si>
+  <si>
+    <t>INTWK0002207200318</t>
+  </si>
+  <si>
+    <t>INTWK0002207200307</t>
+  </si>
+  <si>
+    <t>INTWK0002207200305</t>
+  </si>
+  <si>
+    <t>INTWK0002207200309</t>
+  </si>
+  <si>
+    <t>INTWK0002207200310</t>
+  </si>
+  <si>
+    <t>INTWK0002207200311</t>
+  </si>
+  <si>
+    <t>INTWK0002207200312</t>
+  </si>
+  <si>
+    <t>INTWK0002207200306</t>
+  </si>
+  <si>
+    <t>INTWK0002207200302</t>
+  </si>
+  <si>
+    <t>INTWK0002207200322</t>
+  </si>
+  <si>
+    <t>INTWK0002207200326</t>
+  </si>
+  <si>
+    <t>INTWK0002207200321</t>
+  </si>
+  <si>
+    <t>INTWK0002207200316</t>
+  </si>
+  <si>
+    <t>INTWK0002207200280</t>
+  </si>
+  <si>
+    <t>INTWK0002207200320</t>
+  </si>
+  <si>
+    <t>INTWK0002207200319</t>
+  </si>
+  <si>
+    <t>INTWK0002207200304</t>
+  </si>
+  <si>
+    <t>INTWK0002207200314</t>
+  </si>
+  <si>
+    <t>INTWK0002207200301</t>
+  </si>
+  <si>
+    <t>INTWK0002207210158</t>
+  </si>
+  <si>
+    <t>INTWK0002207210153</t>
+  </si>
+  <si>
+    <t>INTWK0002207210160</t>
+  </si>
+  <si>
+    <t>INTWK0002207210156</t>
+  </si>
+  <si>
+    <t>INTWK0002207210159</t>
+  </si>
+  <si>
+    <t>INTWK0002207210155</t>
+  </si>
+  <si>
+    <t>INTWK0002207210154</t>
+  </si>
+  <si>
+    <t>INTWK0002207210157</t>
+  </si>
+  <si>
+    <t>INTWK0002207210152</t>
+  </si>
+  <si>
+    <t>INTWK0002207220112</t>
+  </si>
+  <si>
+    <t>INTWK0002207190250</t>
+  </si>
+  <si>
+    <t>INTWK0002207190272</t>
+  </si>
+  <si>
+    <t>INTWK0002207190273</t>
+  </si>
+  <si>
+    <t>INTWK0002207190249</t>
+  </si>
+  <si>
+    <t>INTWK0002207190271</t>
+  </si>
+  <si>
+    <t>INTWK0002207190274</t>
+  </si>
+  <si>
+    <t>INTWK0002207210145</t>
+  </si>
+  <si>
+    <t>INTWK0002207210161</t>
+  </si>
+  <si>
+    <t>INTWK0002207210144</t>
+  </si>
+  <si>
+    <t>INTWK0002207210150</t>
+  </si>
+  <si>
+    <t>INTWK0002207210148</t>
+  </si>
+  <si>
+    <t>INTWK0002207210149</t>
+  </si>
+  <si>
+    <t>INTWK0002207200205</t>
+  </si>
+  <si>
+    <t>INTWK0002207200204</t>
+  </si>
+  <si>
+    <t>INTWK0002207210241</t>
+  </si>
+  <si>
+    <t>INTWK0002207200203</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -90,11 +693,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,7 +993,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,6 +1019,4006 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>126159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44767.38313657408</v>
+      </c>
+      <c r="E2">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>126159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44767.38135416667</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>126159</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44767.38320601852</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>126159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44767.38334490741</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>126159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44767.38342592592</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>126159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44767.38362268519</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>126159</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44767.38372685185</v>
+      </c>
+      <c r="E8">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>126159</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44767.38379629629</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>126159</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44767.38385416667</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>126159</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44767.38393518519</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>126159</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44767.38400462963</v>
+      </c>
+      <c r="E12">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>126159</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44767.38405092592</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>126159</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44767.38572916666</v>
+      </c>
+      <c r="E14">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>126159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44767.38581018519</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>126159</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>36</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44767.38600694444</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>126159</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44767.38613425926</v>
+      </c>
+      <c r="E17">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>126159</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44767.38625</v>
+      </c>
+      <c r="E18">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>126159</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44767.38641203703</v>
+      </c>
+      <c r="E19">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>126159</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44767.38652777778</v>
+      </c>
+      <c r="E20">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>126159</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44767.3866087963</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>126159</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44767.3877199074</v>
+      </c>
+      <c r="E22">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>126159</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44767.38784722222</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>126159</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44767.38902777778</v>
+      </c>
+      <c r="E24">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>126159</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44767.38953703704</v>
+      </c>
+      <c r="E25">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>126159</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44767.38971064815</v>
+      </c>
+      <c r="E26">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>126159</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44767.39043981482</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>126159</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44767.39074074074</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>126159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44767.39137731482</v>
+      </c>
+      <c r="E29">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>126159</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44767.3915162037</v>
+      </c>
+      <c r="E30">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>126159</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44767.39158564815</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>126159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44767.3918287037</v>
+      </c>
+      <c r="E32">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>126159</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>12</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44767.39189814815</v>
+      </c>
+      <c r="E33">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>126159</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44767.39203703704</v>
+      </c>
+      <c r="E34">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>126159</v>
+      </c>
+      <c r="B35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44767.39229166666</v>
+      </c>
+      <c r="E35">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>126159</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36">
+        <v>300</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E36">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>126159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>126159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38">
+        <v>60</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E38">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>126159</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E39">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>126159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E40">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>126159</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>126159</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E42">
+        <v>25</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>126159</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E43">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>126159</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>126159</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E45">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>126159</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E46">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>126159</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>36</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E47">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>126159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E48">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>126159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E49">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>126159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E50">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>126159</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E51">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>126159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>126159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>30</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E53">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>126159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>36</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E54">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>126159</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>24</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E55">
+        <v>25</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>126159</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E56">
+        <v>25</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>126159</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E57">
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>126159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E58">
+        <v>25</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>126159</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E59">
+        <v>25</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>126159</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E60">
+        <v>25</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>126159</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>30</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E61">
+        <v>25</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>126159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E62">
+        <v>25</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>126159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E63">
+        <v>25</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>126159</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E64">
+        <v>25</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>126159</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E65">
+        <v>25</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>126159</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>180</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E66">
+        <v>25</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>126159</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E67">
+        <v>25</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>126159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>126159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E69">
+        <v>25</v>
+      </c>
+      <c r="F69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>126159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E70">
+        <v>25</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>126159</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71">
+        <v>24</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E71">
+        <v>25</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>126159</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E72">
+        <v>25</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>126159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E73">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>126159</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E74">
+        <v>25</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>126159</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E75">
+        <v>25</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>126159</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E76">
+        <v>25</v>
+      </c>
+      <c r="F76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>126159</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E77">
+        <v>25</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>126159</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E78">
+        <v>25</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>126159</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E79">
+        <v>25</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>126159</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C80">
+        <v>24</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>126159</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="C81">
+        <v>24</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E81">
+        <v>25</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>126159</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E82">
+        <v>25</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>126159</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C83">
+        <v>42</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E83">
+        <v>25</v>
+      </c>
+      <c r="F83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>126159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="C84">
+        <v>15</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E84">
+        <v>25</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>126159</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E85">
+        <v>25</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>126159</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>15</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E86">
+        <v>25</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>126159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="C87">
+        <v>12</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E87">
+        <v>25</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>126159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="C88">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E88">
+        <v>25</v>
+      </c>
+      <c r="F88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>126159</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E89">
+        <v>25</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>126159</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E90">
+        <v>25</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>126159</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E91">
+        <v>25</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>126159</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C92">
+        <v>24</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E92">
+        <v>25</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>126159</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93">
+        <v>36</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E93">
+        <v>25</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>126159</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E94">
+        <v>25</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>126159</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="C95">
+        <v>24</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E95">
+        <v>25</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>126159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C96">
+        <v>15</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E96">
+        <v>25</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>126159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97">
+        <v>15</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E97">
+        <v>25</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>126159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+      <c r="C98">
+        <v>24</v>
+      </c>
+      <c r="D98" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E98">
+        <v>25</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>126159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E99">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>126159</v>
+      </c>
+      <c r="B100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E100">
+        <v>25</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>126159</v>
+      </c>
+      <c r="B101" t="s">
+        <v>105</v>
+      </c>
+      <c r="C101">
+        <v>18</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E101">
+        <v>25</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>126159</v>
+      </c>
+      <c r="B102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E102">
+        <v>25</v>
+      </c>
+      <c r="F102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>126159</v>
+      </c>
+      <c r="B103" t="s">
+        <v>107</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E103">
+        <v>25</v>
+      </c>
+      <c r="F103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>126159</v>
+      </c>
+      <c r="B104" t="s">
+        <v>108</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E104">
+        <v>25</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>126159</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E105">
+        <v>25</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>126159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>110</v>
+      </c>
+      <c r="C106">
+        <v>24</v>
+      </c>
+      <c r="D106" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E106">
+        <v>25</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>126159</v>
+      </c>
+      <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107">
+        <v>15</v>
+      </c>
+      <c r="D107" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E107">
+        <v>25</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>126159</v>
+      </c>
+      <c r="B108" t="s">
+        <v>112</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E108">
+        <v>25</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>126159</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109">
+        <v>12</v>
+      </c>
+      <c r="D109" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E109">
+        <v>25</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>126159</v>
+      </c>
+      <c r="B110" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2">
+        <v>44767.4342824074</v>
+      </c>
+      <c r="E110">
+        <v>25</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>126159</v>
+      </c>
+      <c r="B111" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>44767.43430555556</v>
+      </c>
+      <c r="E111">
+        <v>25</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>126159</v>
+      </c>
+      <c r="B112" t="s">
+        <v>116</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+      <c r="D112" s="2">
+        <v>44767.43446759259</v>
+      </c>
+      <c r="E112">
+        <v>25</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>126159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113" s="2">
+        <v>44767.43450231481</v>
+      </c>
+      <c r="E113">
+        <v>25</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>126159</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114" s="2">
+        <v>44767.4346412037</v>
+      </c>
+      <c r="E114">
+        <v>25</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>126159</v>
+      </c>
+      <c r="B115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115">
+        <v>42</v>
+      </c>
+      <c r="D115" s="2">
+        <v>44767.43472222222</v>
+      </c>
+      <c r="E115">
+        <v>25</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>126159</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2">
+        <v>44767.43479166667</v>
+      </c>
+      <c r="E116">
+        <v>25</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>126159</v>
+      </c>
+      <c r="B117" t="s">
+        <v>121</v>
+      </c>
+      <c r="C117">
+        <v>24</v>
+      </c>
+      <c r="D117" s="2">
+        <v>44767.43486111111</v>
+      </c>
+      <c r="E117">
+        <v>25</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>126159</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118">
+        <v>30</v>
+      </c>
+      <c r="D118" s="2">
+        <v>44767.43716435185</v>
+      </c>
+      <c r="E118">
+        <v>25</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>126159</v>
+      </c>
+      <c r="B119" t="s">
+        <v>123</v>
+      </c>
+      <c r="C119">
+        <v>48</v>
+      </c>
+      <c r="D119" s="2">
+        <v>44767.4375</v>
+      </c>
+      <c r="E119">
+        <v>25</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>126159</v>
+      </c>
+      <c r="B120" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120">
+        <v>100</v>
+      </c>
+      <c r="D120" s="2">
+        <v>44767.43847222222</v>
+      </c>
+      <c r="E120">
+        <v>25</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>126159</v>
+      </c>
+      <c r="B121" t="s">
+        <v>125</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121" s="2">
+        <v>44767.43850694445</v>
+      </c>
+      <c r="E121">
+        <v>25</v>
+      </c>
+      <c r="F121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>126159</v>
+      </c>
+      <c r="B122" t="s">
+        <v>126</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2">
+        <v>44767.43936342592</v>
+      </c>
+      <c r="E122">
+        <v>25</v>
+      </c>
+      <c r="F122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>126159</v>
+      </c>
+      <c r="B123" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" s="2">
+        <v>44767.43967592593</v>
+      </c>
+      <c r="E123">
+        <v>25</v>
+      </c>
+      <c r="F123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>126159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" s="2">
+        <v>44767.43967592593</v>
+      </c>
+      <c r="E124">
+        <v>25</v>
+      </c>
+      <c r="F124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>126159</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" s="2">
+        <v>44767.4396875</v>
+      </c>
+      <c r="E125">
+        <v>25</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>126159</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" s="2">
+        <v>44767.4396875</v>
+      </c>
+      <c r="E126">
+        <v>25</v>
+      </c>
+      <c r="F126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>126159</v>
+      </c>
+      <c r="B127" t="s">
+        <v>131</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" s="2">
+        <v>44767.43969907407</v>
+      </c>
+      <c r="E127">
+        <v>25</v>
+      </c>
+      <c r="F127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>126159</v>
+      </c>
+      <c r="B128" t="s">
+        <v>132</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" s="2">
+        <v>44767.43972222223</v>
+      </c>
+      <c r="E128">
+        <v>25</v>
+      </c>
+      <c r="F128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>126159</v>
+      </c>
+      <c r="B129" t="s">
+        <v>133</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" s="2">
+        <v>44767.43974537037</v>
+      </c>
+      <c r="E129">
+        <v>25</v>
+      </c>
+      <c r="F129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>126159</v>
+      </c>
+      <c r="B130" t="s">
+        <v>134</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2">
+        <v>44767.43978009259</v>
+      </c>
+      <c r="E130">
+        <v>25</v>
+      </c>
+      <c r="F130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>126159</v>
+      </c>
+      <c r="B131" t="s">
+        <v>135</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" s="2">
+        <v>44767.43980324074</v>
+      </c>
+      <c r="E131">
+        <v>25</v>
+      </c>
+      <c r="F131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>126159</v>
+      </c>
+      <c r="B132" t="s">
+        <v>136</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2">
+        <v>44767.43982638889</v>
+      </c>
+      <c r="E132">
+        <v>25</v>
+      </c>
+      <c r="F132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>126159</v>
+      </c>
+      <c r="B133" t="s">
+        <v>137</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" s="2">
+        <v>44767.43984953704</v>
+      </c>
+      <c r="E133">
+        <v>25</v>
+      </c>
+      <c r="F133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>126159</v>
+      </c>
+      <c r="B134" t="s">
+        <v>138</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134" s="2">
+        <v>44767.43987268519</v>
+      </c>
+      <c r="E134">
+        <v>25</v>
+      </c>
+      <c r="F134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>126159</v>
+      </c>
+      <c r="B135" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" s="2">
+        <v>44767.43988425926</v>
+      </c>
+      <c r="E135">
+        <v>25</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>126159</v>
+      </c>
+      <c r="B136" t="s">
+        <v>140</v>
+      </c>
+      <c r="C136">
+        <v>6</v>
+      </c>
+      <c r="D136" s="2">
+        <v>44767.43989583333</v>
+      </c>
+      <c r="E136">
+        <v>25</v>
+      </c>
+      <c r="F136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>126159</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" s="2">
+        <v>44767.43993055556</v>
+      </c>
+      <c r="E137">
+        <v>25</v>
+      </c>
+      <c r="F137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>126159</v>
+      </c>
+      <c r="B138" t="s">
+        <v>142</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2">
+        <v>44767.4399537037</v>
+      </c>
+      <c r="E138">
+        <v>25</v>
+      </c>
+      <c r="F138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>126159</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139">
+        <v>6</v>
+      </c>
+      <c r="D139" s="2">
+        <v>44767.43997685185</v>
+      </c>
+      <c r="E139">
+        <v>25</v>
+      </c>
+      <c r="F139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>126159</v>
+      </c>
+      <c r="B140" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" s="2">
+        <v>44767.44</v>
+      </c>
+      <c r="E140">
+        <v>25</v>
+      </c>
+      <c r="F140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>126159</v>
+      </c>
+      <c r="B141" t="s">
+        <v>145</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141" s="2">
+        <v>44767.44</v>
+      </c>
+      <c r="E141">
+        <v>25</v>
+      </c>
+      <c r="F141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>126159</v>
+      </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" s="2">
+        <v>44767.44011574074</v>
+      </c>
+      <c r="E142">
+        <v>25</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>126159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" s="2">
+        <v>44767.44004629629</v>
+      </c>
+      <c r="E143">
+        <v>25</v>
+      </c>
+      <c r="F143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>126159</v>
+      </c>
+      <c r="B144" t="s">
+        <v>148</v>
+      </c>
+      <c r="C144">
+        <v>15</v>
+      </c>
+      <c r="D144" s="2">
+        <v>44767.44008101852</v>
+      </c>
+      <c r="E144">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>126159</v>
+      </c>
+      <c r="B145" t="s">
+        <v>149</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145" s="2">
+        <v>44767.44010416666</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>126159</v>
+      </c>
+      <c r="B146" t="s">
+        <v>150</v>
+      </c>
+      <c r="C146">
+        <v>6</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44767.44013888889</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>126159</v>
+      </c>
+      <c r="B147" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44767.44017361111</v>
+      </c>
+      <c r="E147">
+        <v>25</v>
+      </c>
+      <c r="F147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>126159</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" s="2">
+        <v>44767.44020833333</v>
+      </c>
+      <c r="E148">
+        <v>25</v>
+      </c>
+      <c r="F148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>126159</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" s="2">
+        <v>44767.44021990741</v>
+      </c>
+      <c r="E149">
+        <v>25</v>
+      </c>
+      <c r="F149">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>126159</v>
+      </c>
+      <c r="B150" t="s">
+        <v>154</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" s="2">
+        <v>44767.44025462963</v>
+      </c>
+      <c r="E150">
+        <v>25</v>
+      </c>
+      <c r="F150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>126159</v>
+      </c>
+      <c r="B151" t="s">
+        <v>155</v>
+      </c>
+      <c r="C151">
+        <v>160</v>
+      </c>
+      <c r="D151" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E151">
+        <v>25</v>
+      </c>
+      <c r="F151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>126159</v>
+      </c>
+      <c r="B152" t="s">
+        <v>156</v>
+      </c>
+      <c r="C152">
+        <v>200</v>
+      </c>
+      <c r="D152" s="2">
+        <v>44767.42572916667</v>
+      </c>
+      <c r="E152">
+        <v>25</v>
+      </c>
+      <c r="F152">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>126159</v>
+      </c>
+      <c r="B153" t="s">
+        <v>157</v>
+      </c>
+      <c r="C153">
+        <v>24</v>
+      </c>
+      <c r="D153" s="2">
+        <v>44767.42578703703</v>
+      </c>
+      <c r="E153">
+        <v>25</v>
+      </c>
+      <c r="F153">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>126159</v>
+      </c>
+      <c r="B154" t="s">
+        <v>158</v>
+      </c>
+      <c r="C154">
+        <v>24</v>
+      </c>
+      <c r="D154" s="2">
+        <v>44767.4258449074</v>
+      </c>
+      <c r="E154">
+        <v>25</v>
+      </c>
+      <c r="F154">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>126159</v>
+      </c>
+      <c r="B155" t="s">
+        <v>159</v>
+      </c>
+      <c r="C155">
+        <v>24</v>
+      </c>
+      <c r="D155" s="2">
+        <v>44767.42587962963</v>
+      </c>
+      <c r="E155">
+        <v>25</v>
+      </c>
+      <c r="F155">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>126159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>160</v>
+      </c>
+      <c r="C156">
+        <v>15</v>
+      </c>
+      <c r="D156" s="2">
+        <v>44767.42594907407</v>
+      </c>
+      <c r="E156">
+        <v>25</v>
+      </c>
+      <c r="F156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>126159</v>
+      </c>
+      <c r="B157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C157">
+        <v>72</v>
+      </c>
+      <c r="D157" s="2">
+        <v>44767.42599537037</v>
+      </c>
+      <c r="E157">
+        <v>25</v>
+      </c>
+      <c r="F157">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>126159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>162</v>
+      </c>
+      <c r="C158">
+        <v>28</v>
+      </c>
+      <c r="D158" s="2">
+        <v>44767.42604166667</v>
+      </c>
+      <c r="E158">
+        <v>25</v>
+      </c>
+      <c r="F158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>126159</v>
+      </c>
+      <c r="B159" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159">
+        <v>28</v>
+      </c>
+      <c r="D159" s="2">
+        <v>44767.42613425926</v>
+      </c>
+      <c r="E159">
+        <v>25</v>
+      </c>
+      <c r="F159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>126159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160">
+        <v>28</v>
+      </c>
+      <c r="D160" s="2">
+        <v>44767.42633101852</v>
+      </c>
+      <c r="E160">
+        <v>25</v>
+      </c>
+      <c r="F160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>126159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>165</v>
+      </c>
+      <c r="C161">
+        <v>28</v>
+      </c>
+      <c r="D161" s="2">
+        <v>44767.42634259259</v>
+      </c>
+      <c r="E161">
+        <v>25</v>
+      </c>
+      <c r="F161">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>126159</v>
+      </c>
+      <c r="B162" t="s">
+        <v>166</v>
+      </c>
+      <c r="C162">
+        <v>28</v>
+      </c>
+      <c r="D162" s="2">
+        <v>44767.42637731481</v>
+      </c>
+      <c r="E162">
+        <v>25</v>
+      </c>
+      <c r="F162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>126159</v>
+      </c>
+      <c r="B163" t="s">
+        <v>167</v>
+      </c>
+      <c r="C163">
+        <v>28</v>
+      </c>
+      <c r="D163" s="2">
+        <v>44767.42642361111</v>
+      </c>
+      <c r="E163">
+        <v>25</v>
+      </c>
+      <c r="F163">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>126159</v>
+      </c>
+      <c r="B164" t="s">
+        <v>168</v>
+      </c>
+      <c r="C164">
+        <v>28</v>
+      </c>
+      <c r="D164" s="2">
+        <v>44767.42645833334</v>
+      </c>
+      <c r="E164">
+        <v>25</v>
+      </c>
+      <c r="F164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>126159</v>
+      </c>
+      <c r="B165" t="s">
+        <v>169</v>
+      </c>
+      <c r="C165">
+        <v>54</v>
+      </c>
+      <c r="D165" s="2">
+        <v>44767.42670138889</v>
+      </c>
+      <c r="E165">
+        <v>25</v>
+      </c>
+      <c r="F165">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>126159</v>
+      </c>
+      <c r="B166" t="s">
+        <v>170</v>
+      </c>
+      <c r="C166">
+        <v>24</v>
+      </c>
+      <c r="D166" s="2">
+        <v>44767.42745370371</v>
+      </c>
+      <c r="E166">
+        <v>25</v>
+      </c>
+      <c r="F166">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>126159</v>
+      </c>
+      <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167">
+        <v>108</v>
+      </c>
+      <c r="D167" s="2">
+        <v>44767.42753472222</v>
+      </c>
+      <c r="E167">
+        <v>25</v>
+      </c>
+      <c r="F167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>126159</v>
+      </c>
+      <c r="B168" t="s">
+        <v>172</v>
+      </c>
+      <c r="C168">
+        <v>72</v>
+      </c>
+      <c r="D168" s="2">
+        <v>44767.42760416667</v>
+      </c>
+      <c r="E168">
+        <v>25</v>
+      </c>
+      <c r="F168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>126159</v>
+      </c>
+      <c r="B169" t="s">
+        <v>173</v>
+      </c>
+      <c r="C169">
+        <v>50</v>
+      </c>
+      <c r="D169" s="2">
+        <v>44767.42774305555</v>
+      </c>
+      <c r="E169">
+        <v>25</v>
+      </c>
+      <c r="F169">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
+        <v>126159</v>
+      </c>
+      <c r="B170" t="s">
+        <v>174</v>
+      </c>
+      <c r="C170">
+        <v>60</v>
+      </c>
+      <c r="D170" s="2">
+        <v>44767.42802083334</v>
+      </c>
+      <c r="E170">
+        <v>25</v>
+      </c>
+      <c r="F170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>126159</v>
+      </c>
+      <c r="B171" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171">
+        <v>64</v>
+      </c>
+      <c r="D171" s="2">
+        <v>44767.42869212963</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>126159</v>
+      </c>
+      <c r="B172" t="s">
+        <v>176</v>
+      </c>
+      <c r="C172">
+        <v>48</v>
+      </c>
+      <c r="D172" s="2">
+        <v>44767.42877314815</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
+      </c>
+      <c r="F172">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>126159</v>
+      </c>
+      <c r="B173" t="s">
+        <v>177</v>
+      </c>
+      <c r="C173">
+        <v>80</v>
+      </c>
+      <c r="D173" s="2">
+        <v>44767.42888888889</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
+      </c>
+      <c r="F173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>126159</v>
+      </c>
+      <c r="B174" t="s">
+        <v>178</v>
+      </c>
+      <c r="C174">
+        <v>80</v>
+      </c>
+      <c r="D174" s="2">
+        <v>44767.42898148148</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
+      </c>
+      <c r="F174">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>126159</v>
+      </c>
+      <c r="B175" t="s">
+        <v>179</v>
+      </c>
+      <c r="C175">
+        <v>30</v>
+      </c>
+      <c r="D175" s="2">
+        <v>44767.4294212963</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
+      </c>
+      <c r="F175">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176">
+        <v>126159</v>
+      </c>
+      <c r="B176" t="s">
+        <v>180</v>
+      </c>
+      <c r="C176">
+        <v>20</v>
+      </c>
+      <c r="D176" s="2">
+        <v>44767.4318287037</v>
+      </c>
+      <c r="E176">
+        <v>25</v>
+      </c>
+      <c r="F176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177">
+        <v>126159</v>
+      </c>
+      <c r="B177" t="s">
+        <v>181</v>
+      </c>
+      <c r="C177">
+        <v>400</v>
+      </c>
+      <c r="D177" s="2">
+        <v>44767.43188657407</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
+      </c>
+      <c r="F177">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178">
+        <v>126159</v>
+      </c>
+      <c r="B178" t="s">
+        <v>182</v>
+      </c>
+      <c r="C178">
+        <v>240</v>
+      </c>
+      <c r="D178" s="2">
+        <v>44767.43208333333</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
+      </c>
+      <c r="F178">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179">
+        <v>126159</v>
+      </c>
+      <c r="B179" t="s">
+        <v>183</v>
+      </c>
+      <c r="C179">
+        <v>20</v>
+      </c>
+      <c r="D179" s="2">
+        <v>44767.43253472223</v>
+      </c>
+      <c r="E179">
+        <v>25</v>
+      </c>
+      <c r="F179">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180">
+        <v>126159</v>
+      </c>
+      <c r="B180" t="s">
+        <v>184</v>
+      </c>
+      <c r="C180">
+        <v>20</v>
+      </c>
+      <c r="D180" s="2">
+        <v>44767.43262731482</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
+      </c>
+      <c r="F180">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181">
+        <v>126159</v>
+      </c>
+      <c r="B181" t="s">
+        <v>185</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181" s="2">
+        <v>44767.43274305556</v>
+      </c>
+      <c r="E181">
+        <v>25</v>
+      </c>
+      <c r="F181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182">
+        <v>126159</v>
+      </c>
+      <c r="B182" t="s">
+        <v>186</v>
+      </c>
+      <c r="C182">
+        <v>60</v>
+      </c>
+      <c r="D182" s="2">
+        <v>44767.43282407407</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
+      </c>
+      <c r="F182">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183">
+        <v>126159</v>
+      </c>
+      <c r="B183" t="s">
+        <v>187</v>
+      </c>
+      <c r="C183">
+        <v>32</v>
+      </c>
+      <c r="D183" s="2">
+        <v>44767.43292824074</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
+      </c>
+      <c r="F183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184">
+        <v>126159</v>
+      </c>
+      <c r="B184" t="s">
+        <v>188</v>
+      </c>
+      <c r="C184">
+        <v>60</v>
+      </c>
+      <c r="D184" s="2">
+        <v>44767.43298611111</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
+      </c>
+      <c r="F184">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185">
+        <v>126159</v>
+      </c>
+      <c r="B185" t="s">
+        <v>189</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185" s="2">
+        <v>44767.49975694445</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
+      </c>
+      <c r="F185">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186">
+        <v>126159</v>
+      </c>
+      <c r="B186" t="s">
+        <v>190</v>
+      </c>
+      <c r="C186">
+        <v>12</v>
+      </c>
+      <c r="D186" s="2">
+        <v>44767.53908564815</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
+      </c>
+      <c r="F186">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187">
+        <v>126159</v>
+      </c>
+      <c r="B187" t="s">
+        <v>191</v>
+      </c>
+      <c r="C187">
+        <v>12</v>
+      </c>
+      <c r="D187" s="2">
+        <v>44767.53918981482</v>
+      </c>
+      <c r="E187">
+        <v>25</v>
+      </c>
+      <c r="F187">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188">
+        <v>126159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188">
+        <v>12</v>
+      </c>
+      <c r="D188" s="2">
+        <v>44767.53924768518</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
+      </c>
+      <c r="F188">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189">
+        <v>126159</v>
+      </c>
+      <c r="B189" t="s">
+        <v>193</v>
+      </c>
+      <c r="C189">
+        <v>12</v>
+      </c>
+      <c r="D189" s="2">
+        <v>44767.53958333333</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
+      </c>
+      <c r="F189">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190">
+        <v>126159</v>
+      </c>
+      <c r="B190" t="s">
+        <v>194</v>
+      </c>
+      <c r="C190">
+        <v>12</v>
+      </c>
+      <c r="D190" s="2">
+        <v>44767.53987268519</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
+      </c>
+      <c r="F190">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191">
+        <v>126159</v>
+      </c>
+      <c r="B191" t="s">
+        <v>195</v>
+      </c>
+      <c r="C191">
+        <v>12</v>
+      </c>
+      <c r="D191" s="2">
+        <v>44767.54118055556</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
+      </c>
+      <c r="F191">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192">
+        <v>42581</v>
+      </c>
+      <c r="B192" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192">
+        <v>240</v>
+      </c>
+      <c r="D192" s="2">
+        <v>44767.46053240741</v>
+      </c>
+      <c r="E192">
+        <v>25</v>
+      </c>
+      <c r="F192">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193">
+        <v>42581</v>
+      </c>
+      <c r="B193" t="s">
+        <v>197</v>
+      </c>
+      <c r="C193">
+        <v>10</v>
+      </c>
+      <c r="D193" s="2">
+        <v>44767.4627662037</v>
+      </c>
+      <c r="E193">
+        <v>25</v>
+      </c>
+      <c r="F193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194">
+        <v>42581</v>
+      </c>
+      <c r="B194" t="s">
+        <v>198</v>
+      </c>
+      <c r="C194">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2">
+        <v>44767.46300925926</v>
+      </c>
+      <c r="E194">
+        <v>25</v>
+      </c>
+      <c r="F194">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195">
+        <v>42581</v>
+      </c>
+      <c r="B195" t="s">
+        <v>199</v>
+      </c>
+      <c r="C195">
+        <v>60</v>
+      </c>
+      <c r="D195" s="2">
+        <v>44767.46697916667</v>
+      </c>
+      <c r="E195">
+        <v>25</v>
+      </c>
+      <c r="F195">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196">
+        <v>42581</v>
+      </c>
+      <c r="B196" t="s">
+        <v>200</v>
+      </c>
+      <c r="C196">
+        <v>60</v>
+      </c>
+      <c r="D196" s="2">
+        <v>44767.46753472222</v>
+      </c>
+      <c r="E196">
+        <v>25</v>
+      </c>
+      <c r="F196">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197">
+        <v>42581</v>
+      </c>
+      <c r="B197" t="s">
+        <v>201</v>
+      </c>
+      <c r="C197">
+        <v>60</v>
+      </c>
+      <c r="D197" s="2">
+        <v>44767.46766203704</v>
+      </c>
+      <c r="E197">
+        <v>25</v>
+      </c>
+      <c r="F197">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198">
+        <v>42581</v>
+      </c>
+      <c r="B198" t="s">
+        <v>202</v>
+      </c>
+      <c r="C198">
+        <v>120</v>
+      </c>
+      <c r="D198" s="2">
+        <v>44767.48232638889</v>
+      </c>
+      <c r="E198">
+        <v>25</v>
+      </c>
+      <c r="F198">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199">
+        <v>42581</v>
+      </c>
+      <c r="B199" t="s">
+        <v>203</v>
+      </c>
+      <c r="C199">
+        <v>120</v>
+      </c>
+      <c r="D199" s="2">
+        <v>44767.48327546296</v>
+      </c>
+      <c r="E199">
+        <v>25</v>
+      </c>
+      <c r="F199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200">
+        <v>42581</v>
+      </c>
+      <c r="B200" t="s">
+        <v>204</v>
+      </c>
+      <c r="C200">
+        <v>24</v>
+      </c>
+      <c r="D200" s="2">
+        <v>44767.48421296296</v>
+      </c>
+      <c r="E200">
+        <v>25</v>
+      </c>
+      <c r="F200">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201">
+        <v>42581</v>
+      </c>
+      <c r="B201" t="s">
+        <v>205</v>
+      </c>
+      <c r="C201">
+        <v>48</v>
+      </c>
+      <c r="D201" s="2">
+        <v>44767.48454861111</v>
+      </c>
+      <c r="E201">
+        <v>25</v>
+      </c>
+      <c r="F201">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
